--- a/Season_Trophies/86.xlsx
+++ b/Season_Trophies/86.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E156"/>
+  <dimension ref="A1:E155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -396,7 +396,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>43630</t>
+          <t>44156</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -416,14 +416,14 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2911</t>
+          <t>2968</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>542</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -443,14 +443,14 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4702</t>
+          <t>5298</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1684</t>
+          <t>989</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -470,24 +470,24 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4538</t>
+          <t>4921</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3322</t>
+          <t>4070</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>6940556</t>
+          <t>31217211</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>"Cry ab it林黛玉ᶻᵍˣ"</t>
+          <t>解憂雜貨鋪㊥</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -497,24 +497,24 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4415</t>
+          <t>4629</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>5687</t>
+          <t>6843</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>31217211</t>
+          <t>6940556</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>解憂雜貨鋪㊥</t>
+          <t>"Cry ab it林黛玉ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -524,14 +524,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4289</t>
+          <t>4464</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>11592</t>
+          <t>9638</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -551,14 +551,14 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4031</t>
+          <t>4314</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>18082</t>
+          <t>24014</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -578,14 +578,14 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3855</t>
+          <t>3854</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>824</t>
+          <t>718</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -605,14 +605,14 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4649</t>
+          <t>4971</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>7624</t>
+          <t>7470</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -632,14 +632,14 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4191</t>
+          <t>4428</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>43429</t>
+          <t>16698</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -659,24 +659,24 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2919</t>
+          <t>4053</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>828</t>
+          <t>2344</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1820342</t>
+          <t>46422609</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>摸鱼爱好者三战</t>
+          <t>㊥林天大大神</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -686,24 +686,24 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4649</t>
+          <t>4760</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1238</t>
+          <t>4642</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>28749280</t>
+          <t>21345373</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>㊥老船⛵⛵</t>
+          <t>林北不講武德</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -713,24 +713,24 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>4586</t>
+          <t>4594</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>3665</t>
+          <t>4800</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>46422609</t>
+          <t>30411791</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>㊥林天大大神</t>
+          <t>"㊥Ⓩ GOÐAFRÆÐI ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -740,24 +740,24 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>4395</t>
+          <t>4585</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>5303</t>
+          <t>5069</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>21345373</t>
+          <t>31267627</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>林北不講武德</t>
+          <t>"㊥ Martin"</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -767,24 +767,24 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>4309</t>
+          <t>4568</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>5711</t>
+          <t>6117</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>30411791</t>
+          <t>1820342</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>"㊥Ⓩ GOÐAFRÆÐI ᶻᵍˣ"</t>
+          <t>摸鱼爱好者三战</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -794,24 +794,24 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>4288</t>
+          <t>4506</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>6258</t>
+          <t>7098</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>31267627</t>
+          <t>9541747</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>"㊥ Martin"</t>
+          <t>豹子头林冲</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -821,24 +821,24 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>4259</t>
+          <t>4450</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>6707</t>
+          <t>7212</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>38711610</t>
+          <t>28749280</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>心灵有为</t>
+          <t>㊥老船⛵⛵</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -848,24 +848,24 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>4234</t>
+          <t>4444</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>7853</t>
+          <t>7272</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>6510348</t>
+          <t>38711610</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Bonpoisson</t>
+          <t>心灵有为</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -875,24 +875,24 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>4181</t>
+          <t>4440</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>8240</t>
+          <t>10693</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>55317038</t>
+          <t>3477306</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>necman12345</t>
+          <t>"MeGa Tsai"</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -902,24 +902,24 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>4164</t>
+          <t>4269</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>9595</t>
+          <t>11479</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>45967307</t>
+          <t>7025661</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Ricky</t>
+          <t>"F ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -929,24 +929,24 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>4104</t>
+          <t>4234</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>9766</t>
+          <t>13826</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>44955827</t>
+          <t>12333251</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>丶小阿狸丿</t>
+          <t>"㊌ Mingxuan"</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -956,24 +956,24 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>4097</t>
+          <t>4144</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>9786</t>
+          <t>14063</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>9541747</t>
+          <t>44955827</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>豹子头林冲</t>
+          <t>丶小阿狸丿</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -983,24 +983,24 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>4096</t>
+          <t>4135</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>16262</t>
+          <t>14097</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>3477306</t>
+          <t>4229136</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>"MeGa Tsai"</t>
+          <t>"totoro wu"</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1010,24 +1010,24 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>3920</t>
+          <t>4134</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>17164</t>
+          <t>15220</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>12333251</t>
+          <t>45967307</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>"㊌ Mingxuan"</t>
+          <t>Ricky</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1037,24 +1037,24 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>3887</t>
+          <t>4098</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>18088</t>
+          <t>15631</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>14424176</t>
+          <t>29729468</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>天才少年老纪</t>
+          <t>"风神舞动 WDᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1064,24 +1064,24 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>3855</t>
+          <t>4086</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>18361</t>
+          <t>16948</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>47146736</t>
+          <t>14424176</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>"HK 品瑜"</t>
+          <t>天才少年老纪</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1091,24 +1091,24 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>3845</t>
+          <t>4046</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>19482</t>
+          <t>17235</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>4229136</t>
+          <t>55317038</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>"totoro wu"</t>
+          <t>necman12345</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1118,24 +1118,24 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>3806</t>
+          <t>4037</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>21380</t>
+          <t>21649</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>7025661</t>
+          <t>47146736</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>"F ᶻᵍˣ"</t>
+          <t>"HK 品瑜"</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1145,24 +1145,24 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>3745</t>
+          <t>3947</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>20736</t>
+          <t>31149</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>29729468</t>
+          <t>28387448</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>"风神舞动 WDᶻᵍˣ"</t>
+          <t>☜⊙‖⊙☞</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1172,24 +1172,24 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>3766</t>
+          <t>3562</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>28667</t>
+          <t>33381</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>28387448</t>
+          <t>20737010</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>☜⊙‖⊙☞</t>
+          <t>混着玩...</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1199,24 +1199,24 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>3497</t>
+          <t>3467</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>38045</t>
+          <t>48224</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>20737010</t>
+          <t>7587898</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>混着玩...</t>
+          <t>藍精靈ᶻᵍˣ</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1226,24 +1226,24 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>3136</t>
+          <t>2815</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>46515</t>
+          <t>51207</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>7587898</t>
+          <t>47227626</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>藍精靈ᶻᵍˣ</t>
+          <t>Player-47227626</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1253,24 +1253,24 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2815</t>
+          <t>2721</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>49296</t>
+          <t>61586</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>47227626</t>
+          <t>47928278</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Player-47227626</t>
+          <t>"落日幻影 哈哈哈"</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1280,24 +1280,24 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2728</t>
+          <t>2500</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>60600</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>47928278</t>
+          <t>23687250</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>"落日幻影 哈哈哈"</t>
+          <t>"jetlijp ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1307,78 +1307,78 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>9012</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>23687250</t>
+          <t>27484940</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>"jetlijp ᶻᵍˣ"</t>
+          <t>66666zgx</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4346</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>669</t>
+          <t>21257</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>20199374</t>
+          <t>38809086</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>RuanFan</t>
+          <t>Kouenᶻᵍˣ</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>4676</t>
+          <t>3962</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>8376</t>
+          <t>7392</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>27484940</t>
+          <t>13738844</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>66666zgx</t>
+          <t>"Chen Hao"</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1388,24 +1388,24 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>4158</t>
+          <t>4433</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>15000</t>
+          <t>8800</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>38809086</t>
+          <t>42434117</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Kouenᶻᵍˣ</t>
+          <t>㊥有双飞鸟</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1415,24 +1415,24 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>3965</t>
+          <t>4357</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>4648</t>
+          <t>9879</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>49710892</t>
+          <t>53060417</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>MMMMMMM</t>
+          <t>㊥老纳信耶稣</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1442,24 +1442,24 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>4341</t>
+          <t>4303</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>9325</t>
+          <t>10889</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>53060417</t>
+          <t>49710892</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>㊥老纳信耶稣</t>
+          <t>MMMMMMM</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1469,14 +1469,14 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>4115</t>
+          <t>4260</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>9789</t>
+          <t>11456</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1496,24 +1496,24 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>4096</t>
+          <t>4235</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>10278</t>
+          <t>14508</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>13738844</t>
+          <t>54698813</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>"Chen Hao"</t>
+          <t>閃亮唐老鴨</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1523,24 +1523,24 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>4078</t>
+          <t>4120</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>12242</t>
+          <t>15367</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>54698813</t>
+          <t>31495601</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>閃亮唐老鴨</t>
+          <t>陈晓军</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1550,24 +1550,24 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>4011</t>
+          <t>4094</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>12451</t>
+          <t>15864</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>31495601</t>
+          <t>4756174</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>陈晓军</t>
+          <t>純希です</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1577,24 +1577,24 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>4007</t>
+          <t>4078</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>13006</t>
+          <t>17836</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>42434117</t>
+          <t>55769051</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>㊥有双飞鸟</t>
+          <t>㊥叮叮当.</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1604,24 +1604,24 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>3997</t>
+          <t>4019</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>15869</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>4756174</t>
+          <t>43812707</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>純希です</t>
+          <t>bbtt</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1631,24 +1631,24 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>3934</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>18634</t>
+          <t>271</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>55769051</t>
+          <t>8741713</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>㊥叮叮当.</t>
+          <t xml:space="preserve">㊥大咖玩家ky </t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1658,24 +1658,24 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>3835</t>
+          <t>5101</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>6609</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>43812707</t>
+          <t>6510348</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>bbtt</t>
+          <t>Bonpoisson</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1685,24 +1685,24 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4478</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>506</t>
+          <t>6979</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>8741713</t>
+          <t>21735478</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t xml:space="preserve">㊥大咖玩家ky </t>
+          <t>耀翔fly</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1712,24 +1712,24 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>4711</t>
+          <t>4458</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>850</t>
+          <t>7080</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>21735478</t>
+          <t>4493731</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>耀翔fly</t>
+          <t>Player-1527362</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1739,24 +1739,24 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>4645</t>
+          <t>4451</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>5506</t>
+          <t>7438</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>8057001</t>
+          <t>29211638</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>㊥兵者诡道也</t>
+          <t>"㊥ PhononDisperse"</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1766,14 +1766,14 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>4297</t>
+          <t>4430</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>5932</t>
+          <t>8705</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1793,24 +1793,24 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>4277</t>
+          <t>4362</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>5979</t>
+          <t>10750</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>29211638</t>
+          <t>7852598</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>"㊥ PhononDisperse"</t>
+          <t>seiji</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1820,24 +1820,24 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>4275</t>
+          <t>4266</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>8918</t>
+          <t>11463</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>16206490</t>
+          <t>38995116</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>㊥Godcys</t>
+          <t>"Ramesh Pavai Nam"</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1847,24 +1847,24 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>4133</t>
+          <t>4235</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>9687</t>
+          <t>11998</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>4493731</t>
+          <t>56133764</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Player-1527362</t>
+          <t>ustcarter</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1874,24 +1874,24 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>4100</t>
+          <t>4212</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>10879</t>
+          <t>14109</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>7852598</t>
+          <t>22885399</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>seiji</t>
+          <t>余文琪</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1901,24 +1901,24 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>4055</t>
+          <t>4134</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>11114</t>
+          <t>14142</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>56133764</t>
+          <t>16206490</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>ustcarter</t>
+          <t>㊥Godcys</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1928,24 +1928,24 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>4046</t>
+          <t>4133</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>13608</t>
+          <t>14888</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>38995116</t>
+          <t>38561634</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>"Ramesh Pavai Nam"</t>
+          <t>"Ambrose PT"</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1955,24 +1955,24 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>3993</t>
+          <t>4109</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>16053</t>
+          <t>16905</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>11582001</t>
+          <t>8057001</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>iMinatoX4</t>
+          <t>㊥兵者诡道也</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1982,24 +1982,24 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>3928</t>
+          <t>4046</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>18539</t>
+          <t>18227</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>38561634</t>
+          <t>11582001</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>"Ambrose PT"</t>
+          <t>iMinatoX4</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2009,24 +2009,24 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>3839</t>
+          <t>4010</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>18860</t>
+          <t>20963</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>22885399</t>
+          <t>6809364</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>余文琪</t>
+          <t>"Scorp IP"</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2036,24 +2036,24 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>3829</t>
+          <t>3972</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>21382</t>
+          <t>27586</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>6809364</t>
+          <t>54778421</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>"Scorp IP"</t>
+          <t>Emma</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2063,24 +2063,24 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>3745</t>
+          <t>3711</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>24248</t>
+          <t>30545</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>54778421</t>
+          <t>56573048</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Emma</t>
+          <t>Xiaotian</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2090,24 +2090,24 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>3651</t>
+          <t>3587</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>31736</t>
+          <t>35874</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>56573048</t>
+          <t>58203298</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Xiaotian</t>
+          <t>权旨qua</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2117,14 +2117,14 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>3385</t>
+          <t>3355</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>34945</t>
+          <t>38284</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2144,24 +2144,24 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>3263</t>
+          <t>3250</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>37548</t>
+          <t>42441</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>58203298</t>
+          <t>56500325</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>权旨qua</t>
+          <t>haruharuyukizg9735</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2171,14 +2171,14 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>3157</t>
+          <t>3042</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>40693</t>
+          <t>42468</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2198,24 +2198,24 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>3021</t>
+          <t>3041</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>40858</t>
+          <t>44474</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>56500325</t>
+          <t>31401481</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>haruharuyukizg9735</t>
+          <t>Player-31401481</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2225,24 +2225,24 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>3015</t>
+          <t>2955</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>43105</t>
+          <t>46505</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>31401481</t>
+          <t>57813281</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Player-31401481</t>
+          <t>XAUEN</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2252,24 +2252,24 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2931</t>
+          <t>2875</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>45799</t>
+          <t>48728</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>57813281</t>
+          <t>1550355</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>XAUEN</t>
+          <t>"皓茵 世界"</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2279,24 +2279,24 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2837</t>
+          <t>2801</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>47861</t>
+          <t>49038</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>1550355</t>
+          <t>55860890</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>"皓茵 世界"</t>
+          <t>㊥Ethan</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2306,24 +2306,24 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2773</t>
+          <t>2790</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>48672</t>
+          <t>52433</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>55860890</t>
+          <t>38893233</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>㊥Ethan</t>
+          <t>"快乐 二哈"</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2333,24 +2333,24 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2747</t>
+          <t>2685</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>51881</t>
+          <t>53620</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>38893233</t>
+          <t>32316256</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>"快乐 二哈"</t>
+          <t>"秋の風 .."</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2360,24 +2360,24 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2658</t>
+          <t>2653</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>52058</t>
+          <t>56421</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>32316256</t>
+          <t>24733875</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>"秋の風 .."</t>
+          <t>龍少</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2387,24 +2387,24 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2654</t>
+          <t>2588</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>55032</t>
+          <t>58542</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>24733875</t>
+          <t>68132</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>龍少</t>
+          <t>"㊖TW9 百媚生"</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2414,24 +2414,24 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2588</t>
+          <t>2547</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>57130</t>
+          <t>62358</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>68132</t>
+          <t>14110169</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>"㊖TW9 百媚生"</t>
+          <t>"Pasiony CANQ"</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2441,24 +2441,24 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2550</t>
+          <t>2496</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>61298</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>14110169</t>
+          <t>29565</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>"Pasiony CANQ"</t>
+          <t>"aK.j Zhong ㊥"</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2468,7 +2468,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2497</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2480,12 +2480,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>29565</t>
+          <t>12639656</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>"aK.j Zhong ㊥"</t>
+          <t>"wu huang"</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2507,12 +2507,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>12639656</t>
+          <t>47758619</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>"wu huang"</t>
+          <t>"㊥ Moon ㊥"</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2534,12 +2534,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>47758619</t>
+          <t>44789201</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>"㊥ Moon ㊥"</t>
+          <t>华夏四川广安</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2561,12 +2561,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>44789201</t>
+          <t>32478707</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>华夏四川广安</t>
+          <t>"Bt So"</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2583,44 +2583,44 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>14921</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>32478707</t>
+          <t>31134300</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>"Bt So"</t>
+          <t>McMaX</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4108</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>17686</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>31134300</t>
+          <t>44378757</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>McMaX</t>
+          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2630,24 +2630,24 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>3869</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>13471</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>44378757</t>
+          <t>46289694</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
+          <t>㊥Vincent</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2657,24 +2657,24 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4157</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>12480</t>
+          <t>19081</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>46289694</t>
+          <t>37069173</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>㊥Vincent</t>
+          <t>詹toniii</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2684,24 +2684,24 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>4006</t>
+          <t>3996</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>14545</t>
+          <t>19303</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>37069173</t>
+          <t>54085771</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>詹toniii</t>
+          <t>㊥Matthieu</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2711,24 +2711,24 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>3980</t>
+          <t>3994</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>16471</t>
+          <t>26071</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>54085771</t>
+          <t>28855852</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>㊥Matthieu</t>
+          <t>tiger</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2738,24 +2738,24 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>3912</t>
+          <t>3774</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>28283</t>
+          <t>29304</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>28855852</t>
+          <t>25479797</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>tiger</t>
+          <t>"Mohamed Alnaqbi"</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2765,24 +2765,24 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>3509</t>
+          <t>3639</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>33264</t>
+          <t>35527</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>25479797</t>
+          <t>44708798</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>"Mohamed Alnaqbi"</t>
+          <t>"㊥ mythgod"</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2792,24 +2792,24 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>3327</t>
+          <t>3372</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>33038</t>
+          <t>60501</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>44708798</t>
+          <t>54588689</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>"㊥ mythgod"</t>
+          <t>㊥墨衍枫迹☜</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2819,24 +2819,24 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>3335</t>
+          <t>2516</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>60564</t>
+          <t>2179</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>54588689</t>
+          <t>3946814</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>㊥墨衍枫迹☜</t>
+          <t>"小瑩 潘"</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2846,24 +2846,24 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>4776</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>884</t>
+          <t>2194</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>3946814</t>
+          <t>33656016</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>"小瑩 潘"</t>
+          <t>㊥☆梅海听雪☆</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2873,24 +2873,24 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>4639</t>
+          <t>4775</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>2554</t>
+          <t>7805</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>33656016</t>
+          <t>1951758</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>㊥☆梅海听雪☆</t>
+          <t>我來找你了</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2900,14 +2900,14 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>4468</t>
+          <t>4409</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>10711</t>
+          <t>11529</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -2927,24 +2927,24 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>4062</t>
+          <t>4232</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>11390</t>
+          <t>23707</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>1951758</t>
+          <t>55634661</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>我來找你了</t>
+          <t>Opalus</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2954,24 +2954,24 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>4038</t>
+          <t>3866</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>16943</t>
+          <t>24395</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>58743790</t>
+          <t>37861953</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Ma</t>
+          <t>"Durex ๑• . •๑"</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2981,24 +2981,24 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>3893</t>
+          <t>3839</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>19077</t>
+          <t>24517</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>56732705</t>
+          <t>3649043</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>时间温柔皆遗憾</t>
+          <t>"慶頴 謝"</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3008,24 +3008,24 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>3821</t>
+          <t>3835</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>19134</t>
+          <t>25196</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>55634661</t>
+          <t>58743790</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Opalus</t>
+          <t>Ma</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3035,24 +3035,24 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>3819</t>
+          <t>3809</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>27916</t>
+          <t>25817</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>56585361</t>
+          <t>56732705</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>"㊥ go策划我要ali"</t>
+          <t>时间温柔皆遗憾</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3062,24 +3062,24 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>3522</t>
+          <t>3784</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>28539</t>
+          <t>28358</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>56379103</t>
+          <t>58839983</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Globalking</t>
+          <t>每逢佳节胖六斤</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3089,24 +3089,24 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>3500</t>
+          <t>3681</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>28809</t>
+          <t>28793</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>37861953</t>
+          <t>56379103</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>"Durex ๑• . •๑"</t>
+          <t>Globalking</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3116,24 +3116,24 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>3492</t>
+          <t>3661</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>29616</t>
+          <t>29789</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>58839983</t>
+          <t>56585361</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>每逢佳节胖六斤</t>
+          <t>"㊥ go策划我要ali"</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3143,14 +3143,14 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>3463</t>
+          <t>3620</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>31554</t>
+          <t>32814</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -3170,14 +3170,14 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>3391</t>
+          <t>3492</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>31703</t>
+          <t>33103</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -3197,24 +3197,24 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>3386</t>
+          <t>3478</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>32838</t>
+          <t>33139</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>47244896</t>
+          <t>18082891</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Dropthebeat</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3224,24 +3224,24 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>3343</t>
+          <t>3477</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>33513</t>
+          <t>36562</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>18082891</t>
+          <t>47244896</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Dropthebeat</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3251,24 +3251,24 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>3318</t>
+          <t>3326</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>34142</t>
+          <t>38755</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>3649043</t>
+          <t>1304123</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>"慶頴 謝"</t>
+          <t>Cccccccccccc</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3278,24 +3278,24 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>3294</t>
+          <t>3228</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>34660</t>
+          <t>40400</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>1304123</t>
+          <t>48738257</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Cccccccccccc</t>
+          <t>死亡洲际跳蛋</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3305,24 +3305,24 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>3274</t>
+          <t>3147</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>38033</t>
+          <t>42489</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>48738257</t>
+          <t>56700848</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>死亡洲际跳蛋</t>
+          <t>工口漫画老师</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3332,24 +3332,24 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>3136</t>
+          <t>3040</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>41430</t>
+          <t>42667</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>58641574</t>
+          <t>52997727</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Player-58641574鱼</t>
+          <t>larios</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3359,24 +3359,24 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>2993</t>
+          <t>3031</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>43301</t>
+          <t>43033</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>52997727</t>
+          <t>48634530</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>larios</t>
+          <t>leezhenrui</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -3386,24 +3386,24 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>2923</t>
+          <t>3015</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>43890</t>
+          <t>43917</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>48634530</t>
+          <t>58641574</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>leezhenrui</t>
+          <t>Player-58641574鱼</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3413,14 +3413,14 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>2902</t>
+          <t>2977</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>46466</t>
+          <t>46872</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -3440,24 +3440,24 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>2817</t>
+          <t>2861</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>46521</t>
+          <t>46976</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>56700848</t>
+          <t>11645391</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>工口漫画老师</t>
+          <t>"omar omar"</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3467,24 +3467,24 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>2815</t>
+          <t>2858</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>51398</t>
+          <t>58037</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>11645391</t>
+          <t>47430231</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>"omar omar"</t>
+          <t>Kentantrino</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3494,24 +3494,24 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>2670</t>
+          <t>2556</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>56652</t>
+          <t>60881</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>47430231</t>
+          <t>5367482</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Kentantrino</t>
+          <t>Ігор</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3521,24 +3521,24 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>2558</t>
+          <t>2511</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>59195</t>
+          <t>61160</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>5367482</t>
+          <t>58940575</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Ігор</t>
+          <t>图啊图z z</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3548,14 +3548,14 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>2519</t>
+          <t>2506</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>59755</t>
+          <t>61221</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -3575,14 +3575,14 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>2512</t>
+          <t>2505</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>60127</t>
+          <t>61307</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -3602,24 +3602,24 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>2507</t>
+          <t>2504</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>62940</t>
+          <t>65028</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>58940575</t>
+          <t>52792063</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>图啊图z z</t>
+          <t>"Tramaine Dowlen"</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3629,24 +3629,24 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>2471</t>
+          <t>2385</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>64012</t>
+          <t>68331</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>52792063</t>
+          <t>20372140</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>"Tramaine Dowlen"</t>
+          <t>人山即是仙</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3656,24 +3656,24 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>2388</t>
+          <t>2248</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>66987</t>
+          <t>73241</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>20372140</t>
+          <t>9718882</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>人山即是仙</t>
+          <t>小霸王2021</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3683,24 +3683,24 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>2248</t>
+          <t>2119</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>72183</t>
+          <t>78483</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>9718882</t>
+          <t>57219176</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>小霸王2021</t>
+          <t>青莲道人</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3710,24 +3710,24 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>2105</t>
+          <t>2025</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>78152</t>
+          <t>90688</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>57219176</t>
+          <t>54941706</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>青莲道人</t>
+          <t>AlexMenjivar20</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3737,24 +3737,24 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>1575</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>88791</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>54941706</t>
+          <t>38994054</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>AlexMenjivar20</t>
+          <t>chengnan</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3764,7 +3764,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>1575</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -3776,12 +3776,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>38994054</t>
+          <t>3391765</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>chengnan</t>
+          <t>马er</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -3803,12 +3803,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>3391765</t>
+          <t>55810157</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>马er</t>
+          <t>Beard</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -3830,12 +3830,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>55810157</t>
+          <t>57556179</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Beard</t>
+          <t>特战新生代英雄</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -3857,12 +3857,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>57556179</t>
+          <t>1222440</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>特战新生代英雄</t>
+          <t>"Sneaky Ninja Panda"</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -3884,12 +3884,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>1222440</t>
+          <t>58340439</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>"Sneaky Ninja Panda"</t>
+          <t>70qilin</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -3911,12 +3911,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>58340439</t>
+          <t>58615925</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>70qilin</t>
+          <t>齐天的大圣</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -3933,44 +3933,44 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>42187</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>58615925</t>
+          <t>41849539</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>齐天的大圣</t>
+          <t>三号馆馆主</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3055</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>45094</t>
+          <t>44720</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>41849539</t>
+          <t>56241637</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>三号馆馆主</t>
+          <t>Player-14day</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -3980,24 +3980,24 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>2861</t>
+          <t>2945</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>42917</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>56241637</t>
+          <t>47622456</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Player-14day</t>
+          <t>伊恩</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -4007,24 +4007,24 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>2937</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>40018</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>47622456</t>
+          <t>55210350</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>伊恩</t>
+          <t>一个过客而已</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -4034,24 +4034,24 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3164</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>37380</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>55210350</t>
+          <t>49553719</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>一个过客而已</t>
+          <t>"Oreo Captain Sir"</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -4061,24 +4061,24 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>3164</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>46283</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>49553719</t>
+          <t>12434456</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>"Oreo Captain Sir"</t>
+          <t>Player-12434456</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -4088,24 +4088,24 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2883</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>43922</t>
+          <t>77384</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>12434456</t>
+          <t>58671339</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Player-12434456</t>
+          <t>"quang pro"</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -4115,24 +4115,24 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>2901</t>
+          <t>2042</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>76833</t>
+          <t>98840</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>58671339</t>
+          <t>41231396</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>"quang pro"</t>
+          <t>ollsthebro</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -4142,24 +4142,24 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>1499</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>96930</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>41231396</t>
+          <t>58572199</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>ollsthebro</t>
+          <t>你干嘛～哎呦～</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -4169,7 +4169,7 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>1499</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4181,12 +4181,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>58572199</t>
+          <t>58766144</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>你干嘛～哎呦～</t>
+          <t>EquablePrecedence38</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -4208,12 +4208,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>58766144</t>
+          <t>29355299</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>EquablePrecedence38</t>
+          <t>Player-29355299</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -4235,12 +4235,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>29355299</t>
+          <t>58910668</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Player-29355299</t>
+          <t>BrittleAuthor33</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -4262,12 +4262,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>58910668</t>
+          <t>55745105</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>BrittleAuthor33</t>
+          <t>eldeniz</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -4289,12 +4289,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>55745105</t>
+          <t>58174442</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>eldeniz</t>
+          <t>Player-58174442</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -4316,17 +4316,17 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>58174442</t>
+          <t>9913517</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Player-58174442</t>
+          <t>"Kenny Chan"</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>Chinese</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -4338,17 +4338,17 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>47220</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>9913517</t>
+          <t>41848598</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>"Kenny Chan"</t>
+          <t>国家一级保护沙雕</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -4358,24 +4358,24 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2849</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>47565</t>
+          <t>59510</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>41848598</t>
+          <t>6010122</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>国家一级保护沙雕</t>
+          <t>"Edward Peng"</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -4385,24 +4385,24 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>2782</t>
+          <t>2530</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>58359</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>6010122</t>
+          <t>12648101</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>"Edward Peng"</t>
+          <t>"player 198827"</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -4412,7 +4412,7 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>2530</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4424,12 +4424,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>12648101</t>
+          <t>9195340</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>"player 198827"</t>
+          <t>Namllllllik</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -4451,12 +4451,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>9195340</t>
+          <t>15755724</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Namllllllik</t>
+          <t>"Last Good"</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -4478,12 +4478,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>15755724</t>
+          <t>8850180</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>"Last Good"</t>
+          <t>30624300</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -4505,12 +4505,12 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>8850180</t>
+          <t>28624723</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>30624300</t>
+          <t>"Woody Shade"</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -4527,17 +4527,17 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>46066</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>28624723</t>
+          <t>10636651</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>"Woody Shade"</t>
+          <t>"Ismail Aflou"</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -4547,34 +4547,7 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>43846</t>
-        </is>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>10636651</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>"Ismail Aflou"</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>Chinese</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>2904</t>
+          <t>2891</t>
         </is>
       </c>
     </row>

--- a/Season_Trophies/86.xlsx
+++ b/Season_Trophies/86.xlsx
@@ -396,7 +396,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>44156</t>
+          <t>44336</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -423,7 +423,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>17</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -443,14 +443,14 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5298</t>
+          <t>5290</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>989</t>
+          <t>1018</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -477,7 +477,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4070</t>
+          <t>4311</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -497,14 +497,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4629</t>
+          <t>4621</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>6843</t>
+          <t>6998</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -531,7 +531,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>9638</t>
+          <t>9848</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -558,7 +558,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>24014</t>
+          <t>24514</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -585,7 +585,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>718</t>
+          <t>784</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -605,14 +605,14 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4971</t>
+          <t>4962</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>7470</t>
+          <t>7640</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -639,7 +639,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>16698</t>
+          <t>17177</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -666,7 +666,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2344</t>
+          <t>2479</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -686,14 +686,14 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4760</t>
+          <t>4753</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4642</t>
+          <t>4748</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -720,7 +720,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4800</t>
+          <t>4903</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -747,7 +747,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>5069</t>
+          <t>5184</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -774,7 +774,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>6117</t>
+          <t>6240</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -801,7 +801,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>7098</t>
+          <t>6952</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -821,24 +821,24 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>4450</t>
+          <t>4466</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>7212</t>
+          <t>7174</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>28749280</t>
+          <t>44955827</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>㊥老船⛵⛵</t>
+          <t>丶小阿狸丿</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -848,24 +848,24 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>4444</t>
+          <t>4455</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>7272</t>
+          <t>7367</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>38711610</t>
+          <t>28749280</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>心灵有为</t>
+          <t>㊥老船⛵⛵</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -875,24 +875,24 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>4440</t>
+          <t>4444</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>10693</t>
+          <t>7432</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>3477306</t>
+          <t>38711610</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>"MeGa Tsai"</t>
+          <t>心灵有为</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -902,24 +902,24 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>4269</t>
+          <t>4440</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>11479</t>
+          <t>10944</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>7025661</t>
+          <t>3477306</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>"F ᶻᵍˣ"</t>
+          <t>"MeGa Tsai"</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -929,24 +929,24 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>4234</t>
+          <t>4269</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>13826</t>
+          <t>11757</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>12333251</t>
+          <t>7025661</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>"㊌ Mingxuan"</t>
+          <t>"F ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -956,24 +956,24 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>4144</t>
+          <t>4234</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>14063</t>
+          <t>14178</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>44955827</t>
+          <t>12333251</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>丶小阿狸丿</t>
+          <t>"㊌ Mingxuan"</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -983,14 +983,14 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>4135</t>
+          <t>4144</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>14097</t>
+          <t>14438</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1017,7 +1017,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>15220</t>
+          <t>15670</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1044,7 +1044,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>15631</t>
+          <t>16084</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1071,7 +1071,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>16948</t>
+          <t>16589</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1091,14 +1091,14 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>4046</t>
+          <t>4070</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>17235</t>
+          <t>17855</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1118,14 +1118,14 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>4037</t>
+          <t>4033</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>21649</t>
+          <t>22142</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1152,7 +1152,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>31149</t>
+          <t>31546</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1179,7 +1179,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>33381</t>
+          <t>33720</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1206,7 +1206,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>48224</t>
+          <t>48369</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1233,7 +1233,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>51207</t>
+          <t>50623</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1253,14 +1253,14 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2721</t>
+          <t>2744</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>61586</t>
+          <t>61687</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1314,7 +1314,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>9012</t>
+          <t>9204</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1341,7 +1341,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>21257</t>
+          <t>21799</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1361,14 +1361,14 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>3962</t>
+          <t>3961</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>7392</t>
+          <t>7567</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1395,7 +1395,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>8800</t>
+          <t>9142</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1415,14 +1415,14 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>4357</t>
+          <t>4349</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>9879</t>
+          <t>9553</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1442,14 +1442,14 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>4303</t>
+          <t>4328</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>10889</t>
+          <t>11155</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1476,7 +1476,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>11456</t>
+          <t>11531</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1496,14 +1496,14 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>4235</t>
+          <t>4243</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>14508</t>
+          <t>15193</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1523,24 +1523,24 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>4120</t>
+          <t>4111</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>15367</t>
+          <t>15243</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>31495601</t>
+          <t>4756174</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>陈晓军</t>
+          <t>純希です</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1550,24 +1550,24 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>4094</t>
+          <t>4110</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>15864</t>
+          <t>16050</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>4756174</t>
+          <t>31495601</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>純希です</t>
+          <t>陈晓军</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1577,14 +1577,14 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>4078</t>
+          <t>4087</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>17836</t>
+          <t>18656</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1604,7 +1604,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>4019</t>
+          <t>4012</t>
         </is>
       </c>
     </row>
@@ -1638,7 +1638,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>279</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1665,7 +1665,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>6609</t>
+          <t>6877</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1685,14 +1685,14 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>4478</t>
+          <t>4471</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>6979</t>
+          <t>7128</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1719,7 +1719,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>7080</t>
+          <t>7233</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1746,7 +1746,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>7438</t>
+          <t>7610</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1773,7 +1773,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>8705</t>
+          <t>8897</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1800,7 +1800,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>10750</t>
+          <t>9458</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1820,14 +1820,14 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>4266</t>
+          <t>4332</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>11463</t>
+          <t>12137</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1847,14 +1847,14 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>4235</t>
+          <t>4219</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>11998</t>
+          <t>13324</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1874,14 +1874,14 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>4212</t>
+          <t>4174</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>14109</t>
+          <t>14447</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1908,7 +1908,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>14142</t>
+          <t>10311</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1928,14 +1928,14 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>4133</t>
+          <t>4295</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>14888</t>
+          <t>15430</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1955,14 +1955,14 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>4109</t>
+          <t>4105</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>16905</t>
+          <t>17454</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1982,14 +1982,14 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>4046</t>
+          <t>4044</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>18227</t>
+          <t>18790</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2016,7 +2016,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>20963</t>
+          <t>21474</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2043,17 +2043,17 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>27586</t>
+          <t>25873</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>54778421</t>
+          <t>56573048</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Emma</t>
+          <t>Xiaotian</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2063,24 +2063,24 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>3711</t>
+          <t>3801</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>30545</t>
+          <t>27533</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>56573048</t>
+          <t>54778421</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Xiaotian</t>
+          <t>Emma</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2090,14 +2090,14 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>3587</t>
+          <t>3733</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>35874</t>
+          <t>36185</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2117,14 +2117,14 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>3355</t>
+          <t>3354</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>38284</t>
+          <t>38590</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2144,14 +2144,14 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>3250</t>
+          <t>3247</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>42441</t>
+          <t>41735</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2171,14 +2171,14 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>3042</t>
+          <t>3089</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>42468</t>
+          <t>42706</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2198,14 +2198,14 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>3041</t>
+          <t>3040</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>44474</t>
+          <t>44695</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2225,14 +2225,14 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2955</t>
+          <t>2953</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>46505</t>
+          <t>46653</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2259,17 +2259,17 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>48728</t>
+          <t>48793</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>1550355</t>
+          <t>55860890</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>"皓茵 世界"</t>
+          <t>㊥Ethan</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2279,24 +2279,24 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2801</t>
+          <t>2803</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>49038</t>
+          <t>48881</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>55860890</t>
+          <t>1550355</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>㊥Ethan</t>
+          <t>"皓茵 世界"</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2306,14 +2306,14 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2790</t>
+          <t>2801</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>52433</t>
+          <t>52605</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2340,7 +2340,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>53620</t>
+          <t>53778</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2367,7 +2367,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>56421</t>
+          <t>56555</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2394,7 +2394,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>58542</t>
+          <t>57004</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2414,14 +2414,14 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2547</t>
+          <t>2578</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>62358</t>
+          <t>62449</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2583,7 +2583,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>14921</t>
+          <t>15330</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -2637,7 +2637,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>13471</t>
+          <t>14374</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -2657,14 +2657,14 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>4157</t>
+          <t>4136</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>19081</t>
+          <t>15288</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -2684,14 +2684,14 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>3996</t>
+          <t>4109</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>19303</t>
+          <t>20434</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -2711,14 +2711,14 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>3994</t>
+          <t>3990</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>26071</t>
+          <t>26567</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -2745,7 +2745,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>29304</t>
+          <t>29735</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -2772,7 +2772,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>35527</t>
+          <t>35810</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -2799,7 +2799,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>60501</t>
+          <t>60616</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -2826,7 +2826,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>2179</t>
+          <t>2236</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -2853,7 +2853,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>2194</t>
+          <t>2248</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -2880,7 +2880,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>7805</t>
+          <t>7540</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -2900,14 +2900,14 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>4409</t>
+          <t>4434</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>11529</t>
+          <t>11301</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -2927,24 +2927,24 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>4232</t>
+          <t>4254</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>23707</t>
+          <t>18932</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>55634661</t>
+          <t>58743790</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Opalus</t>
+          <t>Ma</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2954,24 +2954,24 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>3866</t>
+          <t>4006</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>24395</t>
+          <t>23431</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>37861953</t>
+          <t>55634661</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>"Durex ๑• . •๑"</t>
+          <t>Opalus</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2981,24 +2981,24 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>3839</t>
+          <t>3897</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>24517</t>
+          <t>24886</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>3649043</t>
+          <t>37861953</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>"慶頴 謝"</t>
+          <t>"Durex ๑• . •๑"</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3008,24 +3008,24 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>3835</t>
+          <t>3839</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>25196</t>
+          <t>25061</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>58743790</t>
+          <t>3649043</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Ma</t>
+          <t>"慶頴 謝"</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3035,14 +3035,14 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>3809</t>
+          <t>3833</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>25817</t>
+          <t>25794</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -3062,14 +3062,14 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>3784</t>
+          <t>3804</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>28358</t>
+          <t>27615</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -3089,14 +3089,14 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>3681</t>
+          <t>3730</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>28793</t>
+          <t>28210</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -3116,14 +3116,14 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>3661</t>
+          <t>3704</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>29789</t>
+          <t>29612</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -3143,14 +3143,14 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>3620</t>
+          <t>3644</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>32814</t>
+          <t>33278</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -3170,24 +3170,24 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>3492</t>
+          <t>3487</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>33103</t>
+          <t>33470</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>58408326</t>
+          <t>18082891</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>"Killer Bee"</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3197,24 +3197,24 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>3478</t>
+          <t>3477</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>33139</t>
+          <t>33627</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>18082891</t>
+          <t>58408326</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>"Killer Bee"</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3224,14 +3224,14 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>3477</t>
+          <t>3470</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>36562</t>
+          <t>36838</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -3258,7 +3258,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>38755</t>
+          <t>39135</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -3278,14 +3278,14 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>3228</t>
+          <t>3221</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>40400</t>
+          <t>40651</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -3305,24 +3305,24 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>3147</t>
+          <t>3146</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>42489</t>
+          <t>40874</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>56700848</t>
+          <t>58641574</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>工口漫画老师</t>
+          <t>Player-58641574鱼</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3332,24 +3332,24 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>3040</t>
+          <t>3134</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>42667</t>
+          <t>42702</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>52997727</t>
+          <t>56700848</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>larios</t>
+          <t>工口漫画老师</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3359,24 +3359,24 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>3031</t>
+          <t>3040</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>43033</t>
+          <t>42874</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>48634530</t>
+          <t>52997727</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>leezhenrui</t>
+          <t>larios</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -3386,24 +3386,24 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>3015</t>
+          <t>3031</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>43917</t>
+          <t>43215</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>58641574</t>
+          <t>48634530</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Player-58641574鱼</t>
+          <t>leezhenrui</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3413,14 +3413,14 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>2977</t>
+          <t>3015</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>46872</t>
+          <t>47053</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -3447,7 +3447,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>46976</t>
+          <t>47140</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -3474,17 +3474,17 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>58037</t>
+          <t>53492</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>47430231</t>
+          <t>55499394</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Kentantrino</t>
+          <t>Player-55499394</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3494,24 +3494,24 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>2556</t>
+          <t>2660</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>60881</t>
+          <t>58229</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>5367482</t>
+          <t>47430231</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Ігор</t>
+          <t>Kentantrino</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3521,24 +3521,24 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>2511</t>
+          <t>2555</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>61160</t>
+          <t>60986</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>58940575</t>
+          <t>5367482</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>图啊图z z</t>
+          <t>Ігор</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3548,24 +3548,24 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>2506</t>
+          <t>2511</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>61221</t>
+          <t>61319</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>55499394</t>
+          <t>58940575</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Player-55499394</t>
+          <t>图啊图z z</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3582,7 +3582,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>61307</t>
+          <t>61516</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -3602,14 +3602,14 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>2504</t>
+          <t>2502</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>65028</t>
+          <t>64955</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -3629,14 +3629,14 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>2385</t>
+          <t>2399</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>68331</t>
+          <t>68469</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -3663,7 +3663,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>73241</t>
+          <t>73420</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -3690,7 +3690,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>78483</t>
+          <t>78691</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -3710,14 +3710,14 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>2024</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>90688</t>
+          <t>90915</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -3737,7 +3737,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>1575</t>
+          <t>1574</t>
         </is>
       </c>
     </row>
@@ -3933,7 +3933,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>42187</t>
+          <t>42328</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -3953,14 +3953,14 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>3055</t>
+          <t>3059</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>44720</t>
+          <t>41700</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -3980,7 +3980,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>2945</t>
+          <t>3091</t>
         </is>
       </c>
     </row>
@@ -4014,7 +4014,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>40018</t>
+          <t>40272</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -4034,7 +4034,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>3164</t>
+          <t>3163</t>
         </is>
       </c>
     </row>
@@ -4068,7 +4068,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>46283</t>
+          <t>46428</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -4095,7 +4095,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>77384</t>
+          <t>77533</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -4122,7 +4122,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>98840</t>
+          <t>98991</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -4338,7 +4338,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>47220</t>
+          <t>47398</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -4365,7 +4365,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>59510</t>
+          <t>59634</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -4527,7 +4527,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>46066</t>
+          <t>45823</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -4547,7 +4547,7 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>2891</t>
+          <t>2907</t>
         </is>
       </c>
     </row>

--- a/Season_Trophies/86.xlsx
+++ b/Season_Trophies/86.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E155"/>
+  <dimension ref="A1:E152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -396,7 +396,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>44336</t>
+          <t>45078</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -416,14 +416,14 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2968</t>
+          <t>3013</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>120</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -443,14 +443,14 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5290</t>
+          <t>5503</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1018</t>
+          <t>1616</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -470,24 +470,24 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4921</t>
+          <t>5132</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4311</t>
+          <t>5422</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>31217211</t>
+          <t>6940556</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>解憂雜貨鋪㊥</t>
+          <t>"Cry ab it林黛玉ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -497,24 +497,24 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4621</t>
+          <t>4794</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>6998</t>
+          <t>6324</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>6940556</t>
+          <t>31217211</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>"Cry ab it林黛玉ᶻᵍˣ"</t>
+          <t>解憂雜貨鋪㊥</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -524,24 +524,24 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4464</t>
+          <t>4737</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>9848</t>
+          <t>26733</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>22497</t>
+          <t>27113069</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>xixihahagggᶻᵍˣ</t>
+          <t>㊥DumbSmoky</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -551,24 +551,24 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4314</t>
+          <t>3974</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>24514</t>
+          <t>493</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>27113069</t>
+          <t>27468237</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>㊥DumbSmoky</t>
+          <t>佛系复仇者秀川</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -578,24 +578,24 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3854</t>
+          <t>5346</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>784</t>
+          <t>12246</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>27468237</t>
+          <t>43800641</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>佛系复仇者秀川</t>
+          <t>㊥蛋蛋大</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -605,24 +605,24 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4962</t>
+          <t>4410</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>7640</t>
+          <t>22546</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>43800641</t>
+          <t>21665473</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>㊥蛋蛋大</t>
+          <t>"Dog Gamedesiger"</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -632,24 +632,24 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4428</t>
+          <t>4053</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>17177</t>
+          <t>2682</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>21665473</t>
+          <t>46422609</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>"Dog Gamedesiger"</t>
+          <t>㊥林天大大神</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -659,24 +659,24 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4053</t>
+          <t>5004</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2479</t>
+          <t>3520</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>46422609</t>
+          <t>31267627</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>㊥林天大大神</t>
+          <t>"㊥ Martin"</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -686,24 +686,24 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4753</t>
+          <t>4934</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4748</t>
+          <t>3829</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>21345373</t>
+          <t>1820342</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>林北不講武德</t>
+          <t>摸鱼爱好者三战</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -713,24 +713,24 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>4594</t>
+          <t>4910</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4903</t>
+          <t>3854</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>30411791</t>
+          <t>21345373</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>"㊥Ⓩ GOÐAFRÆÐI ᶻᵍˣ"</t>
+          <t>林北不講武德</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -740,24 +740,24 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>4585</t>
+          <t>4908</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>5184</t>
+          <t>4474</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>31267627</t>
+          <t>30411791</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>"㊥ Martin"</t>
+          <t>"㊥Ⓩ GOÐAFRÆÐI ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -767,24 +767,24 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>4568</t>
+          <t>4862</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>6240</t>
+          <t>6053</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1820342</t>
+          <t>28749280</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>摸鱼爱好者三战</t>
+          <t>㊥老船⛵⛵</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -794,24 +794,24 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>4506</t>
+          <t>4755</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>6952</t>
+          <t>6394</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>9541747</t>
+          <t>38711610</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>豹子头林冲</t>
+          <t>心灵有为</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -821,24 +821,24 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>4466</t>
+          <t>4732</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>7174</t>
+          <t>7805</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>44955827</t>
+          <t>9541747</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>丶小阿狸丿</t>
+          <t>豹子头林冲</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -848,24 +848,24 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>4455</t>
+          <t>4642</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>7367</t>
+          <t>8636</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>28749280</t>
+          <t>3477306</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>㊥老船⛵⛵</t>
+          <t>"MeGa Tsai"</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -875,24 +875,24 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>4444</t>
+          <t>4594</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>7432</t>
+          <t>10874</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>38711610</t>
+          <t>44955827</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>心灵有为</t>
+          <t>丶小阿狸丿</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -902,24 +902,24 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>4440</t>
+          <t>4480</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>10944</t>
+          <t>12159</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>3477306</t>
+          <t>4229136</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>"MeGa Tsai"</t>
+          <t>"totoro wu"</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -929,24 +929,24 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>4269</t>
+          <t>4414</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>11757</t>
+          <t>12901</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>7025661</t>
+          <t>29729468</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>"F ᶻᵍˣ"</t>
+          <t>"风神舞动 WDᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -956,24 +956,24 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>4234</t>
+          <t>4381</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>14178</t>
+          <t>12612</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>12333251</t>
+          <t>47146736</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>"㊌ Mingxuan"</t>
+          <t>"HK 品瑜"</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -983,24 +983,24 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>4144</t>
+          <t>4393</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>14438</t>
+          <t>14698</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>4229136</t>
+          <t>55317038</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>"totoro wu"</t>
+          <t>necman12345</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1010,24 +1010,24 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>4134</t>
+          <t>4307</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>15670</t>
+          <t>15480</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>45967307</t>
+          <t>12333251</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Ricky</t>
+          <t>"㊌ Mingxuan"</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1037,24 +1037,24 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>4098</t>
+          <t>4281</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>16084</t>
+          <t>19323</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>29729468</t>
+          <t>14424176</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>"风神舞动 WDᶻᵍˣ"</t>
+          <t>天才少年老纪</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1064,24 +1064,24 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>4086</t>
+          <t>4154</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>16589</t>
+          <t>19937</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>14424176</t>
+          <t>45967307</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>天才少年老纪</t>
+          <t>Ricky</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1091,24 +1091,24 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>4070</t>
+          <t>4133</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>17855</t>
+          <t>30790</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>55317038</t>
+          <t>20737010</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>necman12345</t>
+          <t>混着玩...</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1118,24 +1118,24 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>4033</t>
+          <t>3782</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>22142</t>
+          <t>41290</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>47146736</t>
+          <t>7587898</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>"HK 品瑜"</t>
+          <t>藍精靈ᶻᵍˣ</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1145,24 +1145,24 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>3947</t>
+          <t>3228</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>31546</t>
+          <t>52439</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>28387448</t>
+          <t>47227626</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>☜⊙‖⊙☞</t>
+          <t>Player-47227626</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1172,24 +1172,24 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>3562</t>
+          <t>2738</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>33720</t>
+          <t>61804</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>20737010</t>
+          <t>47928278</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>混着玩...</t>
+          <t>"落日幻影 哈哈哈"</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1199,24 +1199,24 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>3467</t>
+          <t>2516</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>48369</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>7587898</t>
+          <t>23687250</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>藍精靈ᶻᵍˣ</t>
+          <t>"jetlijp ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1226,105 +1226,105 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2815</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>50623</t>
+          <t>8324</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>47227626</t>
+          <t>27484940</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Player-47227626</t>
+          <t>66666zgx</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2744</t>
+          <t>4612</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>61687</t>
+          <t>19563</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>47928278</t>
+          <t>38809086</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>"落日幻影 哈哈哈"</t>
+          <t>Kouenᶻᵍˣ</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>4146</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>6999</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>23687250</t>
+          <t>13738844</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>"jetlijp ᶻᵍˣ"</t>
+          <t>"Chen Hao"</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4693</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>9204</t>
+          <t>9441</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>27484940</t>
+          <t>42434117</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>66666zgx</t>
+          <t>㊥有双飞鸟</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1334,24 +1334,24 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>4346</t>
+          <t>4551</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>21799</t>
+          <t>10720</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>38809086</t>
+          <t>49710892</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Kouenᶻᵍˣ</t>
+          <t>MMMMMMM</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1361,24 +1361,24 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>3961</t>
+          <t>4487</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>7567</t>
+          <t>11650</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>13738844</t>
+          <t>53060417</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>"Chen Hao"</t>
+          <t>㊥老纳信耶稣</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1388,24 +1388,24 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>4433</t>
+          <t>4439</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>9142</t>
+          <t>12846</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>42434117</t>
+          <t>53520939</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>㊥有双飞鸟</t>
+          <t>㊥虎哥tiger</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1415,24 +1415,24 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>4349</t>
+          <t>4383</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>9553</t>
+          <t>13757</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>53060417</t>
+          <t>4756174</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>㊥老纳信耶稣</t>
+          <t>純希です</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1442,24 +1442,24 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>4328</t>
+          <t>4342</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>11155</t>
+          <t>16211</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>49710892</t>
+          <t>31495601</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>MMMMMMM</t>
+          <t>陈晓军</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1469,24 +1469,24 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>4260</t>
+          <t>4254</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>11531</t>
+          <t>18083</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>53520939</t>
+          <t>54698813</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>㊥虎哥tiger</t>
+          <t>閃亮唐老鴨</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1496,24 +1496,24 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>4243</t>
+          <t>4193</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>15193</t>
+          <t>20282</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>54698813</t>
+          <t>55769051</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>閃亮唐老鴨</t>
+          <t>㊥叮叮当.</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1523,24 +1523,24 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>4111</t>
+          <t>4122</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>15243</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>4756174</t>
+          <t>43812707</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>純希です</t>
+          <t>bbtt</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1550,24 +1550,24 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>4110</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>16050</t>
+          <t>151</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>31495601</t>
+          <t>8741713</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>陈晓军</t>
+          <t xml:space="preserve">㊥大咖玩家ky </t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1577,24 +1577,24 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>4087</t>
+          <t>5483</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>18656</t>
+          <t>2776</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>55769051</t>
+          <t>29211638</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>㊥叮叮当.</t>
+          <t>"㊥ PhononDisperse"</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1604,24 +1604,24 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>4012</t>
+          <t>4996</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>3765</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>43812707</t>
+          <t>21735478</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>bbtt</t>
+          <t>耀翔fly</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1631,24 +1631,24 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4915</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>6524</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>8741713</t>
+          <t>4493731</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t xml:space="preserve">㊥大咖玩家ky </t>
+          <t>Player-1527362</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1658,14 +1658,14 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>5101</t>
+          <t>4723</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>6877</t>
+          <t>7560</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1685,24 +1685,24 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>4471</t>
+          <t>4656</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>7128</t>
+          <t>9352</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>21735478</t>
+          <t>47131129</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>耀翔fly</t>
+          <t>NAM</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1712,24 +1712,24 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>4458</t>
+          <t>4555</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>7233</t>
+          <t>9811</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>4493731</t>
+          <t>7852598</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Player-1527362</t>
+          <t>seiji</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1739,24 +1739,24 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>4451</t>
+          <t>4530</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>7610</t>
+          <t>11219</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>29211638</t>
+          <t>22885399</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>"㊥ PhononDisperse"</t>
+          <t>余文琪</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1766,24 +1766,24 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>4430</t>
+          <t>4462</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>8897</t>
+          <t>11321</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>47131129</t>
+          <t>16206490</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>NAM</t>
+          <t>㊥Godcys</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1793,24 +1793,24 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>4362</t>
+          <t>4457</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>9458</t>
+          <t>12281</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>7852598</t>
+          <t>56133764</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>seiji</t>
+          <t>ustcarter</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1820,24 +1820,24 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>4332</t>
+          <t>4408</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>12137</t>
+          <t>15644</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>38995116</t>
+          <t>8057001</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>"Ramesh Pavai Nam"</t>
+          <t>㊥兵者诡道也</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1847,24 +1847,24 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>4219</t>
+          <t>4274</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>13324</t>
+          <t>16439</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>56133764</t>
+          <t>38995116</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>ustcarter</t>
+          <t>"Ramesh Pavai Nam"</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1874,24 +1874,24 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>4174</t>
+          <t>4246</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>14447</t>
+          <t>19578</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>22885399</t>
+          <t>6809364</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>余文琪</t>
+          <t>"Scorp IP"</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1901,24 +1901,24 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>4134</t>
+          <t>4145</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>10311</t>
+          <t>21145</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>16206490</t>
+          <t>54778421</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>㊥Godcys</t>
+          <t>Emma</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1928,14 +1928,14 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>4295</t>
+          <t>4095</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>15430</t>
+          <t>21774</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1955,24 +1955,24 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>4105</t>
+          <t>4077</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>17454</t>
+          <t>22619</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>8057001</t>
+          <t>11582001</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>㊥兵者诡道也</t>
+          <t>iMinatoX4</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1982,24 +1982,24 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>4044</t>
+          <t>4051</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>18790</t>
+          <t>30657</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>11582001</t>
+          <t>56573048</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>iMinatoX4</t>
+          <t>Xiaotian</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2009,24 +2009,24 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>4010</t>
+          <t>3787</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>21474</t>
+          <t>37002</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>6809364</t>
+          <t>58203298</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>"Scorp IP"</t>
+          <t>权旨qua</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2036,24 +2036,24 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>3972</t>
+          <t>3463</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>25873</t>
+          <t>41110</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>56573048</t>
+          <t>22161051</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Xiaotian</t>
+          <t>Botz5</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2063,24 +2063,24 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>3801</t>
+          <t>3239</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>27533</t>
+          <t>41368</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>54778421</t>
+          <t>56500325</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Emma</t>
+          <t>haruharuyukizg9735</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2090,24 +2090,24 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>3733</t>
+          <t>3224</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>36185</t>
+          <t>42206</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>58203298</t>
+          <t>50837459</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>权旨qua</t>
+          <t>NINE日</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2117,24 +2117,24 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>3354</t>
+          <t>3173</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>38590</t>
+          <t>46476</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>22161051</t>
+          <t>31401481</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Botz5</t>
+          <t>Player-31401481</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2144,24 +2144,24 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>3247</t>
+          <t>2951</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>41735</t>
+          <t>48625</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>56500325</t>
+          <t>57813281</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>haruharuyukizg9735</t>
+          <t>XAUEN</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2171,24 +2171,24 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>3089</t>
+          <t>2867</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>42706</t>
+          <t>49032</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>50837459</t>
+          <t>55860890</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>NINE日</t>
+          <t>㊥Ethan</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2198,24 +2198,24 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>3040</t>
+          <t>2852</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>44695</t>
+          <t>49772</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>31401481</t>
+          <t>1550355</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Player-31401481</t>
+          <t>"皓茵 世界"</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2225,24 +2225,24 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2953</t>
+          <t>2827</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>46653</t>
+          <t>50272</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>57813281</t>
+          <t>38893233</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>XAUEN</t>
+          <t>"快乐 二哈"</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2252,24 +2252,24 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2875</t>
+          <t>2810</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>48793</t>
+          <t>50517</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>55860890</t>
+          <t>32316256</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>㊥Ethan</t>
+          <t>"秋の風 .."</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2286,17 +2286,17 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>48881</t>
+          <t>52326</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>1550355</t>
+          <t>14110169</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>"皓茵 世界"</t>
+          <t>"Pasiony CANQ"</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2306,24 +2306,24 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2801</t>
+          <t>2742</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>52605</t>
+          <t>57035</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>38893233</t>
+          <t>24733875</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>"快乐 二哈"</t>
+          <t>龍少</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2333,24 +2333,24 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2685</t>
+          <t>2609</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>53778</t>
+          <t>57718</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>32316256</t>
+          <t>68132</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>"秋の風 .."</t>
+          <t>"㊖TW9 百媚生"</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2360,24 +2360,24 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2653</t>
+          <t>2592</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>56555</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>24733875</t>
+          <t>29565</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>龍少</t>
+          <t>"aK.j Zhong ㊥"</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2387,24 +2387,24 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2588</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>57004</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>68132</t>
+          <t>12639656</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>"㊖TW9 百媚生"</t>
+          <t>"wu huang"</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2414,24 +2414,24 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2578</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>62449</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>14110169</t>
+          <t>47758619</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>"Pasiony CANQ"</t>
+          <t>"㊥ Moon ㊥"</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2441,7 +2441,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2496</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2453,12 +2453,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>29565</t>
+          <t>44789201</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>"aK.j Zhong ㊥"</t>
+          <t>华夏四川广安</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2480,12 +2480,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>12639656</t>
+          <t>32478707</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>"wu huang"</t>
+          <t>"Bt So"</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2502,27 +2502,27 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>15819</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>47758619</t>
+          <t>31134300</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>"㊥ Moon ㊥"</t>
+          <t>McMaX</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4268</t>
         </is>
       </c>
     </row>
@@ -2534,17 +2534,17 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>44789201</t>
+          <t>44378757</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>华夏四川广安</t>
+          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -2556,44 +2556,44 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>14742</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>32478707</t>
+          <t>46289694</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>"Bt So"</t>
+          <t>㊥Vincent</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4306</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>15330</t>
+          <t>22074</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>31134300</t>
+          <t>37069173</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>McMaX</t>
+          <t>詹toniii</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2603,24 +2603,24 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>4108</t>
+          <t>4068</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>23882</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>44378757</t>
+          <t>28855852</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
+          <t>tiger</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2630,24 +2630,24 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4014</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>14374</t>
+          <t>24167</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>46289694</t>
+          <t>54085771</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>㊥Vincent</t>
+          <t>㊥Matthieu</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2657,24 +2657,24 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>4136</t>
+          <t>4006</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>15288</t>
+          <t>27787</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>37069173</t>
+          <t>25479797</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>詹toniii</t>
+          <t>"Mohamed Alnaqbi"</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2684,24 +2684,24 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>4109</t>
+          <t>3928</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>20434</t>
+          <t>29568</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>54085771</t>
+          <t>44708798</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>㊥Matthieu</t>
+          <t>"㊥ mythgod"</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2711,24 +2711,24 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>3990</t>
+          <t>3841</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>26567</t>
+          <t>56779</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>28855852</t>
+          <t>54588689</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>tiger</t>
+          <t>㊥墨衍枫迹☜</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2738,24 +2738,24 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>3774</t>
+          <t>2615</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>29735</t>
+          <t>2067</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>25479797</t>
+          <t>33656016</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>"Mohamed Alnaqbi"</t>
+          <t>㊥☆梅海听雪☆</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2765,24 +2765,24 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>3639</t>
+          <t>5071</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>35810</t>
+          <t>2857</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>44708798</t>
+          <t>3946814</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>"㊥ mythgod"</t>
+          <t>"小瑩 潘"</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2792,24 +2792,24 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>3372</t>
+          <t>4989</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>60616</t>
+          <t>4873</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>54588689</t>
+          <t>1951758</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>㊥墨衍枫迹☜</t>
+          <t>我來找你了</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2819,24 +2819,24 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>2516</t>
+          <t>4833</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>2236</t>
+          <t>13021</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>3946814</t>
+          <t>25163202</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>"小瑩 潘"</t>
+          <t>"sam yang"</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2846,24 +2846,24 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>4776</t>
+          <t>4376</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>2248</t>
+          <t>15766</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>33656016</t>
+          <t>37861953</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>㊥☆梅海听雪☆</t>
+          <t>"Durex ๑• . •๑"</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2873,24 +2873,24 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>4775</t>
+          <t>4270</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>7540</t>
+          <t>22627</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>1951758</t>
+          <t>55634661</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>我來找你了</t>
+          <t>Opalus</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2900,24 +2900,24 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>4434</t>
+          <t>4050</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>11301</t>
+          <t>26169</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>25163202</t>
+          <t>58743790</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>"sam yang"</t>
+          <t>Ma</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2927,24 +2927,24 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>4254</t>
+          <t>3984</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>18932</t>
+          <t>26749</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>58743790</t>
+          <t>56732705</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Ma</t>
+          <t>时间温柔皆遗憾</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2954,24 +2954,24 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>4006</t>
+          <t>3973</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>23431</t>
+          <t>28312</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>55634661</t>
+          <t>58839983</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Opalus</t>
+          <t>每逢佳节胖六斤</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2981,24 +2981,24 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>3897</t>
+          <t>3902</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>24886</t>
+          <t>29230</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>37861953</t>
+          <t>56379103</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>"Durex ๑• . •๑"</t>
+          <t>Globalking</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3008,14 +3008,14 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>3839</t>
+          <t>3856</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>25061</t>
+          <t>30161</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -3035,24 +3035,24 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>3833</t>
+          <t>3812</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>25794</t>
+          <t>32153</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>56732705</t>
+          <t>58408326</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>时间温柔皆遗憾</t>
+          <t>"Killer Bee"</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3062,24 +3062,24 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>3804</t>
+          <t>3711</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>27615</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>58839983</t>
+          <t>56585361</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>每逢佳节胖六斤</t>
+          <t>"㊥ go策划我要ali"</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3089,24 +3089,24 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>3730</t>
+          <t>3650</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>28210</t>
+          <t>33569</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>56379103</t>
+          <t>47244896</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Globalking</t>
+          <t>Dropthebeat</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3116,24 +3116,24 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>3704</t>
+          <t>3638</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>29612</t>
+          <t>35103</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>56585361</t>
+          <t>47459684</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>"㊥ go策划我要ali"</t>
+          <t>㊥阿闹切克闹</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3143,24 +3143,24 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>3644</t>
+          <t>3563</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>33278</t>
+          <t>36009</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>47459684</t>
+          <t>18082891</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>㊥阿闹切克闹</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3170,24 +3170,24 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>3487</t>
+          <t>3517</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>33470</t>
+          <t>36823</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>18082891</t>
+          <t>1304123</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Cccccccccccc</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3197,24 +3197,24 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>3477</t>
+          <t>3474</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>33627</t>
+          <t>40013</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>58408326</t>
+          <t>56700848</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>"Killer Bee"</t>
+          <t>工口漫画老师</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3224,24 +3224,24 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>3470</t>
+          <t>3300</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>36838</t>
+          <t>40125</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>47244896</t>
+          <t>48738257</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Dropthebeat</t>
+          <t>死亡洲际跳蛋</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3251,24 +3251,24 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>3326</t>
+          <t>3295</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>39135</t>
+          <t>41537</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>1304123</t>
+          <t>58641574</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Cccccccccccc</t>
+          <t>Player-58641574鱼</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3278,24 +3278,24 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>3221</t>
+          <t>3214</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>40651</t>
+          <t>42201</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>48738257</t>
+          <t>11645391</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>死亡洲际跳蛋</t>
+          <t>"omar omar"</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3305,24 +3305,24 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>3146</t>
+          <t>3174</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>40874</t>
+          <t>43782</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>58641574</t>
+          <t>52997727</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Player-58641574鱼</t>
+          <t>larios</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3332,24 +3332,24 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>3134</t>
+          <t>3082</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>42702</t>
+          <t>44260</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>56700848</t>
+          <t>48634530</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>工口漫画老师</t>
+          <t>leezhenrui</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3359,24 +3359,24 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>3040</t>
+          <t>3055</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>42874</t>
+          <t>48073</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>52997727</t>
+          <t>43281368</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>larios</t>
+          <t>xhs2763</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -3386,24 +3386,24 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>3031</t>
+          <t>2886</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>43215</t>
+          <t>53881</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>48634530</t>
+          <t>55499394</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>leezhenrui</t>
+          <t>Player-55499394</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3413,24 +3413,24 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>3015</t>
+          <t>2694</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>47053</t>
+          <t>56616</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>43281368</t>
+          <t>58940575</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>xhs2763</t>
+          <t>图啊图z z</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3440,24 +3440,24 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>2861</t>
+          <t>2619</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>47140</t>
+          <t>59081</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>11645391</t>
+          <t>5367482</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>"omar omar"</t>
+          <t>Ігор</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3467,24 +3467,24 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>2858</t>
+          <t>2564</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>53492</t>
+          <t>59688</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>55499394</t>
+          <t>47430231</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Player-55499394</t>
+          <t>Kentantrino</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3494,24 +3494,24 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>2660</t>
+          <t>2552</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>58229</t>
+          <t>61977</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>47430231</t>
+          <t>15436348</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Kentantrino</t>
+          <t>Lucas</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3521,24 +3521,24 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>2555</t>
+          <t>2514</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>60986</t>
+          <t>66078</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>5367482</t>
+          <t>52792063</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Ігор</t>
+          <t>"Tramaine Dowlen"</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3548,24 +3548,24 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>2511</t>
+          <t>2397</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>61319</t>
+          <t>68076</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>58940575</t>
+          <t>20372140</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>图啊图z z</t>
+          <t>人山即是仙</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3575,24 +3575,24 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>2505</t>
+          <t>2305</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>61516</t>
+          <t>75457</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>15436348</t>
+          <t>9718882</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Lucas</t>
+          <t>小霸王2021</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3602,24 +3602,24 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>2502</t>
+          <t>2113</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>64955</t>
+          <t>80493</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>52792063</t>
+          <t>57219176</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>"Tramaine Dowlen"</t>
+          <t>青莲道人</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3629,24 +3629,24 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>2399</t>
+          <t>2021</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>68469</t>
+          <t>93163</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>20372140</t>
+          <t>54941706</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>人山即是仙</t>
+          <t>AlexMenjivar20</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3656,24 +3656,24 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>2248</t>
+          <t>1574</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>73420</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>9718882</t>
+          <t>38994054</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>小霸王2021</t>
+          <t>chengnan</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3683,24 +3683,24 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>2119</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>78691</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>57219176</t>
+          <t>3391765</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>青莲道人</t>
+          <t>马er</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3710,24 +3710,24 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>90915</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>54941706</t>
+          <t>55810157</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>AlexMenjivar20</t>
+          <t>Beard</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3737,7 +3737,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>1574</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -3749,12 +3749,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>38994054</t>
+          <t>57556179</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>chengnan</t>
+          <t>特战新生代英雄</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3776,12 +3776,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>3391765</t>
+          <t>1222440</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>马er</t>
+          <t>"Sneaky Ninja Panda"</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -3803,12 +3803,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>55810157</t>
+          <t>58340439</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Beard</t>
+          <t>70qilin</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -3830,12 +3830,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>57556179</t>
+          <t>58615925</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>特战新生代英雄</t>
+          <t>齐天的大圣</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -3852,54 +3852,54 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>43443</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>1222440</t>
+          <t>41849539</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>"Sneaky Ninja Panda"</t>
+          <t>三号馆馆主</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3102</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>41276</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>58340439</t>
+          <t>56241637</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>70qilin</t>
+          <t>Player-14day</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3229</t>
         </is>
       </c>
     </row>
@@ -3911,17 +3911,17 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>58615925</t>
+          <t>47622456</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>齐天的大圣</t>
+          <t>伊恩</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -3933,17 +3933,17 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>42328</t>
+          <t>42726</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>41849539</t>
+          <t>55210350</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>三号馆馆主</t>
+          <t>一个过客而已</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -3953,24 +3953,24 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>3059</t>
+          <t>3142</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>41700</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>56241637</t>
+          <t>49553719</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Player-14day</t>
+          <t>"Oreo Captain Sir"</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -3980,24 +3980,24 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>3091</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>47480</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>47622456</t>
+          <t>12434456</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>伊恩</t>
+          <t>Player-12434456</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -4007,24 +4007,24 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2910</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>40272</t>
+          <t>78723</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>55210350</t>
+          <t>58671339</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>一个过客而已</t>
+          <t>"quang pro"</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -4034,24 +4034,24 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>3163</t>
+          <t>2050</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>101350</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>49553719</t>
+          <t>41231396</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>"Oreo Captain Sir"</t>
+          <t>ollsthebro</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -4061,24 +4061,24 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1499</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>46428</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>12434456</t>
+          <t>58572199</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Player-12434456</t>
+          <t>你干嘛～哎呦～</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -4088,24 +4088,24 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>2883</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>77533</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>58671339</t>
+          <t>58766144</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>"quang pro"</t>
+          <t>EquablePrecedence38</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -4115,24 +4115,24 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>2042</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>98991</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>41231396</t>
+          <t>29355299</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>ollsthebro</t>
+          <t>Player-29355299</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -4142,7 +4142,7 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>1499</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4154,12 +4154,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>58572199</t>
+          <t>58910668</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>你干嘛～哎呦～</t>
+          <t>BrittleAuthor33</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -4181,12 +4181,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>58766144</t>
+          <t>55745105</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>EquablePrecedence38</t>
+          <t>eldeniz</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -4208,12 +4208,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>29355299</t>
+          <t>58174442</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Player-29355299</t>
+          <t>Player-58174442</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -4235,17 +4235,17 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>58910668</t>
+          <t>9913517</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>BrittleAuthor33</t>
+          <t>"Kenny Chan"</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>Chinese</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -4257,54 +4257,54 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>48125</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>55745105</t>
+          <t>41848598</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>eldeniz</t>
+          <t>国家一级保护沙雕</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>Chinese</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2884</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>60866</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>58174442</t>
+          <t>6010122</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Player-58174442</t>
+          <t>"Edward Peng"</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>Chinese</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2530</t>
         </is>
       </c>
     </row>
@@ -4316,12 +4316,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>9913517</t>
+          <t>12648101</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>"Kenny Chan"</t>
+          <t>"player 198827"</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -4338,17 +4338,17 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>47398</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>41848598</t>
+          <t>9195340</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>国家一级保护沙雕</t>
+          <t>Namllllllik</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -4358,24 +4358,24 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>2849</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>59634</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>6010122</t>
+          <t>15755724</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>"Edward Peng"</t>
+          <t>"Last Good"</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -4385,7 +4385,7 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>2530</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4397,12 +4397,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>12648101</t>
+          <t>8850180</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>"player 198827"</t>
+          <t>30624300</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -4424,12 +4424,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>9195340</t>
+          <t>28624723</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Namllllllik</t>
+          <t>"Woody Shade"</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -4446,17 +4446,17 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>47068</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>15755724</t>
+          <t>10636651</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>"Last Good"</t>
+          <t>"Ismail Aflou"</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -4466,88 +4466,7 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>999999</t>
-        </is>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>8850180</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>30624300</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>Chinese</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>999999</t>
-        </is>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>28624723</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>"Woody Shade"</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>Chinese</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>45823</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>10636651</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>"Ismail Aflou"</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>Chinese</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>2907</t>
+          <t>2926</t>
         </is>
       </c>
     </row>

--- a/Season_Trophies/86.xlsx
+++ b/Season_Trophies/86.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E152"/>
+  <dimension ref="A1:E151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -396,7 +396,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>45078</t>
+          <t>46291</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -416,14 +416,14 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3013</t>
+          <t>3042</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>147</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -443,14 +443,14 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5503</t>
+          <t>5812</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1616</t>
+          <t>910</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -470,14 +470,14 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5132</t>
+          <t>5547</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>5422</t>
+          <t>3839</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -497,14 +497,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4794</t>
+          <t>5160</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>6324</t>
+          <t>6976</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -524,14 +524,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4737</t>
+          <t>4921</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>26733</t>
+          <t>14035</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -551,14 +551,14 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3974</t>
+          <t>4516</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>493</t>
+          <t>880</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -578,14 +578,14 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>5346</t>
+          <t>5555</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>12246</t>
+          <t>7405</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -605,14 +605,14 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4410</t>
+          <t>4889</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>22546</t>
+          <t>27103</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -639,7 +639,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2682</t>
+          <t>2573</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -659,14 +659,14 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>5004</t>
+          <t>5290</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>3520</t>
+          <t>3116</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -686,24 +686,24 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4934</t>
+          <t>5229</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>3829</t>
+          <t>3518</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1820342</t>
+          <t>21345373</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>摸鱼爱好者三战</t>
+          <t>林北不講武德</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -713,24 +713,24 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>4910</t>
+          <t>5190</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>3854</t>
+          <t>3619</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>21345373</t>
+          <t>1820342</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>林北不講武德</t>
+          <t>摸鱼爱好者三战</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -740,14 +740,14 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>4908</t>
+          <t>5182</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4474</t>
+          <t>4397</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -767,24 +767,24 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>4862</t>
+          <t>5110</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>6053</t>
+          <t>6427</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>28749280</t>
+          <t>3477306</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>㊥老船⛵⛵</t>
+          <t>"MeGa Tsai"</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -794,14 +794,14 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>4755</t>
+          <t>4962</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>6394</t>
+          <t>6910</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -821,14 +821,14 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>4732</t>
+          <t>4927</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>7805</t>
+          <t>7180</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -848,24 +848,24 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>4642</t>
+          <t>4905</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>8636</t>
+          <t>8520</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>3477306</t>
+          <t>28749280</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>"MeGa Tsai"</t>
+          <t>㊥老船⛵⛵</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -875,14 +875,14 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>4594</t>
+          <t>4817</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>10874</t>
+          <t>9327</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -902,24 +902,24 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>4480</t>
+          <t>4772</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>12159</t>
+          <t>9395</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>4229136</t>
+          <t>29729468</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>"totoro wu"</t>
+          <t>"风神舞动 WDᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -929,24 +929,24 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>4414</t>
+          <t>4768</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>12901</t>
+          <t>10689</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>29729468</t>
+          <t>4229136</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>"风神舞动 WDᶻᵍˣ"</t>
+          <t>"totoro wu"</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -956,24 +956,24 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>4381</t>
+          <t>4694</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>12612</t>
+          <t>15348</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>47146736</t>
+          <t>12333251</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>"HK 品瑜"</t>
+          <t>"㊌ Mingxuan"</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -983,24 +983,24 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>4393</t>
+          <t>4462</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>14698</t>
+          <t>15699</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>55317038</t>
+          <t>14424176</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>necman12345</t>
+          <t>天才少年老纪</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1010,24 +1010,24 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>4307</t>
+          <t>4447</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>15480</t>
+          <t>17121</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>12333251</t>
+          <t>45967307</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>"㊌ Mingxuan"</t>
+          <t>Ricky</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1037,24 +1037,24 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>4281</t>
+          <t>4391</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>19323</t>
+          <t>19162</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>14424176</t>
+          <t>55317038</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>天才少年老纪</t>
+          <t>necman12345</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1064,24 +1064,24 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>4154</t>
+          <t>4314</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>19937</t>
+          <t>19912</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>45967307</t>
+          <t>47146736</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Ricky</t>
+          <t>"HK 品瑜"</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1091,14 +1091,14 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>4133</t>
+          <t>4286</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>30790</t>
+          <t>25537</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1118,14 +1118,14 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>3782</t>
+          <t>4102</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>41290</t>
+          <t>42015</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1145,24 +1145,24 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>3228</t>
+          <t>3304</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>52439</t>
+          <t>63013</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>47227626</t>
+          <t>47928278</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Player-47227626</t>
+          <t>"落日幻影 哈哈哈"</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1172,24 +1172,24 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2738</t>
+          <t>2516</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>61804</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>47928278</t>
+          <t>23687250</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>"落日幻影 哈哈哈"</t>
+          <t>"jetlijp ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1199,51 +1199,51 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2516</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>5418</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>23687250</t>
+          <t>27484940</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>"jetlijp ᶻᵍˣ"</t>
+          <t>66666zgx</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5030</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>8324</t>
+          <t>15017</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>27484940</t>
+          <t>38809086</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>66666zgx</t>
+          <t>Kouenᶻᵍˣ</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1253,24 +1253,24 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>4612</t>
+          <t>4476</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>19563</t>
+          <t>6011</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>38809086</t>
+          <t>13738844</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Kouenᶻᵍˣ</t>
+          <t>"Chen Hao"</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1280,24 +1280,24 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>4146</t>
+          <t>4991</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>6999</t>
+          <t>9673</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>13738844</t>
+          <t>53520939</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>"Chen Hao"</t>
+          <t>㊥虎哥tiger</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1307,14 +1307,14 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>4693</t>
+          <t>4750</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>9441</t>
+          <t>10055</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1334,24 +1334,24 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>4551</t>
+          <t>4728</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>10720</t>
+          <t>11740</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>49710892</t>
+          <t>53060417</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>MMMMMMM</t>
+          <t>㊥老纳信耶稣</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1361,24 +1361,24 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>4487</t>
+          <t>4636</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>11650</t>
+          <t>12546</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>53060417</t>
+          <t>49710892</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>㊥老纳信耶稣</t>
+          <t>MMMMMMM</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1388,24 +1388,24 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>4439</t>
+          <t>4592</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>12846</t>
+          <t>15293</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>53520939</t>
+          <t>31495601</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>㊥虎哥tiger</t>
+          <t>陈晓军</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1415,24 +1415,24 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>4383</t>
+          <t>4465</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>13757</t>
+          <t>16697</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>4756174</t>
+          <t>54698813</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>純希です</t>
+          <t>閃亮唐老鴨</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1442,24 +1442,24 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>4342</t>
+          <t>4407</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>16211</t>
+          <t>17455</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>31495601</t>
+          <t>55769051</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>陈晓军</t>
+          <t>㊥叮叮当.</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1469,24 +1469,24 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>4254</t>
+          <t>4378</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>18083</t>
+          <t>18508</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>54698813</t>
+          <t>4756174</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>閃亮唐老鴨</t>
+          <t>純希です</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1496,24 +1496,24 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>4193</t>
+          <t>4337</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>20282</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>55769051</t>
+          <t>43812707</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>㊥叮叮当.</t>
+          <t>bbtt</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1523,24 +1523,24 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>4122</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>577</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>43812707</t>
+          <t>8741713</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>bbtt</t>
+          <t xml:space="preserve">㊥大咖玩家ky </t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1550,24 +1550,24 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5629</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>1716</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>8741713</t>
+          <t>29211638</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t xml:space="preserve">㊥大咖玩家ky </t>
+          <t>"㊥ PhononDisperse"</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1577,24 +1577,24 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>5483</t>
+          <t>5403</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2776</t>
+          <t>3938</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>29211638</t>
+          <t>21735478</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>"㊥ PhononDisperse"</t>
+          <t>耀翔fly</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1604,24 +1604,24 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>4996</t>
+          <t>5152</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>3765</t>
+          <t>6166</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>21735478</t>
+          <t>4493731</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>耀翔fly</t>
+          <t>Player-1527362</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1631,24 +1631,24 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>4915</t>
+          <t>4981</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>6524</t>
+          <t>6658</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>4493731</t>
+          <t>6510348</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Player-1527362</t>
+          <t>Bonpoisson</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1658,24 +1658,24 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>4723</t>
+          <t>4944</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>7560</t>
+          <t>8009</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>6510348</t>
+          <t>47131129</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Bonpoisson</t>
+          <t>NAM</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1685,24 +1685,24 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>4656</t>
+          <t>4850</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>9352</t>
+          <t>8420</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>47131129</t>
+          <t>7852598</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>NAM</t>
+          <t>seiji</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1712,24 +1712,24 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>4555</t>
+          <t>4822</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>9811</t>
+          <t>8709</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>7852598</t>
+          <t>16206490</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>seiji</t>
+          <t>㊥Godcys</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1739,14 +1739,14 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>4530</t>
+          <t>4806</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>11219</t>
+          <t>10427</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1766,24 +1766,24 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>4462</t>
+          <t>4710</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>11321</t>
+          <t>13944</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>16206490</t>
+          <t>38995116</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>㊥Godcys</t>
+          <t>"Ramesh Pavai Nam"</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1793,24 +1793,24 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>4457</t>
+          <t>4520</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>12281</t>
+          <t>14313</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>56133764</t>
+          <t>8057001</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>ustcarter</t>
+          <t>㊥兵者诡道也</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1820,24 +1820,24 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>4408</t>
+          <t>4504</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>15644</t>
+          <t>14927</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>8057001</t>
+          <t>56133764</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>㊥兵者诡道也</t>
+          <t>ustcarter</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1847,24 +1847,24 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>4274</t>
+          <t>4479</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>16439</t>
+          <t>17280</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>38995116</t>
+          <t>6809364</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>"Ramesh Pavai Nam"</t>
+          <t>"Scorp IP"</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1874,24 +1874,24 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>4246</t>
+          <t>4384</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>19578</t>
+          <t>20898</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>6809364</t>
+          <t>54778421</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>"Scorp IP"</t>
+          <t>Emma</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1901,24 +1901,24 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>4145</t>
+          <t>4251</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>21145</t>
+          <t>24527</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>54778421</t>
+          <t>38561634</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Emma</t>
+          <t>"Ambrose PT"</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1928,24 +1928,24 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>4095</t>
+          <t>4133</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>21774</t>
+          <t>26674</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>38561634</t>
+          <t>11582001</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>"Ambrose PT"</t>
+          <t>iMinatoX4</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1955,24 +1955,24 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>4077</t>
+          <t>4067</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>22619</t>
+          <t>32400</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>11582001</t>
+          <t>56573048</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>iMinatoX4</t>
+          <t>Xiaotian</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1982,24 +1982,24 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>4051</t>
+          <t>3890</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>30657</t>
+          <t>37512</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>56573048</t>
+          <t>55860890</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Xiaotian</t>
+          <t>㊥Ethan</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2009,14 +2009,14 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>3787</t>
+          <t>3588</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>37002</t>
+          <t>37888</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2036,24 +2036,24 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>3463</t>
+          <t>3565</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>41110</t>
+          <t>42116</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>22161051</t>
+          <t>56500325</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Botz5</t>
+          <t>haruharuyukizg9735</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2063,24 +2063,24 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>3239</t>
+          <t>3298</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>41368</t>
+          <t>43231</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>56500325</t>
+          <t>22161051</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>haruharuyukizg9735</t>
+          <t>Botz5</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2090,14 +2090,14 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>3224</t>
+          <t>3228</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>42206</t>
+          <t>44048</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2117,24 +2117,24 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>3173</t>
+          <t>3176</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>46476</t>
+          <t>44149</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>31401481</t>
+          <t>1550355</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Player-31401481</t>
+          <t>"皓茵 世界"</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2144,24 +2144,24 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2951</t>
+          <t>3170</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>48625</t>
+          <t>48398</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>57813281</t>
+          <t>31401481</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>XAUEN</t>
+          <t>Player-31401481</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2171,24 +2171,24 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2867</t>
+          <t>2946</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>49032</t>
+          <t>50308</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>55860890</t>
+          <t>38893233</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>㊥Ethan</t>
+          <t>"快乐 二哈"</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2198,24 +2198,24 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2852</t>
+          <t>2869</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>49772</t>
+          <t>50320</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>1550355</t>
+          <t>57813281</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>"皓茵 世界"</t>
+          <t>XAUEN</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2225,24 +2225,24 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2827</t>
+          <t>2868</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>50272</t>
+          <t>51260</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>38893233</t>
+          <t>32316256</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>"快乐 二哈"</t>
+          <t>"秋の風 .."</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2252,24 +2252,24 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2810</t>
+          <t>2833</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>50517</t>
+          <t>53923</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>32316256</t>
+          <t>14110169</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>"秋の風 .."</t>
+          <t>"Pasiony CANQ"</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2279,24 +2279,24 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2803</t>
+          <t>2742</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>52326</t>
+          <t>56756</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>14110169</t>
+          <t>68132</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>"Pasiony CANQ"</t>
+          <t>"㊖TW9 百媚生"</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2306,14 +2306,14 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2742</t>
+          <t>2653</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>57035</t>
+          <t>58366</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2340,17 +2340,17 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>57718</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>68132</t>
+          <t>29565</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>"㊖TW9 百媚生"</t>
+          <t>"aK.j Zhong ㊥"</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2360,7 +2360,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2592</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2372,12 +2372,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>29565</t>
+          <t>12639656</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>"aK.j Zhong ㊥"</t>
+          <t>"wu huang"</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2399,12 +2399,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>12639656</t>
+          <t>47758619</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>"wu huang"</t>
+          <t>"㊥ Moon ㊥"</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2426,12 +2426,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>47758619</t>
+          <t>44789201</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>"㊥ Moon ㊥"</t>
+          <t>华夏四川广安</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2453,12 +2453,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>44789201</t>
+          <t>32478707</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>华夏四川广安</t>
+          <t>"Bt So"</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2475,44 +2475,44 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>15375</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>32478707</t>
+          <t>31134300</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>"Bt So"</t>
+          <t>McMaX</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4460</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>15819</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>31134300</t>
+          <t>44378757</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>McMaX</t>
+          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2522,24 +2522,24 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>4268</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>17190</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>44378757</t>
+          <t>46289694</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
+          <t>㊥Vincent</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2549,24 +2549,24 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4388</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>14742</t>
+          <t>22743</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>46289694</t>
+          <t>54085771</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>㊥Vincent</t>
+          <t>㊥Matthieu</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2576,24 +2576,24 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>4306</t>
+          <t>4189</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>22074</t>
+          <t>22916</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>37069173</t>
+          <t>28855852</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>詹toniii</t>
+          <t>tiger</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2603,24 +2603,24 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>4068</t>
+          <t>4184</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>23882</t>
+          <t>23160</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>28855852</t>
+          <t>37069173</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>tiger</t>
+          <t>詹toniii</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2630,24 +2630,24 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>4014</t>
+          <t>4177</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>24167</t>
+          <t>23405</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>54085771</t>
+          <t>25479797</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>㊥Matthieu</t>
+          <t>"Mohamed Alnaqbi"</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2657,24 +2657,24 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>4006</t>
+          <t>4169</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>27787</t>
+          <t>32368</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>25479797</t>
+          <t>44708798</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>"Mohamed Alnaqbi"</t>
+          <t>"㊥ mythgod"</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2684,24 +2684,24 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>3928</t>
+          <t>3892</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>29568</t>
+          <t>56377</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>44708798</t>
+          <t>54588689</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>"㊥ mythgod"</t>
+          <t>㊥墨衍枫迹☜</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2711,24 +2711,24 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>3841</t>
+          <t>2665</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>56779</t>
+          <t>2677</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>54588689</t>
+          <t>3946814</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>㊥墨衍枫迹☜</t>
+          <t>"小瑩 潘"</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2738,14 +2738,14 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>2615</t>
+          <t>5278</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>2067</t>
+          <t>3252</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -2765,24 +2765,24 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>5071</t>
+          <t>5217</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>2857</t>
+          <t>4766</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>3946814</t>
+          <t>1951758</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>"小瑩 潘"</t>
+          <t>我來找你了</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2792,24 +2792,24 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>4989</t>
+          <t>5082</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>4873</t>
+          <t>11770</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>1951758</t>
+          <t>25163202</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>我來找你了</t>
+          <t>"sam yang"</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2819,24 +2819,24 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>4833</t>
+          <t>4635</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>13021</t>
+          <t>20547</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>25163202</t>
+          <t>37861953</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>"sam yang"</t>
+          <t>"Durex ๑• . •๑"</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2846,24 +2846,24 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>4376</t>
+          <t>4265</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>15766</t>
+          <t>22130</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>37861953</t>
+          <t>55634661</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>"Durex ๑• . •๑"</t>
+          <t>Opalus</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2873,24 +2873,24 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>4270</t>
+          <t>4209</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>22627</t>
+          <t>27542</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>55634661</t>
+          <t>56379103</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Opalus</t>
+          <t>Globalking</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2900,24 +2900,24 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>4050</t>
+          <t>4037</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>26169</t>
+          <t>29945</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>58743790</t>
+          <t>56585361</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Ma</t>
+          <t>"㊥ go策划我要ali"</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2927,24 +2927,24 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>3984</t>
+          <t>3989</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>26749</t>
+          <t>29517</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>56732705</t>
+          <t>58839983</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>时间温柔皆遗憾</t>
+          <t>每逢佳节胖六斤</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2954,24 +2954,24 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>3973</t>
+          <t>3992</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>28312</t>
+          <t>29676</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>58839983</t>
+          <t>58743790</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>每逢佳节胖六斤</t>
+          <t>Ma</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2981,24 +2981,24 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>3902</t>
+          <t>3991</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>29230</t>
+          <t>29941</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>56379103</t>
+          <t>56732705</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Globalking</t>
+          <t>时间温柔皆遗憾</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3008,14 +3008,14 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>3856</t>
+          <t>3989</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>30161</t>
+          <t>30237</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -3035,24 +3035,24 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>3812</t>
+          <t>3986</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>32153</t>
+          <t>31874</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>58408326</t>
+          <t>47459684</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>"Killer Bee"</t>
+          <t>㊥阿闹切克闹</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3062,24 +3062,24 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>3711</t>
+          <t>3919</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>33333</t>
+          <t>33412</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>56585361</t>
+          <t>58408326</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>"㊥ go策划我要ali"</t>
+          <t>"Killer Bee"</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3089,24 +3089,24 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>3650</t>
+          <t>3832</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>33569</t>
+          <t>36223</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>47244896</t>
+          <t>18082891</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Dropthebeat</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3116,24 +3116,24 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>3638</t>
+          <t>3665</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>35103</t>
+          <t>36956</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>47459684</t>
+          <t>47244896</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>㊥阿闹切克闹</t>
+          <t>Dropthebeat</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3143,24 +3143,24 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>3563</t>
+          <t>3622</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>36009</t>
+          <t>38137</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>18082891</t>
+          <t>1304123</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Cccccccccccc</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3170,24 +3170,24 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>3517</t>
+          <t>3552</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>36823</t>
+          <t>39683</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>1304123</t>
+          <t>48738257</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Cccccccccccc</t>
+          <t>死亡洲际跳蛋</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3197,14 +3197,14 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>3474</t>
+          <t>3451</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>40013</t>
+          <t>41626</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -3224,24 +3224,24 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>3300</t>
+          <t>3328</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>40125</t>
+          <t>41673</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>48738257</t>
+          <t>11645391</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>死亡洲际跳蛋</t>
+          <t>"omar omar"</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3251,14 +3251,14 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>3295</t>
+          <t>3326</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>41537</t>
+          <t>43831</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -3278,24 +3278,24 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>3214</t>
+          <t>3189</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>42201</t>
+          <t>44081</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>11645391</t>
+          <t>52997727</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>"omar omar"</t>
+          <t>larios</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3312,17 +3312,17 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>43782</t>
+          <t>45413</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>52997727</t>
+          <t>48634530</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>larios</t>
+          <t>leezhenrui</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3332,24 +3332,24 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>3082</t>
+          <t>3093</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>44260</t>
+          <t>47027</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>48634530</t>
+          <t>55499394</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>leezhenrui</t>
+          <t>Player-55499394</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3359,14 +3359,14 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>3055</t>
+          <t>3006</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>48073</t>
+          <t>47330</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -3386,24 +3386,24 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>2886</t>
+          <t>2993</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>53881</t>
+          <t>54759</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>55499394</t>
+          <t>58940575</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Player-55499394</t>
+          <t>图啊图z z</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3413,24 +3413,24 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>2694</t>
+          <t>2713</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>56616</t>
+          <t>60084</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>58940575</t>
+          <t>5367482</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>图啊图z z</t>
+          <t>Ігор</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3440,24 +3440,24 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>2619</t>
+          <t>2571</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>59081</t>
+          <t>61311</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>5367482</t>
+          <t>47430231</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Ігор</t>
+          <t>Kentantrino</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3467,24 +3467,24 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>2564</t>
+          <t>2545</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>59688</t>
+          <t>63364</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>47430231</t>
+          <t>15436348</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Kentantrino</t>
+          <t>Lucas</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3494,24 +3494,24 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>2552</t>
+          <t>2511</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>61977</t>
+          <t>67443</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>15436348</t>
+          <t>52792063</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Lucas</t>
+          <t>"Tramaine Dowlen"</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3521,24 +3521,24 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>2514</t>
+          <t>2393</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>66078</t>
+          <t>69227</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>52792063</t>
+          <t>20372140</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>"Tramaine Dowlen"</t>
+          <t>人山即是仙</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3548,24 +3548,24 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>2397</t>
+          <t>2317</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>68076</t>
+          <t>74252</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>20372140</t>
+          <t>9718882</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>人山即是仙</t>
+          <t>小霸王2021</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3575,24 +3575,24 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>2305</t>
+          <t>2187</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>75457</t>
+          <t>82518</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>9718882</t>
+          <t>57219176</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>小霸王2021</t>
+          <t>青莲道人</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3602,24 +3602,24 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>2113</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>80493</t>
+          <t>93994</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>57219176</t>
+          <t>54941706</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>青莲道人</t>
+          <t>AlexMenjivar20</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3629,24 +3629,24 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>1601</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>93163</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>54941706</t>
+          <t>38994054</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>AlexMenjivar20</t>
+          <t>chengnan</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3656,7 +3656,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>1574</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -3668,12 +3668,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>38994054</t>
+          <t>3391765</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>chengnan</t>
+          <t>马er</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3695,12 +3695,12 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>3391765</t>
+          <t>55810157</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>马er</t>
+          <t>Beard</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3722,12 +3722,12 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>55810157</t>
+          <t>57556179</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Beard</t>
+          <t>特战新生代英雄</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3749,12 +3749,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>57556179</t>
+          <t>1222440</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>特战新生代英雄</t>
+          <t>"Sneaky Ninja Panda"</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3776,12 +3776,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>1222440</t>
+          <t>58340439</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>"Sneaky Ninja Panda"</t>
+          <t>70qilin</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -3803,12 +3803,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>58340439</t>
+          <t>58615925</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>70qilin</t>
+          <t>齐天的大圣</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -3825,44 +3825,44 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>45400</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>58615925</t>
+          <t>41849539</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>齐天的大圣</t>
+          <t>三号馆馆主</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3094</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>43443</t>
+          <t>41915</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>41849539</t>
+          <t>56241637</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>三号馆馆主</t>
+          <t>Player-14day</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -3872,24 +3872,24 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>3102</t>
+          <t>3311</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>41276</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>56241637</t>
+          <t>47622456</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Player-14day</t>
+          <t>伊恩</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -3899,24 +3899,24 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>3229</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>44661</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>47622456</t>
+          <t>55210350</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>伊恩</t>
+          <t>一个过客而已</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -3926,24 +3926,24 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3138</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>42726</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>55210350</t>
+          <t>49553719</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>一个过客而已</t>
+          <t>"Oreo Captain Sir"</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -3953,24 +3953,24 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>3142</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>49546</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>49553719</t>
+          <t>12434456</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>"Oreo Captain Sir"</t>
+          <t>Player-12434456</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -3980,24 +3980,24 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2899</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>47480</t>
+          <t>78987</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>12434456</t>
+          <t>58671339</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Player-12434456</t>
+          <t>"quang pro"</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -4007,24 +4007,24 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>2910</t>
+          <t>2074</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>78723</t>
+          <t>103851</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>58671339</t>
+          <t>41231396</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>"quang pro"</t>
+          <t>ollsthebro</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -4034,24 +4034,24 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>2050</t>
+          <t>1499</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>101350</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>41231396</t>
+          <t>58572199</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>ollsthebro</t>
+          <t>你干嘛～哎呦～</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -4061,7 +4061,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>1499</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4073,12 +4073,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>58572199</t>
+          <t>58766144</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>你干嘛～哎呦～</t>
+          <t>EquablePrecedence38</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -4100,12 +4100,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>58766144</t>
+          <t>29355299</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>EquablePrecedence38</t>
+          <t>Player-29355299</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -4127,12 +4127,12 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>29355299</t>
+          <t>58910668</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Player-29355299</t>
+          <t>BrittleAuthor33</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -4154,12 +4154,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>58910668</t>
+          <t>55745105</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>BrittleAuthor33</t>
+          <t>eldeniz</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -4181,12 +4181,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>55745105</t>
+          <t>58174442</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>eldeniz</t>
+          <t>Player-58174442</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -4208,17 +4208,17 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>58174442</t>
+          <t>9913517</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Player-58174442</t>
+          <t>"Kenny Chan"</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>Chinese</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -4230,17 +4230,17 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>48223</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>9913517</t>
+          <t>41848598</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>"Kenny Chan"</t>
+          <t>国家一级保护沙雕</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -4250,24 +4250,24 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2953</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>48125</t>
+          <t>60754</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>41848598</t>
+          <t>6010122</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>国家一级保护沙雕</t>
+          <t>"Edward Peng"</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -4277,24 +4277,24 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>2884</t>
+          <t>2556</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>60866</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>6010122</t>
+          <t>12648101</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>"Edward Peng"</t>
+          <t>"player 198827"</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -4304,7 +4304,7 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>2530</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4316,12 +4316,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>12648101</t>
+          <t>9195340</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>"player 198827"</t>
+          <t>Namllllllik</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -4343,12 +4343,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>9195340</t>
+          <t>15755724</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Namllllllik</t>
+          <t>"Last Good"</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -4370,12 +4370,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>15755724</t>
+          <t>8850180</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>"Last Good"</t>
+          <t>30624300</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -4397,12 +4397,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>8850180</t>
+          <t>28624723</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>30624300</t>
+          <t>"Woody Shade"</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -4419,17 +4419,17 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>49185</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>28624723</t>
+          <t>10636651</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>"Woody Shade"</t>
+          <t>"Ismail Aflou"</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -4439,34 +4439,7 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>47068</t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>10636651</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>"Ismail Aflou"</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>Chinese</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>2926</t>
+          <t>2913</t>
         </is>
       </c>
     </row>

--- a/Season_Trophies/86.xlsx
+++ b/Season_Trophies/86.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E151"/>
+  <dimension ref="A1:E153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -396,7 +396,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>46291</t>
+          <t>47444</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -416,24 +416,24 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3042</t>
+          <t>3070</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>375</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>26424998</t>
+          <t>32613475</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>"Smok3y 1nOnly"</t>
+          <t>"李 无 善 德"</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -443,24 +443,24 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5812</t>
+          <t>6003</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>910</t>
+          <t>839</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>32613475</t>
+          <t>26424998</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>"李 无 善 德"</t>
+          <t>"Smok3y 1nOnly"</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -470,24 +470,24 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5547</t>
+          <t>5863</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3839</t>
+          <t>5771</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>6940556</t>
+          <t>31217211</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>"Cry ab it林黛玉ᶻᵍˣ"</t>
+          <t>解憂雜貨鋪㊥</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -497,24 +497,24 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5160</t>
+          <t>5245</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>6976</t>
+          <t>6429</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>31217211</t>
+          <t>6940556</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>解憂雜貨鋪㊥</t>
+          <t>"Cry ab it林黛玉ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -524,14 +524,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4921</t>
+          <t>5190</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>14035</t>
+          <t>18074</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -558,7 +558,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>880</t>
+          <t>1531</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -578,14 +578,14 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>5555</t>
+          <t>5715</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>7405</t>
+          <t>8278</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -605,14 +605,14 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4889</t>
+          <t>5045</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>27103</t>
+          <t>29067</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -632,24 +632,24 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4053</t>
+          <t>4107</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2573</t>
+          <t>434</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>46422609</t>
+          <t>20199374</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>㊥林天大大神</t>
+          <t>RuanFan</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -659,24 +659,24 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>5290</t>
+          <t>5984</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>3116</t>
+          <t>2346</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>31267627</t>
+          <t>46422609</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>"㊥ Martin"</t>
+          <t>㊥林天大大神</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -686,24 +686,24 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>5229</t>
+          <t>5589</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>3518</t>
+          <t>2536</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>21345373</t>
+          <t>31267627</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>林北不講武德</t>
+          <t>"㊥ Martin"</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -713,24 +713,24 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>5190</t>
+          <t>5563</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>3619</t>
+          <t>3344</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1820342</t>
+          <t>11783968</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>摸鱼爱好者三战</t>
+          <t>F---119</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -740,24 +740,24 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>5182</t>
+          <t>5472</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4397</t>
+          <t>3787</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>30411791</t>
+          <t>21735478</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>"㊥Ⓩ GOÐAFRÆÐI ᶻᵍˣ"</t>
+          <t>耀翔fly</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -767,24 +767,24 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>5110</t>
+          <t>5424</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>6427</t>
+          <t>3987</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>3477306</t>
+          <t>21345373</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>"MeGa Tsai"</t>
+          <t>林北不講武德</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -794,24 +794,24 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>4962</t>
+          <t>5405</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>6910</t>
+          <t>4146</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>38711610</t>
+          <t>1820342</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>心灵有为</t>
+          <t>摸鱼爱好者三战</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -821,24 +821,24 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>4927</t>
+          <t>5391</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>7180</t>
+          <t>4575</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>9541747</t>
+          <t>30411791</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>豹子头林冲</t>
+          <t>"㊥Ⓩ GOÐAFRÆÐI ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -848,24 +848,24 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>4905</t>
+          <t>5347</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>8520</t>
+          <t>5647</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>28749280</t>
+          <t>3477306</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>㊥老船⛵⛵</t>
+          <t>"MeGa Tsai"</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -875,24 +875,24 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>4817</t>
+          <t>5256</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>9327</t>
+          <t>5985</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>44955827</t>
+          <t>38711610</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>丶小阿狸丿</t>
+          <t>心灵有为</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -902,24 +902,24 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>4772</t>
+          <t>5226</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>9395</t>
+          <t>6482</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>29729468</t>
+          <t>9541747</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>"风神舞动 WDᶻᵍˣ"</t>
+          <t>豹子头林冲</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -929,24 +929,24 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>4768</t>
+          <t>5185</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>10689</t>
+          <t>6929</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>4229136</t>
+          <t>28749280</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>"totoro wu"</t>
+          <t>㊥老船⛵⛵</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -956,24 +956,24 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>4694</t>
+          <t>5147</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>15348</t>
+          <t>7012</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>12333251</t>
+          <t>29729468</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>"㊌ Mingxuan"</t>
+          <t>"风神舞动 WDᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -983,24 +983,24 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>4462</t>
+          <t>5141</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>15699</t>
+          <t>7540</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>14424176</t>
+          <t>6510348</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>天才少年老纪</t>
+          <t>Bonpoisson</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1010,24 +1010,24 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>4447</t>
+          <t>5097</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>17121</t>
+          <t>7631</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>45967307</t>
+          <t>44955827</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Ricky</t>
+          <t>丶小阿狸丿</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1037,24 +1037,24 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>4391</t>
+          <t>5091</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>19162</t>
+          <t>9716</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>55317038</t>
+          <t>4229136</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>necman12345</t>
+          <t>"totoro wu"</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1064,24 +1064,24 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>4314</t>
+          <t>4957</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>19912</t>
+          <t>13814</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>47146736</t>
+          <t>14424176</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>"HK 品瑜"</t>
+          <t>天才少年老纪</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1091,24 +1091,24 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>4286</t>
+          <t>4710</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>25537</t>
+          <t>14740</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>20737010</t>
+          <t>12333251</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>混着玩...</t>
+          <t>"㊌ Mingxuan"</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1118,24 +1118,24 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>4102</t>
+          <t>4664</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>42015</t>
+          <t>17741</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>7587898</t>
+          <t>47146736</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>藍精靈ᶻᵍˣ</t>
+          <t>"HK 品瑜"</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1145,24 +1145,24 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>3304</t>
+          <t>4528</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>63013</t>
+          <t>18217</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>47928278</t>
+          <t>45967307</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>"落日幻影 哈哈哈"</t>
+          <t>Ricky</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1172,24 +1172,24 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2516</t>
+          <t>4511</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>19421</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>23687250</t>
+          <t>55317038</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>"jetlijp ᶻᵍˣ"</t>
+          <t>necman12345</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1199,132 +1199,132 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4463</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>5418</t>
+          <t>20279</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>27484940</t>
+          <t>20737010</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>66666zgx</t>
+          <t>混着玩...</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>5030</t>
+          <t>4426</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>15017</t>
+          <t>43774</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>38809086</t>
+          <t>7587898</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Kouenᶻᵍˣ</t>
+          <t>藍精靈ᶻᵍˣ</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>4476</t>
+          <t>3304</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>6011</t>
+          <t>64073</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>13738844</t>
+          <t>47928278</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>"Chen Hao"</t>
+          <t>"落日幻影 哈哈哈"</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>4991</t>
+          <t>2516</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>9673</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>53520939</t>
+          <t>23687250</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>㊥虎哥tiger</t>
+          <t>"jetlijp ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>4750</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>10055</t>
+          <t>4731</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>42434117</t>
+          <t>27484940</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>㊥有双飞鸟</t>
+          <t>66666zgx</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1334,24 +1334,24 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>4728</t>
+          <t>5333</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>11740</t>
+          <t>18336</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>53060417</t>
+          <t>38809086</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>㊥老纳信耶稣</t>
+          <t>Kouenᶻᵍˣ</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1361,24 +1361,24 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>4636</t>
+          <t>4506</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>12546</t>
+          <t>5405</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>49710892</t>
+          <t>13738844</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>MMMMMMM</t>
+          <t>"Chen Hao"</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1388,24 +1388,24 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>4592</t>
+          <t>5277</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>15293</t>
+          <t>8621</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>31495601</t>
+          <t>53060417</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>陈晓军</t>
+          <t>㊥老纳信耶稣</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1415,24 +1415,24 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>4465</t>
+          <t>5021</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>16697</t>
+          <t>9247</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>54698813</t>
+          <t>42434117</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>閃亮唐老鴨</t>
+          <t>㊥有双飞鸟</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1442,24 +1442,24 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>4407</t>
+          <t>4986</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>17455</t>
+          <t>11220</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>55769051</t>
+          <t>49710892</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>㊥叮叮当.</t>
+          <t>MMMMMMM</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1469,24 +1469,24 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>4378</t>
+          <t>4864</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>18508</t>
+          <t>12290</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>4756174</t>
+          <t>53520939</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>純希です</t>
+          <t>㊥虎哥tiger</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1496,24 +1496,24 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>4337</t>
+          <t>4795</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>15346</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>43812707</t>
+          <t>31495601</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>bbtt</t>
+          <t>陈晓军</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1523,24 +1523,24 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4635</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>577</t>
+          <t>16366</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>8741713</t>
+          <t>54698813</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t xml:space="preserve">㊥大咖玩家ky </t>
+          <t>閃亮唐老鴨</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1550,24 +1550,24 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>5629</t>
+          <t>4587</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>1716</t>
+          <t>18407</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>29211638</t>
+          <t>4756174</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>"㊥ PhononDisperse"</t>
+          <t>純希です</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1577,24 +1577,24 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>5403</t>
+          <t>4503</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>3938</t>
+          <t>22410</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>21735478</t>
+          <t>55769051</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>耀翔fly</t>
+          <t>㊥叮叮当.</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1604,24 +1604,24 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>5152</t>
+          <t>4341</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>6166</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>4493731</t>
+          <t>43812707</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Player-1527362</t>
+          <t>bbtt</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1631,24 +1631,24 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>4981</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>6658</t>
+          <t>336</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>6510348</t>
+          <t>8741713</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Bonpoisson</t>
+          <t xml:space="preserve">㊥大咖玩家ky </t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1658,24 +1658,24 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>4944</t>
+          <t>6015</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>8009</t>
+          <t>1292</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>47131129</t>
+          <t>29211638</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>NAM</t>
+          <t>"㊥ PhononDisperse"</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1685,24 +1685,24 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>4850</t>
+          <t>5763</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>8420</t>
+          <t>5787</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>7852598</t>
+          <t>4493731</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>seiji</t>
+          <t>Player-1527362</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1712,14 +1712,14 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>4822</t>
+          <t>5243</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>8709</t>
+          <t>7060</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1739,24 +1739,24 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>4806</t>
+          <t>5137</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>10427</t>
+          <t>8811</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>22885399</t>
+          <t>47131129</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>余文琪</t>
+          <t>NAM</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1766,24 +1766,24 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>4710</t>
+          <t>5009</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>13944</t>
+          <t>9808</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>38995116</t>
+          <t>7852598</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>"Ramesh Pavai Nam"</t>
+          <t>seiji</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1793,24 +1793,24 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>4520</t>
+          <t>4950</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>14313</t>
+          <t>9851</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>8057001</t>
+          <t>22885399</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>㊥兵者诡道也</t>
+          <t>余文琪</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1820,14 +1820,14 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>4504</t>
+          <t>4948</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>14927</t>
+          <t>12704</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1847,14 +1847,14 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>4479</t>
+          <t>4774</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>17280</t>
+          <t>16167</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1874,24 +1874,24 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>4384</t>
+          <t>4596</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>20898</t>
+          <t>16263</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>54778421</t>
+          <t>8057001</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Emma</t>
+          <t>㊥兵者诡道也</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1901,24 +1901,24 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>4251</t>
+          <t>4592</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>24527</t>
+          <t>17832</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>38561634</t>
+          <t>38995116</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>"Ambrose PT"</t>
+          <t>"Ramesh Pavai Nam"</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1928,14 +1928,14 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>4133</t>
+          <t>4524</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>26674</t>
+          <t>17907</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1955,24 +1955,24 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>4067</t>
+          <t>4522</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>32400</t>
+          <t>21239</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>56573048</t>
+          <t>54778421</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Xiaotian</t>
+          <t>Emma</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1982,24 +1982,24 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>3890</t>
+          <t>4387</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>37512</t>
+          <t>27727</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>55860890</t>
+          <t>38561634</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>㊥Ethan</t>
+          <t>"Ambrose PT"</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2009,24 +2009,24 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>3588</t>
+          <t>4154</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>37888</t>
+          <t>31405</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>58203298</t>
+          <t>56573048</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>权旨qua</t>
+          <t>Xiaotian</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2036,24 +2036,24 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>3565</t>
+          <t>4027</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>42116</t>
+          <t>38357</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>56500325</t>
+          <t>58203298</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>haruharuyukizg9735</t>
+          <t>权旨qua</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2063,24 +2063,24 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>3298</t>
+          <t>3688</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>43231</t>
+          <t>39129</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>22161051</t>
+          <t>55860890</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Botz5</t>
+          <t>㊥Ethan</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2090,24 +2090,24 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>3228</t>
+          <t>3633</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>44048</t>
+          <t>42308</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>50837459</t>
+          <t>56500325</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>NINE日</t>
+          <t>haruharuyukizg9735</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2117,24 +2117,24 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>3176</t>
+          <t>3405</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>44149</t>
+          <t>44586</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>1550355</t>
+          <t>22161051</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>"皓茵 世界"</t>
+          <t>Botz5</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2144,24 +2144,24 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>3170</t>
+          <t>3252</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>48398</t>
+          <t>45831</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>31401481</t>
+          <t>1550355</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Player-31401481</t>
+          <t>"皓茵 世界"</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2171,24 +2171,24 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2946</t>
+          <t>3168</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>50308</t>
+          <t>45965</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>38893233</t>
+          <t>50837459</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>"快乐 二哈"</t>
+          <t>NINE日</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2198,24 +2198,24 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2869</t>
+          <t>3159</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>50320</t>
+          <t>48515</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>57813281</t>
+          <t>32316256</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>XAUEN</t>
+          <t>"秋の風 .."</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2225,24 +2225,24 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2868</t>
+          <t>3012</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>51260</t>
+          <t>49717</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>32316256</t>
+          <t>31401481</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>"秋の風 .."</t>
+          <t>Player-31401481</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2252,24 +2252,24 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2833</t>
+          <t>2957</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>53923</t>
+          <t>51148</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>14110169</t>
+          <t>38893233</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>"Pasiony CANQ"</t>
+          <t>"快乐 二哈"</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2279,24 +2279,24 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2742</t>
+          <t>2896</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>56756</t>
+          <t>51638</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>68132</t>
+          <t>57813281</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>"㊖TW9 百媚生"</t>
+          <t>XAUEN</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2306,24 +2306,24 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2653</t>
+          <t>2877</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>58366</t>
+          <t>55351</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>24733875</t>
+          <t>14110169</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>龍少</t>
+          <t>"Pasiony CANQ"</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2333,24 +2333,24 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2609</t>
+          <t>2742</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>55723</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>29565</t>
+          <t>68132</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>"aK.j Zhong ㊥"</t>
+          <t>"㊖TW9 百媚生"</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2360,24 +2360,24 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2728</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>59650</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>12639656</t>
+          <t>24733875</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>"wu huang"</t>
+          <t>龍少</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2609</t>
         </is>
       </c>
     </row>
@@ -2399,12 +2399,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>47758619</t>
+          <t>29565</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>"㊥ Moon ㊥"</t>
+          <t>"aK.j Zhong ㊥"</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2426,12 +2426,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>44789201</t>
+          <t>12639656</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>华夏四川广安</t>
+          <t>"wu huang"</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2453,12 +2453,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>32478707</t>
+          <t>47758619</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>"Bt So"</t>
+          <t>"㊥ Moon ㊥"</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2475,27 +2475,27 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>15375</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>31134300</t>
+          <t>44789201</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>McMaX</t>
+          <t>华夏四川广安</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>4460</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2507,17 +2507,17 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>44378757</t>
+          <t>32478707</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
+          <t>"Bt So"</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -2529,17 +2529,17 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>17190</t>
+          <t>15135</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>46289694</t>
+          <t>31134300</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>㊥Vincent</t>
+          <t>McMaX</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2549,24 +2549,24 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>4388</t>
+          <t>4645</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>22743</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>54085771</t>
+          <t>44378757</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>㊥Matthieu</t>
+          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2576,24 +2576,24 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>4189</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>22916</t>
+          <t>20022</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>28855852</t>
+          <t>25479797</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>tiger</t>
+          <t>"Mohamed Alnaqbi"</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2603,24 +2603,24 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>4184</t>
+          <t>4438</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>23160</t>
+          <t>21172</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>37069173</t>
+          <t>54085771</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>詹toniii</t>
+          <t>㊥Matthieu</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2630,24 +2630,24 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>4177</t>
+          <t>4390</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>23405</t>
+          <t>23232</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>25479797</t>
+          <t>46289694</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>"Mohamed Alnaqbi"</t>
+          <t>㊥Vincent</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2657,14 +2657,14 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>4169</t>
+          <t>4309</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>32368</t>
+          <t>24044</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -2684,24 +2684,24 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>3892</t>
+          <t>4280</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>56377</t>
+          <t>24101</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>54588689</t>
+          <t>28855852</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>㊥墨衍枫迹☜</t>
+          <t>tiger</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2711,24 +2711,24 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2665</t>
+          <t>4278</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>2677</t>
+          <t>24191</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>3946814</t>
+          <t>37069173</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>"小瑩 潘"</t>
+          <t>詹toniii</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2738,24 +2738,24 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>5278</t>
+          <t>4275</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>3252</t>
+          <t>55338</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>33656016</t>
+          <t>54588689</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>㊥☆梅海听雪☆</t>
+          <t>㊥墨衍枫迹☜</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2765,24 +2765,24 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>5217</t>
+          <t>2742</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>4766</t>
+          <t>1924</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>1951758</t>
+          <t>3946814</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>我來找你了</t>
+          <t>"小瑩 潘"</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2792,24 +2792,24 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>5082</t>
+          <t>5649</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>11770</t>
+          <t>3007</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>25163202</t>
+          <t>1951758</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>"sam yang"</t>
+          <t>我來找你了</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2819,24 +2819,24 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>4635</t>
+          <t>5510</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>20547</t>
+          <t>3018</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>37861953</t>
+          <t>33656016</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>"Durex ๑• . •๑"</t>
+          <t>㊥☆梅海听雪☆</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2846,24 +2846,24 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>4265</t>
+          <t>5508</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>22130</t>
+          <t>10235</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>55634661</t>
+          <t>25163202</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Opalus</t>
+          <t>"sam yang"</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2873,24 +2873,24 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>4209</t>
+          <t>4924</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>27542</t>
+          <t>17986</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>56379103</t>
+          <t>37861953</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Globalking</t>
+          <t>"Durex ๑• . •๑"</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2900,24 +2900,24 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>4037</t>
+          <t>4519</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>29945</t>
+          <t>26344</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>56585361</t>
+          <t>55634661</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>"㊥ go策划我要ali"</t>
+          <t>Opalus</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2927,24 +2927,24 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>3989</t>
+          <t>4201</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>29517</t>
+          <t>27195</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>58839983</t>
+          <t>3649043</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>每逢佳节胖六斤</t>
+          <t>"慶頴 謝"</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2954,24 +2954,24 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>3992</t>
+          <t>4172</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>29676</t>
+          <t>27461</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>58743790</t>
+          <t>47459684</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Ma</t>
+          <t>㊥阿闹切克闹</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2981,24 +2981,24 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>3991</t>
+          <t>4163</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>29941</t>
+          <t>28723</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>56732705</t>
+          <t>56585361</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>时间温柔皆遗憾</t>
+          <t>"㊥ go策划我要ali"</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3008,24 +3008,24 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>3989</t>
+          <t>4117</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>30237</t>
+          <t>29306</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>3649043</t>
+          <t>56732705</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>"慶頴 謝"</t>
+          <t>时间温柔皆遗憾</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3035,24 +3035,24 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>3986</t>
+          <t>4099</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>31874</t>
+          <t>31238</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>47459684</t>
+          <t>56379103</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>㊥阿闹切克闹</t>
+          <t>Globalking</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3062,24 +3062,24 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>3919</t>
+          <t>4033</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>33412</t>
+          <t>31262</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>58408326</t>
+          <t>58839983</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>"Killer Bee"</t>
+          <t>每逢佳节胖六斤</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3089,24 +3089,24 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>3832</t>
+          <t>4032</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>36223</t>
+          <t>32397</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>18082891</t>
+          <t>58408326</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>"Killer Bee"</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3116,24 +3116,24 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>3665</t>
+          <t>3997</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>36956</t>
+          <t>33013</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>47244896</t>
+          <t>58743790</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Dropthebeat</t>
+          <t>Ma</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3143,24 +3143,24 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>3622</t>
+          <t>3992</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>38137</t>
+          <t>35020</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>1304123</t>
+          <t>18082891</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Cccccccccccc</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3170,24 +3170,24 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>3552</t>
+          <t>3920</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>39683</t>
+          <t>35252</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>48738257</t>
+          <t>47244896</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>死亡洲际跳蛋</t>
+          <t>Dropthebeat</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3197,24 +3197,24 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>3451</t>
+          <t>3904</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>41626</t>
+          <t>36863</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>56700848</t>
+          <t>1304123</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>工口漫画老师</t>
+          <t>Cccccccccccc</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3224,24 +3224,24 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>3328</t>
+          <t>3793</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>41673</t>
+          <t>39751</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>11645391</t>
+          <t>48738257</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>"omar omar"</t>
+          <t>死亡洲际跳蛋</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3251,14 +3251,14 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>3326</t>
+          <t>3583</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>43831</t>
+          <t>42556</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -3278,24 +3278,24 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>3189</t>
+          <t>3389</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>44081</t>
+          <t>42740</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>52997727</t>
+          <t>56700848</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>larios</t>
+          <t>工口漫画老师</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3305,24 +3305,24 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>3174</t>
+          <t>3377</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>45413</t>
+          <t>43014</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>48634530</t>
+          <t>11645391</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>leezhenrui</t>
+          <t>"omar omar"</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3332,24 +3332,24 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>3093</t>
+          <t>3357</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>47027</t>
+          <t>44575</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>55499394</t>
+          <t>52997727</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Player-55499394</t>
+          <t>larios</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3359,24 +3359,24 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>3006</t>
+          <t>3252</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>47330</t>
+          <t>44774</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>43281368</t>
+          <t>55499394</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>xhs2763</t>
+          <t>Player-55499394</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -3386,24 +3386,24 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>2993</t>
+          <t>3239</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>54759</t>
+          <t>46797</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>58940575</t>
+          <t>48634530</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>图啊图z z</t>
+          <t>leezhenrui</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3413,24 +3413,24 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>2713</t>
+          <t>3108</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>60084</t>
+          <t>49037</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>5367482</t>
+          <t>43281368</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Ігор</t>
+          <t>xhs2763</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3440,24 +3440,24 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>2571</t>
+          <t>2988</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>61311</t>
+          <t>55151</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>47430231</t>
+          <t>58940575</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Kentantrino</t>
+          <t>图啊图z z</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3467,24 +3467,24 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>2545</t>
+          <t>2748</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>63364</t>
+          <t>60836</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>15436348</t>
+          <t>47430231</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Lucas</t>
+          <t>Kentantrino</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3494,24 +3494,24 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>2511</t>
+          <t>2581</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>67443</t>
+          <t>61310</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>52792063</t>
+          <t>5367482</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>"Tramaine Dowlen"</t>
+          <t>Ігор</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3521,24 +3521,24 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>2393</t>
+          <t>2570</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>69227</t>
+          <t>64914</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>20372140</t>
+          <t>15436348</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>人山即是仙</t>
+          <t>Lucas</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3548,24 +3548,24 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>2317</t>
+          <t>2501</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>74252</t>
+          <t>65308</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>9718882</t>
+          <t>3391765</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>小霸王2021</t>
+          <t>马er</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3575,24 +3575,24 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>2187</t>
+          <t>2499</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>82518</t>
+          <t>67508</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>57219176</t>
+          <t>52792063</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>青莲道人</t>
+          <t>"Tramaine Dowlen"</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3602,24 +3602,24 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2451</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>93994</t>
+          <t>70073</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>54941706</t>
+          <t>20372140</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>AlexMenjivar20</t>
+          <t>人山即是仙</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3629,24 +3629,24 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>1601</t>
+          <t>2333</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>75852</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>38994054</t>
+          <t>9718882</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>chengnan</t>
+          <t>小霸王2021</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3656,24 +3656,24 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2186</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>83450</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>3391765</t>
+          <t>57219176</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>马er</t>
+          <t>青莲道人</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3683,24 +3683,24 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2024</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>96195</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>55810157</t>
+          <t>54941706</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Beard</t>
+          <t>AlexMenjivar20</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3710,7 +3710,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1601</t>
         </is>
       </c>
     </row>
@@ -3722,12 +3722,12 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>57556179</t>
+          <t>38994054</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>特战新生代英雄</t>
+          <t>chengnan</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3749,12 +3749,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>1222440</t>
+          <t>55810157</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>"Sneaky Ninja Panda"</t>
+          <t>Beard</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3776,12 +3776,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>58340439</t>
+          <t>57556179</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>70qilin</t>
+          <t>特战新生代英雄</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -3803,12 +3803,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>58615925</t>
+          <t>1222440</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>齐天的大圣</t>
+          <t>"Sneaky Ninja Panda"</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -3825,71 +3825,71 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>45400</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>41849539</t>
+          <t>58340439</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>三号馆馆主</t>
+          <t>70qilin</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>3094</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>41915</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>56241637</t>
+          <t>58615925</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Player-14day</t>
+          <t>齐天的大圣</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>3311</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>46848</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>47622456</t>
+          <t>41849539</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>伊恩</t>
+          <t>三号馆馆主</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -3899,24 +3899,24 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3106</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>44661</t>
+          <t>43999</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>55210350</t>
+          <t>56241637</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>一个过客而已</t>
+          <t>Player-14day</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -3926,7 +3926,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>3138</t>
+          <t>3289</t>
         </is>
       </c>
     </row>
@@ -3938,12 +3938,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>49553719</t>
+          <t>47622456</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>"Oreo Captain Sir"</t>
+          <t>伊恩</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -3960,17 +3960,17 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>49546</t>
+          <t>46539</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>12434456</t>
+          <t>55210350</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Player-12434456</t>
+          <t>一个过客而已</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -3980,24 +3980,24 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>2899</t>
+          <t>3123</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>78987</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>58671339</t>
+          <t>49553719</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>"quang pro"</t>
+          <t>"Oreo Captain Sir"</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -4007,24 +4007,24 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>2074</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>103851</t>
+          <t>48182</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>41231396</t>
+          <t>12434456</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>ollsthebro</t>
+          <t>Player-12434456</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -4034,24 +4034,24 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>1499</t>
+          <t>3029</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>80800</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>58572199</t>
+          <t>58671339</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>你干嘛～哎呦～</t>
+          <t>"quang pro"</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -4061,24 +4061,24 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2070</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>106188</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>58766144</t>
+          <t>41231396</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>EquablePrecedence38</t>
+          <t>ollsthebro</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -4088,7 +4088,7 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1499</t>
         </is>
       </c>
     </row>
@@ -4100,12 +4100,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>29355299</t>
+          <t>58572199</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Player-29355299</t>
+          <t>你干嘛～哎呦～</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -4127,12 +4127,12 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>58910668</t>
+          <t>58766144</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>BrittleAuthor33</t>
+          <t>EquablePrecedence38</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -4154,12 +4154,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>55745105</t>
+          <t>29355299</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>eldeniz</t>
+          <t>Player-29355299</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -4181,12 +4181,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>58174442</t>
+          <t>58910668</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Player-58174442</t>
+          <t>BrittleAuthor33</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -4208,17 +4208,17 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>9913517</t>
+          <t>55745105</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>"Kenny Chan"</t>
+          <t>eldeniz</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Chinese</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -4230,44 +4230,44 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>48223</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>41848598</t>
+          <t>58174442</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>国家一级保护沙雕</t>
+          <t>Player-58174442</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Chinese</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>2953</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>60754</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>6010122</t>
+          <t>9913517</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>"Edward Peng"</t>
+          <t>"Kenny Chan"</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -4277,24 +4277,24 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>2556</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>49813</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>12648101</t>
+          <t>41848598</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>"player 198827"</t>
+          <t>国家一级保护沙雕</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -4304,24 +4304,24 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2952</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>61969</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>9195340</t>
+          <t>6010122</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Namllllllik</t>
+          <t>"Edward Peng"</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -4331,7 +4331,7 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2556</t>
         </is>
       </c>
     </row>
@@ -4343,12 +4343,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>15755724</t>
+          <t>12648101</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>"Last Good"</t>
+          <t>"player 198827"</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -4370,12 +4370,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>8850180</t>
+          <t>9195340</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>30624300</t>
+          <t>Namllllllik</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -4397,12 +4397,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>28624723</t>
+          <t>15755724</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>"Woody Shade"</t>
+          <t>"Last Good"</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -4419,27 +4419,81 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>49185</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
+          <t>8850180</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>30624300</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>999999</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>28624723</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>"Woody Shade"</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>50844</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
           <t>10636651</t>
         </is>
       </c>
-      <c r="C151" t="inlineStr">
+      <c r="C153" t="inlineStr">
         <is>
           <t>"Ismail Aflou"</t>
         </is>
       </c>
-      <c r="D151" t="inlineStr">
+      <c r="D153" t="inlineStr">
         <is>
           <t>Chinese</t>
         </is>
       </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>2913</t>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>2908</t>
         </is>
       </c>
     </row>

--- a/Season_Trophies/86.xlsx
+++ b/Season_Trophies/86.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E153"/>
+  <dimension ref="A1:E158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -396,7 +396,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>47444</t>
+          <t>48394</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -416,24 +416,24 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3070</t>
+          <t>3097</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>491</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>32613475</t>
+          <t>26424998</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>"李 无 善 德"</t>
+          <t>"Smok3y 1nOnly"</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -443,24 +443,24 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>6003</t>
+          <t>6272</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>839</t>
+          <t>619</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>26424998</t>
+          <t>32613475</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>"Smok3y 1nOnly"</t>
+          <t>"李 无 善 德"</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -470,24 +470,24 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5863</t>
+          <t>6225</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>5771</t>
+          <t>3742</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>31217211</t>
+          <t>6940556</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>解憂雜貨鋪㊥</t>
+          <t>"Cry ab it林黛玉ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -497,24 +497,24 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5245</t>
+          <t>5679</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>6429</t>
+          <t>7427</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>6940556</t>
+          <t>31217211</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>"Cry ab it林黛玉ᶻᵍˣ"</t>
+          <t>解憂雜貨鋪㊥</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -524,14 +524,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>5190</t>
+          <t>5327</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>18074</t>
+          <t>15360</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -551,14 +551,14 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4516</t>
+          <t>4802</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1531</t>
+          <t>756</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -578,14 +578,14 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>5715</t>
+          <t>6184</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>8278</t>
+          <t>8049</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -605,14 +605,14 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>5045</t>
+          <t>5275</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>29067</t>
+          <t>15338</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -632,14 +632,14 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4107</t>
+          <t>4803</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>470</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -659,24 +659,24 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>5984</t>
+          <t>6280</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2346</t>
+          <t>890</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>46422609</t>
+          <t>3946814</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>㊥林天大大神</t>
+          <t>"小瑩 潘"</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -686,24 +686,24 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>5589</t>
+          <t>6149</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2536</t>
+          <t>1019</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>31267627</t>
+          <t>25376635</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>"㊥ Martin"</t>
+          <t>"sanchez ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -713,24 +713,24 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>5563</t>
+          <t>6116</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>3344</t>
+          <t>2205</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>11783968</t>
+          <t>46422609</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>F---119</t>
+          <t>㊥林天大大神</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -740,24 +740,24 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>5472</t>
+          <t>5891</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>3787</t>
+          <t>2747</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>21735478</t>
+          <t>22497</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>耀翔fly</t>
+          <t>xixihahagggᶻᵍˣ</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -767,24 +767,24 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>5424</t>
+          <t>5812</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>3987</t>
+          <t>2977</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>21345373</t>
+          <t>31267627</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>林北不講武德</t>
+          <t>"㊥ Martin"</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -794,14 +794,14 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>5405</t>
+          <t>5781</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>4146</t>
+          <t>3168</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -821,24 +821,24 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>5391</t>
+          <t>5752</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>4575</t>
+          <t>3856</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>30411791</t>
+          <t>21345373</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>"㊥Ⓩ GOÐAFRÆÐI ᶻᵍˣ"</t>
+          <t>林北不講武德</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -848,24 +848,24 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>5347</t>
+          <t>5667</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>5647</t>
+          <t>3906</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>3477306</t>
+          <t>11783968</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>"MeGa Tsai"</t>
+          <t>F---119</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -875,24 +875,24 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>5256</t>
+          <t>5662</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>5985</t>
+          <t>4280</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>38711610</t>
+          <t>33656016</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>心灵有为</t>
+          <t>㊥☆梅海听雪☆</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -902,24 +902,24 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>5226</t>
+          <t>5622</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>6482</t>
+          <t>4611</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>9541747</t>
+          <t>21735478</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>豹子头林冲</t>
+          <t>耀翔fly</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -929,24 +929,24 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>5185</t>
+          <t>5590</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>6929</t>
+          <t>4850</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>28749280</t>
+          <t>30411791</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>㊥老船⛵⛵</t>
+          <t>"㊥Ⓩ GOÐAFRÆÐI ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -956,24 +956,24 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>5147</t>
+          <t>5569</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>7012</t>
+          <t>5171</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>29729468</t>
+          <t>6510348</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>"风神舞动 WDᶻᵍˣ"</t>
+          <t>Bonpoisson</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -983,24 +983,24 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>5141</t>
+          <t>5537</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>7540</t>
+          <t>5695</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>6510348</t>
+          <t>3477306</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Bonpoisson</t>
+          <t>"MeGa Tsai"</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1010,24 +1010,24 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>5097</t>
+          <t>5489</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>7631</t>
+          <t>6778</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>44955827</t>
+          <t>28749280</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>丶小阿狸丿</t>
+          <t>㊥老船⛵⛵</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1037,24 +1037,24 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>5091</t>
+          <t>5389</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>9716</t>
+          <t>6909</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>4229136</t>
+          <t>29729468</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>"totoro wu"</t>
+          <t>"风神舞动 WDᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1064,24 +1064,24 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>4957</t>
+          <t>5378</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>13814</t>
+          <t>7018</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>14424176</t>
+          <t>9541747</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>天才少年老纪</t>
+          <t>豹子头林冲</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1091,24 +1091,24 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>4710</t>
+          <t>5366</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>14740</t>
+          <t>7964</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>12333251</t>
+          <t>44955827</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>"㊌ Mingxuan"</t>
+          <t>丶小阿狸丿</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1118,24 +1118,24 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>4664</t>
+          <t>5281</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>17741</t>
+          <t>8073</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>47146736</t>
+          <t>38711610</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>"HK 品瑜"</t>
+          <t>心灵有为</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1145,24 +1145,24 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>4528</t>
+          <t>5273</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>18217</t>
+          <t>9907</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>45967307</t>
+          <t>4229136</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Ricky</t>
+          <t>"totoro wu"</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1172,24 +1172,24 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>4511</t>
+          <t>5138</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>19421</t>
+          <t>10275</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>55317038</t>
+          <t>26588375</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>necman12345</t>
+          <t>kusipao</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1199,24 +1199,24 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>4463</t>
+          <t>5112</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>20279</t>
+          <t>14125</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>20737010</t>
+          <t>29861826</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>混着玩...</t>
+          <t>★★★Eric★★★</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1226,24 +1226,24 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>4426</t>
+          <t>4869</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>43774</t>
+          <t>14341</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>7587898</t>
+          <t>47146736</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>藍精靈ᶻᵍˣ</t>
+          <t>"HK 品瑜"</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1253,24 +1253,24 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>3304</t>
+          <t>4856</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>64073</t>
+          <t>14909</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>47928278</t>
+          <t>14424176</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>"落日幻影 哈哈哈"</t>
+          <t>天才少年老纪</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1280,24 +1280,24 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2516</t>
+          <t>4827</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>16306</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>23687250</t>
+          <t>45967307</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>"jetlijp ᶻᵍˣ"</t>
+          <t>Ricky</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1307,213 +1307,213 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4752</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>4731</t>
+          <t>17288</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>27484940</t>
+          <t>12333251</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>66666zgx</t>
+          <t>"㊌ Mingxuan"</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>5333</t>
+          <t>4708</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>18336</t>
+          <t>18010</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>38809086</t>
+          <t>26280580</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Kouenᶻᵍˣ</t>
+          <t>꧁S.TIGRESS꧂ᶻᵍˣ</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>4506</t>
+          <t>4676</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>5405</t>
+          <t>20892</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>13738844</t>
+          <t>55317038</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>"Chen Hao"</t>
+          <t>necman12345</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>5277</t>
+          <t>4545</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>8621</t>
+          <t>23788</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>53060417</t>
+          <t>20737010</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>㊥老纳信耶稣</t>
+          <t>混着玩...</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>5021</t>
+          <t>4426</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>9247</t>
+          <t>44889</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>42434117</t>
+          <t>7587898</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>㊥有双飞鸟</t>
+          <t>藍精靈ᶻᵍˣ</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>4986</t>
+          <t>3336</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>11220</t>
+          <t>65093</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>49710892</t>
+          <t>47928278</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>MMMMMMM</t>
+          <t>"落日幻影 哈哈哈"</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>4864</t>
+          <t>2516</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>12290</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>53520939</t>
+          <t>23687250</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>㊥虎哥tiger</t>
+          <t>"jetlijp ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>4795</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>15346</t>
+          <t>2481</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>31495601</t>
+          <t>27484940</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>陈晓军</t>
+          <t>66666zgx</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1523,24 +1523,24 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>4635</t>
+          <t>5850</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>16366</t>
+          <t>17267</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>54698813</t>
+          <t>38809086</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>閃亮唐老鴨</t>
+          <t>Kouenᶻᵍˣ</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1550,24 +1550,24 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>4587</t>
+          <t>4709</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>18407</t>
+          <t>6104</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>4756174</t>
+          <t>13738844</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>純希です</t>
+          <t>"Chen Hao"</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1577,24 +1577,24 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>4503</t>
+          <t>5452</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>22410</t>
+          <t>9185</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>55769051</t>
+          <t>49710892</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>㊥叮叮当.</t>
+          <t>MMMMMMM</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1604,24 +1604,24 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>4341</t>
+          <t>5191</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>9426</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>43812707</t>
+          <t>42434117</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>bbtt</t>
+          <t>㊥有双飞鸟</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1631,24 +1631,24 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5174</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>336</t>
+          <t>11275</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>8741713</t>
+          <t>53060417</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t xml:space="preserve">㊥大咖玩家ky </t>
+          <t>㊥老纳信耶稣</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1658,24 +1658,24 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>6015</t>
+          <t>5043</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>1292</t>
+          <t>13702</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>29211638</t>
+          <t>4756174</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>"㊥ PhononDisperse"</t>
+          <t>純希です</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1685,24 +1685,24 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>5763</t>
+          <t>4894</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>5787</t>
+          <t>14205</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>4493731</t>
+          <t>53520939</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Player-1527362</t>
+          <t>㊥虎哥tiger</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1712,24 +1712,24 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>5243</t>
+          <t>4864</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>7060</t>
+          <t>15254</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>16206490</t>
+          <t>31495601</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>㊥Godcys</t>
+          <t>陈晓军</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1739,24 +1739,24 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>5137</t>
+          <t>4808</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>8811</t>
+          <t>18525</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>47131129</t>
+          <t>54698813</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>NAM</t>
+          <t>閃亮唐老鴨</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1766,24 +1766,24 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>5009</t>
+          <t>4649</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>9808</t>
+          <t>20694</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>7852598</t>
+          <t>55769051</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>seiji</t>
+          <t>㊥叮叮当.</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1793,24 +1793,24 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>4950</t>
+          <t>4554</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>9851</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>22885399</t>
+          <t>43812707</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>余文琪</t>
+          <t>bbtt</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1820,24 +1820,24 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>4948</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>12704</t>
+          <t>514</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>56133764</t>
+          <t>8741713</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>ustcarter</t>
+          <t xml:space="preserve">㊥大咖玩家ky </t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1847,24 +1847,24 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>4774</t>
+          <t>6265</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>16167</t>
+          <t>1168</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>6809364</t>
+          <t>29211638</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>"Scorp IP"</t>
+          <t>"㊥ PhononDisperse"</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1874,24 +1874,24 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>4596</t>
+          <t>6083</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>16263</t>
+          <t>2814</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>8057001</t>
+          <t>1951758</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>㊥兵者诡道也</t>
+          <t>我來找你了</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1901,24 +1901,24 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>4592</t>
+          <t>5803</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>17832</t>
+          <t>5826</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>38995116</t>
+          <t>4493731</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>"Ramesh Pavai Nam"</t>
+          <t>Player-1527362</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1928,24 +1928,24 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>4524</t>
+          <t>5476</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>17907</t>
+          <t>6022</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>11582001</t>
+          <t>16206490</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>iMinatoX4</t>
+          <t>㊥Godcys</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1955,24 +1955,24 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>4522</t>
+          <t>5459</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>21239</t>
+          <t>8442</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>54778421</t>
+          <t>7852598</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Emma</t>
+          <t>seiji</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1982,24 +1982,24 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>4387</t>
+          <t>5243</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>27727</t>
+          <t>10145</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>38561634</t>
+          <t>47131129</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>"Ambrose PT"</t>
+          <t>NAM</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2009,24 +2009,24 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>4154</t>
+          <t>5121</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>31405</t>
+          <t>10245</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>56573048</t>
+          <t>22885399</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Xiaotian</t>
+          <t>余文琪</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2036,24 +2036,24 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>4027</t>
+          <t>5115</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>38357</t>
+          <t>13256</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>58203298</t>
+          <t>56133764</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>权旨qua</t>
+          <t>ustcarter</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2063,24 +2063,24 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>3688</t>
+          <t>4921</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>39129</t>
+          <t>15754</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>55860890</t>
+          <t>6809364</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>㊥Ethan</t>
+          <t>"Scorp IP"</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2090,24 +2090,24 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>3633</t>
+          <t>4782</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>42308</t>
+          <t>16043</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>56500325</t>
+          <t>8057001</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>haruharuyukizg9735</t>
+          <t>㊥兵者诡道也</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2117,24 +2117,24 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>3405</t>
+          <t>4766</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>44586</t>
+          <t>16335</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>22161051</t>
+          <t>38995116</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Botz5</t>
+          <t>"Ramesh Pavai Nam"</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2144,24 +2144,24 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>3252</t>
+          <t>4751</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>45831</t>
+          <t>20360</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>1550355</t>
+          <t>11582001</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>"皓茵 世界"</t>
+          <t>iMinatoX4</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2171,24 +2171,24 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>3168</t>
+          <t>4570</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>45965</t>
+          <t>21514</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>50837459</t>
+          <t>54778421</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>NINE日</t>
+          <t>Emma</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2198,24 +2198,24 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>3159</t>
+          <t>4520</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>48515</t>
+          <t>21563</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>32316256</t>
+          <t>54085771</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>"秋の風 .."</t>
+          <t>㊥Matthieu</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2225,24 +2225,24 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>3012</t>
+          <t>4518</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>49717</t>
+          <t>31817</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>31401481</t>
+          <t>38561634</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Player-31401481</t>
+          <t>"Ambrose PT"</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2252,24 +2252,24 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2957</t>
+          <t>4122</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>51148</t>
+          <t>33948</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>38893233</t>
+          <t>56573048</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>"快乐 二哈"</t>
+          <t>Xiaotian</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2279,24 +2279,24 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2896</t>
+          <t>4041</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>51638</t>
+          <t>37857</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>57813281</t>
+          <t>58203298</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>XAUEN</t>
+          <t>权旨qua</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2306,24 +2306,24 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2877</t>
+          <t>3883</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>55351</t>
+          <t>40827</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>14110169</t>
+          <t>55860890</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>"Pasiony CANQ"</t>
+          <t>㊥Ethan</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2333,24 +2333,24 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2742</t>
+          <t>3641</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>55723</t>
+          <t>42057</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>68132</t>
+          <t>56500325</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>"㊖TW9 百媚生"</t>
+          <t>haruharuyukizg9735</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2360,24 +2360,24 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2728</t>
+          <t>3544</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>59650</t>
+          <t>44135</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>24733875</t>
+          <t>32316256</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>龍少</t>
+          <t>"秋の風 .."</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2387,24 +2387,24 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2609</t>
+          <t>3389</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>44794</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>29565</t>
+          <t>50837459</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>"aK.j Zhong ㊥"</t>
+          <t>NINE日</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2414,24 +2414,24 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3342</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>46160</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>12639656</t>
+          <t>22161051</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>"wu huang"</t>
+          <t>Botz5</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2441,24 +2441,24 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3246</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>46863</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>47758619</t>
+          <t>38893233</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>"㊥ Moon ㊥"</t>
+          <t>"快乐 二哈"</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2468,24 +2468,24 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3197</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>47307</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>44789201</t>
+          <t>1550355</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>华夏四川广安</t>
+          <t>"皓茵 世界"</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2495,24 +2495,24 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3168</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>51204</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>32478707</t>
+          <t>31401481</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>"Bt So"</t>
+          <t>Player-31401481</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2522,267 +2522,267 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2951</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>15135</t>
+          <t>53212</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>31134300</t>
+          <t>57813281</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>McMaX</t>
+          <t>XAUEN</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>4645</t>
+          <t>2868</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>56071</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>44378757</t>
+          <t>14110169</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
+          <t>"Pasiony CANQ"</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2758</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>20022</t>
+          <t>55617</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>25479797</t>
+          <t>68132</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>"Mohamed Alnaqbi"</t>
+          <t>"㊖TW9 百媚生"</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>4438</t>
+          <t>2773</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>21172</t>
+          <t>60755</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>54085771</t>
+          <t>24733875</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>㊥Matthieu</t>
+          <t>龍少</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>4390</t>
+          <t>2609</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>23232</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>46289694</t>
+          <t>29565</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>㊥Vincent</t>
+          <t>"aK.j Zhong ㊥"</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>4309</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>24044</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>44708798</t>
+          <t>12639656</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>"㊥ mythgod"</t>
+          <t>"wu huang"</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>4280</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>24101</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>28855852</t>
+          <t>47758619</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>tiger</t>
+          <t>"㊥ Moon ㊥"</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>4278</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>24191</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>37069173</t>
+          <t>44789201</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>詹toniii</t>
+          <t>华夏四川广安</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>4275</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>55338</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>54588689</t>
+          <t>32478707</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>㊥墨衍枫迹☜</t>
+          <t>"Bt So"</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>2742</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>1924</t>
+          <t>14717</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>3946814</t>
+          <t>31134300</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>"小瑩 潘"</t>
+          <t>McMaX</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2792,24 +2792,24 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>5649</t>
+          <t>4837</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>3007</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>1951758</t>
+          <t>44378757</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>我來找你了</t>
+          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2819,24 +2819,24 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>5510</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>3018</t>
+          <t>17406</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>33656016</t>
+          <t>46289694</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>㊥☆梅海听雪☆</t>
+          <t>㊥Vincent</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2846,24 +2846,24 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>5508</t>
+          <t>4702</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>10235</t>
+          <t>21293</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>25163202</t>
+          <t>25479797</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>"sam yang"</t>
+          <t>"Mohamed Alnaqbi"</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2873,24 +2873,24 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>4924</t>
+          <t>4529</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>17986</t>
+          <t>22313</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>37861953</t>
+          <t>37069173</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>"Durex ๑• . •๑"</t>
+          <t>詹toniii</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2900,24 +2900,24 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>4519</t>
+          <t>4489</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>26344</t>
+          <t>23574</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>55634661</t>
+          <t>28855852</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Opalus</t>
+          <t>tiger</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2927,24 +2927,24 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>4201</t>
+          <t>4435</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>27195</t>
+          <t>23608</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>3649043</t>
+          <t>44708798</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>"慶頴 謝"</t>
+          <t>"㊥ mythgod"</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2954,24 +2954,24 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>4172</t>
+          <t>4433</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>27461</t>
+          <t>53084</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>47459684</t>
+          <t>54588689</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>㊥阿闹切克闹</t>
+          <t>㊥墨衍枫迹☜</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2981,24 +2981,24 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>4163</t>
+          <t>2873</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>28723</t>
+          <t>12432</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>56585361</t>
+          <t>25163202</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>"㊥ go策划我要ali"</t>
+          <t>"sam yang"</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3008,24 +3008,24 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>4117</t>
+          <t>4974</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>29306</t>
+          <t>14887</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>56732705</t>
+          <t>37861953</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>时间温柔皆遗憾</t>
+          <t>"Durex ๑• . •๑"</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3035,24 +3035,24 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>4099</t>
+          <t>4828</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>31238</t>
+          <t>25568</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>56379103</t>
+          <t>55634661</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Globalking</t>
+          <t>Opalus</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3062,24 +3062,24 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>4033</t>
+          <t>4352</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>31262</t>
+          <t>28353</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>58839983</t>
+          <t>47459684</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>每逢佳节胖六斤</t>
+          <t>㊥阿闹切克闹</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3089,24 +3089,24 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>4032</t>
+          <t>4250</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>32397</t>
+          <t>32164</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>58408326</t>
+          <t>56379103</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>"Killer Bee"</t>
+          <t>Globalking</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3116,24 +3116,24 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>3997</t>
+          <t>4109</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>33013</t>
+          <t>32237</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>58743790</t>
+          <t>56732705</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Ma</t>
+          <t>时间温柔皆遗憾</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3143,24 +3143,24 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>3992</t>
+          <t>4106</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>35020</t>
+          <t>32427</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>18082891</t>
+          <t>58743790</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Ma</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3170,24 +3170,24 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>3920</t>
+          <t>4099</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>35252</t>
+          <t>32404</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>47244896</t>
+          <t>58839983</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Dropthebeat</t>
+          <t>每逢佳节胖六斤</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3197,24 +3197,24 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>3904</t>
+          <t>4100</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>36863</t>
+          <t>32473</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>1304123</t>
+          <t>3649043</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Cccccccccccc</t>
+          <t>"慶頴 謝"</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3224,24 +3224,24 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>3793</t>
+          <t>4098</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>39751</t>
+          <t>32815</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>48738257</t>
+          <t>47244896</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>死亡洲际跳蛋</t>
+          <t>Dropthebeat</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3251,24 +3251,24 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>3583</t>
+          <t>4085</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>42556</t>
+          <t>32903</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>58641574</t>
+          <t>18082891</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Player-58641574鱼</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3278,24 +3278,24 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>3389</t>
+          <t>4082</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>42740</t>
+          <t>34483</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>56700848</t>
+          <t>56585361</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>工口漫画老师</t>
+          <t>"㊥ go策划我要ali"</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3305,24 +3305,24 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>3377</t>
+          <t>4019</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>43014</t>
+          <t>35458</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>11645391</t>
+          <t>58408326</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>"omar omar"</t>
+          <t>"Killer Bee"</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3332,24 +3332,24 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>3357</t>
+          <t>3994</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>44575</t>
+          <t>39547</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>52997727</t>
+          <t>1304123</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>larios</t>
+          <t>Cccccccccccc</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3359,14 +3359,14 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>3252</t>
+          <t>3747</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>44774</t>
+          <t>40004</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -3386,24 +3386,24 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>3239</t>
+          <t>3708</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>46797</t>
+          <t>40578</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>48634530</t>
+          <t>48738257</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>leezhenrui</t>
+          <t>死亡洲际跳蛋</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3413,24 +3413,24 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>3108</t>
+          <t>3663</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>49037</t>
+          <t>43987</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>43281368</t>
+          <t>56700848</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>xhs2763</t>
+          <t>工口漫画老师</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3440,24 +3440,24 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>2988</t>
+          <t>3400</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>55151</t>
+          <t>44001</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>58940575</t>
+          <t>58641574</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>图啊图z z</t>
+          <t>Player-58641574鱼</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3467,24 +3467,24 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>2748</t>
+          <t>3399</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>60836</t>
+          <t>44165</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>47430231</t>
+          <t>52997727</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Kentantrino</t>
+          <t>larios</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3494,24 +3494,24 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>2581</t>
+          <t>3386</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>61310</t>
+          <t>44621</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>5367482</t>
+          <t>11645391</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Ігор</t>
+          <t>"omar omar"</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3521,24 +3521,24 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>2570</t>
+          <t>3356</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>64914</t>
+          <t>47347</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>15436348</t>
+          <t>48634530</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Lucas</t>
+          <t>leezhenrui</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3548,24 +3548,24 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>2501</t>
+          <t>3164</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>65308</t>
+          <t>49857</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>3391765</t>
+          <t>43281368</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>马er</t>
+          <t>xhs2763</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3575,24 +3575,24 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>2499</t>
+          <t>3015</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>67508</t>
+          <t>53855</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>52792063</t>
+          <t>58940575</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>"Tramaine Dowlen"</t>
+          <t>图啊图z z</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3602,24 +3602,24 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>2451</t>
+          <t>2841</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>70073</t>
+          <t>60864</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>20372140</t>
+          <t>47430231</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>人山即是仙</t>
+          <t>Kentantrino</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3629,24 +3629,24 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>2333</t>
+          <t>2606</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>75852</t>
+          <t>62610</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>9718882</t>
+          <t>5367482</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>小霸王2021</t>
+          <t>Ігор</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3656,24 +3656,24 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>2186</t>
+          <t>2562</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>83450</t>
+          <t>64237</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>57219176</t>
+          <t>3391765</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>青莲道人</t>
+          <t>马er</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3683,24 +3683,24 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2530</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>96195</t>
+          <t>65664</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>54941706</t>
+          <t>52792063</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>AlexMenjivar20</t>
+          <t>"Tramaine Dowlen"</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3710,24 +3710,24 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>1601</t>
+          <t>2506</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>66718</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>38994054</t>
+          <t>15436348</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>chengnan</t>
+          <t>Lucas</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3737,24 +3737,24 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2495</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>70587</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>55810157</t>
+          <t>20372140</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Beard</t>
+          <t>人山即是仙</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3764,24 +3764,24 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2359</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>77410</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>57556179</t>
+          <t>9718882</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>特战新生代英雄</t>
+          <t>小霸王2021</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -3791,24 +3791,24 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2182</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>85284</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>1222440</t>
+          <t>57219176</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>"Sneaky Ninja Panda"</t>
+          <t>青莲道人</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -3818,24 +3818,24 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2015</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>95177</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>58340439</t>
+          <t>54941706</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>70qilin</t>
+          <t>AlexMenjivar20</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -3845,7 +3845,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1654</t>
         </is>
       </c>
     </row>
@@ -3857,12 +3857,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>58615925</t>
+          <t>38994054</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>齐天的大圣</t>
+          <t>chengnan</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -3879,54 +3879,54 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>46848</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>41849539</t>
+          <t>55810157</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>三号馆馆主</t>
+          <t>Beard</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>3106</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>43999</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>56241637</t>
+          <t>57556179</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Player-14day</t>
+          <t>特战新生代英雄</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>3289</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -3938,17 +3938,17 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>47622456</t>
+          <t>1222440</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>伊恩</t>
+          <t>"Sneaky Ninja Panda"</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -3960,27 +3960,27 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>46539</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>55210350</t>
+          <t>58340439</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>一个过客而已</t>
+          <t>70qilin</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>3123</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -3992,17 +3992,17 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>49553719</t>
+          <t>58615925</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>"Oreo Captain Sir"</t>
+          <t>齐天的大圣</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -4014,17 +4014,17 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>48182</t>
+          <t>48091</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>12434456</t>
+          <t>41849539</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Player-12434456</t>
+          <t>三号馆馆主</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -4034,24 +4034,24 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>3029</t>
+          <t>3114</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>80800</t>
+          <t>42018</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>58671339</t>
+          <t>56241637</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>"quang pro"</t>
+          <t>Player-14day</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -4061,24 +4061,24 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>2070</t>
+          <t>3547</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>106188</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>41231396</t>
+          <t>47622456</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>ollsthebro</t>
+          <t>伊恩</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -4088,24 +4088,24 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>1499</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>48088</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>58572199</t>
+          <t>55210350</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>你干嘛～哎呦～</t>
+          <t>一个过客而已</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -4115,7 +4115,7 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3114</t>
         </is>
       </c>
     </row>
@@ -4127,12 +4127,12 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>58766144</t>
+          <t>49553719</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>EquablePrecedence38</t>
+          <t>"Oreo Captain Sir"</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -4149,17 +4149,17 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>46397</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>29355299</t>
+          <t>12434456</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Player-29355299</t>
+          <t>Player-12434456</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -4169,24 +4169,24 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3229</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>78903</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>58910668</t>
+          <t>58671339</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>BrittleAuthor33</t>
+          <t>"quang pro"</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -4196,24 +4196,24 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2144</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>108119</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>55745105</t>
+          <t>41231396</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>eldeniz</t>
+          <t>ollsthebro</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -4223,7 +4223,7 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1499</t>
         </is>
       </c>
     </row>
@@ -4235,12 +4235,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>58174442</t>
+          <t>58572199</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Player-58174442</t>
+          <t>你干嘛～哎呦～</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -4262,17 +4262,17 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>9913517</t>
+          <t>58766144</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>"Kenny Chan"</t>
+          <t>EquablePrecedence38</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Chinese</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -4284,54 +4284,54 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>49813</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>41848598</t>
+          <t>29355299</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>国家一级保护沙雕</t>
+          <t>Player-29355299</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Chinese</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>2952</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>61969</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>6010122</t>
+          <t>58910668</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>"Edward Peng"</t>
+          <t>BrittleAuthor33</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Chinese</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>2556</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4343,17 +4343,17 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>12648101</t>
+          <t>55745105</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>"player 198827"</t>
+          <t>eldeniz</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Chinese</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -4370,17 +4370,17 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>9195340</t>
+          <t>58174442</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Namllllllik</t>
+          <t>Player-58174442</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Chinese</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -4397,12 +4397,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>15755724</t>
+          <t>9913517</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>"Last Good"</t>
+          <t>"Kenny Chan"</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -4419,17 +4419,17 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>48786</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>8850180</t>
+          <t>41848598</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>30624300</t>
+          <t>国家一级保护沙雕</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -4439,24 +4439,24 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3074</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>60926</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>28624723</t>
+          <t>6010122</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>"Woody Shade"</t>
+          <t>"Edward Peng"</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -4466,34 +4466,169 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2604</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>50844</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
+          <t>12648101</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>"player 198827"</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>999999</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>9195340</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Namllllllik</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>999999</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>15755724</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>"Last Good"</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>999999</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>8850180</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>30624300</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>999999</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>28624723</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>"Woody Shade"</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>51870</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
           <t>10636651</t>
         </is>
       </c>
-      <c r="C153" t="inlineStr">
+      <c r="C158" t="inlineStr">
         <is>
           <t>"Ismail Aflou"</t>
         </is>
       </c>
-      <c r="D153" t="inlineStr">
+      <c r="D158" t="inlineStr">
         <is>
           <t>Chinese</t>
         </is>
       </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>2908</t>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>2923</t>
         </is>
       </c>
     </row>

--- a/Season_Trophies/86.xlsx
+++ b/Season_Trophies/86.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E158"/>
+  <dimension ref="A1:E162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -396,7 +396,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>48394</t>
+          <t>49271</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -416,24 +416,24 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3097</t>
+          <t>3119</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>491</t>
+          <t>590</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>26424998</t>
+          <t>32613475</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>"Smok3y 1nOnly"</t>
+          <t>"李 无 善 德"</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -443,24 +443,24 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>6272</t>
+          <t>6539</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>619</t>
+          <t>1626</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>32613475</t>
+          <t>26424998</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>"李 无 善 德"</t>
+          <t>"Smok3y 1nOnly"</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -470,14 +470,14 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>6225</t>
+          <t>6274</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3742</t>
+          <t>2128</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -497,14 +497,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5679</t>
+          <t>6186</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>7427</t>
+          <t>7691</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -524,14 +524,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>5327</t>
+          <t>5524</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>15360</t>
+          <t>13777</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -551,14 +551,14 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4802</t>
+          <t>5058</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>756</t>
+          <t>792</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -578,24 +578,24 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>6184</t>
+          <t>6473</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>8049</t>
+          <t>9859</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>43800641</t>
+          <t>21665473</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>㊥蛋蛋大</t>
+          <t>"Dog Gamedesiger"</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -605,24 +605,24 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>5275</t>
+          <t>5338</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>15338</t>
+          <t>10523</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>21665473</t>
+          <t>43800641</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>"Dog Gamedesiger"</t>
+          <t>㊥蛋蛋大</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -632,24 +632,24 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4803</t>
+          <t>5289</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>470</t>
+          <t>69</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>20199374</t>
+          <t>138176</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>RuanFan</t>
+          <t>Ze5kyphyr</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -659,24 +659,24 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>6280</t>
+          <t>6773</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>890</t>
+          <t>436</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>3946814</t>
+          <t>20199374</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>"小瑩 潘"</t>
+          <t>RuanFan</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -686,14 +686,14 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>6149</t>
+          <t>6598</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1019</t>
+          <t>947</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -713,24 +713,24 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>6116</t>
+          <t>6429</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2205</t>
+          <t>1289</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>46422609</t>
+          <t>3946814</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>㊥林天大大神</t>
+          <t>"小瑩 潘"</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -740,24 +740,24 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>5891</t>
+          <t>6344</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2747</t>
+          <t>2272</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>22497</t>
+          <t>46422609</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>xixihahagggᶻᵍˣ</t>
+          <t>㊥林天大大神</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -767,14 +767,14 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>5812</t>
+          <t>6156</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2977</t>
+          <t>2389</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -794,24 +794,24 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>5781</t>
+          <t>6135</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>3168</t>
+          <t>2413</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1820342</t>
+          <t>22497</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>摸鱼爱好者三战</t>
+          <t>xixihahagggᶻᵍˣ</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -821,24 +821,24 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>5752</t>
+          <t>6131</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>3856</t>
+          <t>2742</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>21345373</t>
+          <t>1820342</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>林北不講武德</t>
+          <t>摸鱼爱好者三战</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -848,24 +848,24 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>5667</t>
+          <t>6079</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>3906</t>
+          <t>3385</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>11783968</t>
+          <t>21345373</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>F---119</t>
+          <t>林北不講武德</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -875,24 +875,24 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>5662</t>
+          <t>5989</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>4280</t>
+          <t>3759</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>33656016</t>
+          <t>11783968</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>㊥☆梅海听雪☆</t>
+          <t>F---119</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -902,24 +902,24 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>5622</t>
+          <t>5937</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>4611</t>
+          <t>4248</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>21735478</t>
+          <t>33656016</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>耀翔fly</t>
+          <t>㊥☆梅海听雪☆</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -929,24 +929,24 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>5590</t>
+          <t>5877</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>4850</t>
+          <t>4714</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>30411791</t>
+          <t>38711610</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>"㊥Ⓩ GOÐAFRÆÐI ᶻᵍˣ"</t>
+          <t>心灵有为</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -956,24 +956,24 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>5569</t>
+          <t>5824</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>5171</t>
+          <t>4739</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>6510348</t>
+          <t>21735478</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Bonpoisson</t>
+          <t>耀翔fly</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -983,24 +983,24 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>5537</t>
+          <t>5821</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>5695</t>
+          <t>4769</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>3477306</t>
+          <t>30411791</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>"MeGa Tsai"</t>
+          <t>"㊥Ⓩ GOÐAFRÆÐI ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1010,14 +1010,14 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>5489</t>
+          <t>5818</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>6778</t>
+          <t>5208</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1037,24 +1037,24 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>5389</t>
+          <t>5771</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>6909</t>
+          <t>5271</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>29729468</t>
+          <t>9541747</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>"风神舞动 WDᶻᵍˣ"</t>
+          <t>豹子头林冲</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1064,24 +1064,24 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>5378</t>
+          <t>5764</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>7018</t>
+          <t>5544</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>9541747</t>
+          <t>7025661</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>豹子头林冲</t>
+          <t>"F ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1091,24 +1091,24 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>5366</t>
+          <t>5736</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>7964</t>
+          <t>5767</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>44955827</t>
+          <t>3477306</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>丶小阿狸丿</t>
+          <t>"MeGa Tsai"</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1118,24 +1118,24 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>5281</t>
+          <t>5714</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>8073</t>
+          <t>5941</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>38711610</t>
+          <t>6510348</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>心灵有为</t>
+          <t>Bonpoisson</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1145,24 +1145,24 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>5273</t>
+          <t>5696</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>9907</t>
+          <t>6519</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>4229136</t>
+          <t>29729468</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>"totoro wu"</t>
+          <t>"风神舞动 WDᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1172,24 +1172,24 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>5138</t>
+          <t>5643</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>10275</t>
+          <t>7823</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>26588375</t>
+          <t>44955827</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>kusipao</t>
+          <t>丶小阿狸丿</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1199,24 +1199,24 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>5112</t>
+          <t>5511</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>14125</t>
+          <t>7827</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>29861826</t>
+          <t>26588375</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>★★★Eric★★★</t>
+          <t>何苦僧ai</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1226,24 +1226,24 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>4869</t>
+          <t>5511</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>14341</t>
+          <t>9571</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>47146736</t>
+          <t>4229136</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>"HK 品瑜"</t>
+          <t>"totoro wu"</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1253,24 +1253,24 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>4856</t>
+          <t>5360</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>14909</t>
+          <t>11654</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>14424176</t>
+          <t>12333251</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>天才少年老纪</t>
+          <t>"㊌ Mingxuan"</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1280,24 +1280,24 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>4827</t>
+          <t>5207</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>16306</t>
+          <t>11763</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>45967307</t>
+          <t>26280580</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Ricky</t>
+          <t>꧁S.TIGRESS꧂ᶻᵍˣ</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1307,24 +1307,24 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>4752</t>
+          <t>5200</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>17288</t>
+          <t>12803</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>12333251</t>
+          <t>14424176</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>"㊌ Mingxuan"</t>
+          <t>天才少年老纪</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1334,24 +1334,24 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>4708</t>
+          <t>5126</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>18010</t>
+          <t>13271</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>26280580</t>
+          <t>47146736</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>꧁S.TIGRESS꧂ᶻᵍˣ</t>
+          <t>"HK 品瑜"</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1361,24 +1361,24 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>4676</t>
+          <t>5094</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>20892</t>
+          <t>14853</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>55317038</t>
+          <t>45967307</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>necman12345</t>
+          <t>Ricky</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1388,24 +1388,24 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>4545</t>
+          <t>4992</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>23788</t>
+          <t>15539</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>20737010</t>
+          <t>29861826</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>混着玩...</t>
+          <t>★★★Eric★★★</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1415,24 +1415,24 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>4426</t>
+          <t>4955</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>44889</t>
+          <t>15939</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>7587898</t>
+          <t>20737010</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>藍精靈ᶻᵍˣ</t>
+          <t>混着玩...</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1442,24 +1442,24 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>3336</t>
+          <t>4932</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>65093</t>
+          <t>20759</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>47928278</t>
+          <t>55317038</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>"落日幻影 哈哈哈"</t>
+          <t>necman12345</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1469,24 +1469,24 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2516</t>
+          <t>4687</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>24891</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>23687250</t>
+          <t>32929656</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>"jetlijp ᶻᵍˣ"</t>
+          <t>"EIH Wilson Chu"</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1496,132 +1496,132 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4508</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2481</t>
+          <t>28784</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>27484940</t>
+          <t>28387448</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>66666zgx</t>
+          <t>☜⊙‖⊙☞</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>5850</t>
+          <t>4344</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>17267</t>
+          <t>46209</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>38809086</t>
+          <t>7587898</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Kouenᶻᵍˣ</t>
+          <t>藍精靈ᶻᵍˣ</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>4709</t>
+          <t>3336</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>6104</t>
+          <t>64232</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>13738844</t>
+          <t>47928278</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>"Chen Hao"</t>
+          <t>"落日幻影 哈哈哈"</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>5452</t>
+          <t>2548</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>9185</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>49710892</t>
+          <t>23687250</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>MMMMMMM</t>
+          <t>"jetlijp ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>5191</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>9426</t>
+          <t>3175</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>42434117</t>
+          <t>27484940</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>㊥有双飞鸟</t>
+          <t>66666zgx</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1631,24 +1631,24 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>5174</t>
+          <t>6017</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>11275</t>
+          <t>18173</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>53060417</t>
+          <t>38809086</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>㊥老纳信耶稣</t>
+          <t>Kouenᶻᵍˣ</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1658,24 +1658,24 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>5043</t>
+          <t>4813</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>13702</t>
+          <t>6353</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>4756174</t>
+          <t>13738844</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>純希です</t>
+          <t>"Chen Hao"</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1685,24 +1685,24 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>4894</t>
+          <t>5658</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>14205</t>
+          <t>9526</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>53520939</t>
+          <t>42434117</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>㊥虎哥tiger</t>
+          <t>㊥有双飞鸟</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1712,24 +1712,24 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>4864</t>
+          <t>5363</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>15254</t>
+          <t>9807</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>31495601</t>
+          <t>49710892</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>陈晓军</t>
+          <t>MMMMMMM</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1739,24 +1739,24 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>4808</t>
+          <t>5341</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>18525</t>
+          <t>11136</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>54698813</t>
+          <t>53060417</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>閃亮唐老鴨</t>
+          <t>㊥老纳信耶稣</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1766,24 +1766,24 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>4649</t>
+          <t>5243</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>20694</t>
+          <t>14438</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>55769051</t>
+          <t>53520939</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>㊥叮叮当.</t>
+          <t>㊥虎哥tiger</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1793,24 +1793,24 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>4554</t>
+          <t>5015</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>16443</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>43812707</t>
+          <t>31495601</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>bbtt</t>
+          <t>陈晓军</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1820,24 +1820,24 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4903</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>514</t>
+          <t>17662</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>8741713</t>
+          <t>54698813</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t xml:space="preserve">㊥大咖玩家ky </t>
+          <t>閃亮唐老鴨</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1847,24 +1847,24 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>6265</t>
+          <t>4837</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>1168</t>
+          <t>19023</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>29211638</t>
+          <t>4756174</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>"㊥ PhononDisperse"</t>
+          <t>純希です</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1874,24 +1874,24 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>6083</t>
+          <t>4770</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2814</t>
+          <t>21136</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>1951758</t>
+          <t>55769051</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>我來找你了</t>
+          <t>㊥叮叮当.</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1901,24 +1901,24 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>5803</t>
+          <t>4670</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>5826</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>4493731</t>
+          <t>43812707</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Player-1527362</t>
+          <t>bbtt</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1928,24 +1928,24 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>5476</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>6022</t>
+          <t>872</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>16206490</t>
+          <t>8741713</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>㊥Godcys</t>
+          <t xml:space="preserve">㊥大咖玩家ky </t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1955,24 +1955,24 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>5459</t>
+          <t>6448</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>8442</t>
+          <t>1445</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>7852598</t>
+          <t>29211638</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>seiji</t>
+          <t>"㊥ PhononDisperse"</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1982,24 +1982,24 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>5243</t>
+          <t>6313</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>10145</t>
+          <t>2112</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>47131129</t>
+          <t>1951758</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>NAM</t>
+          <t>我來找你了</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2009,24 +2009,24 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>5121</t>
+          <t>6189</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>10245</t>
+          <t>5078</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>22885399</t>
+          <t>16206490</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>余文琪</t>
+          <t>㊥Godcys</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2036,24 +2036,24 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>5115</t>
+          <t>5784</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>13256</t>
+          <t>8269</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>56133764</t>
+          <t>4493731</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>ustcarter</t>
+          <t>Player-1527362</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2063,24 +2063,24 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>4921</t>
+          <t>5470</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>15754</t>
+          <t>8429</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>6809364</t>
+          <t>7852598</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>"Scorp IP"</t>
+          <t>seiji</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2090,24 +2090,24 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>4782</t>
+          <t>5455</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>16043</t>
+          <t>9905</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>8057001</t>
+          <t>47131129</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>㊥兵者诡道也</t>
+          <t>NAM</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2117,24 +2117,24 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>4766</t>
+          <t>5334</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>16335</t>
+          <t>11024</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>38995116</t>
+          <t>22885399</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>"Ramesh Pavai Nam"</t>
+          <t>余文琪</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2144,24 +2144,24 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>4751</t>
+          <t>5251</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>20360</t>
+          <t>15751</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>11582001</t>
+          <t>6809364</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>iMinatoX4</t>
+          <t>"Scorp IP"</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2171,24 +2171,24 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>4570</t>
+          <t>4941</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>21514</t>
+          <t>16161</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>54778421</t>
+          <t>8057001</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Emma</t>
+          <t>㊥兵者诡道也</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2198,24 +2198,24 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>4520</t>
+          <t>4918</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>21563</t>
+          <t>16355</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>54085771</t>
+          <t>56133764</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>㊥Matthieu</t>
+          <t>ustcarter</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2225,24 +2225,24 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>4518</t>
+          <t>4907</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>31817</t>
+          <t>17360</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>38561634</t>
+          <t>38995116</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>"Ambrose PT"</t>
+          <t>"Ramesh Pavai Nam"</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2252,24 +2252,24 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>4122</t>
+          <t>4853</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>33948</t>
+          <t>20333</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>56573048</t>
+          <t>54778421</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Xiaotian</t>
+          <t>Emma</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2279,24 +2279,24 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>4041</t>
+          <t>4707</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>37857</t>
+          <t>21112</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>58203298</t>
+          <t>54085771</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>权旨qua</t>
+          <t>㊥Matthieu</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2306,24 +2306,24 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>3883</t>
+          <t>4671</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>40827</t>
+          <t>22137</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>55860890</t>
+          <t>11582001</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>㊥Ethan</t>
+          <t>iMinatoX4</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2333,24 +2333,24 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>3641</t>
+          <t>4624</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>42057</t>
+          <t>29286</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>56500325</t>
+          <t>38561634</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>haruharuyukizg9735</t>
+          <t>"Ambrose PT"</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2360,24 +2360,24 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>3544</t>
+          <t>4324</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>44135</t>
+          <t>33816</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>32316256</t>
+          <t>56573048</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>"秋の風 .."</t>
+          <t>Xiaotian</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2387,24 +2387,24 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>3389</t>
+          <t>4139</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>44794</t>
+          <t>35776</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>50837459</t>
+          <t>55860890</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>NINE日</t>
+          <t>㊥Ethan</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2414,24 +2414,24 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>3342</t>
+          <t>4064</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>46160</t>
+          <t>38267</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>22161051</t>
+          <t>58203298</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Botz5</t>
+          <t>权旨qua</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2441,24 +2441,24 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>3246</t>
+          <t>3986</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>46863</t>
+          <t>42157</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>38893233</t>
+          <t>56500325</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>"快乐 二哈"</t>
+          <t>haruharuyukizg9735</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2468,24 +2468,24 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>3197</t>
+          <t>3654</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>47307</t>
+          <t>44904</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>1550355</t>
+          <t>32316256</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>"皓茵 世界"</t>
+          <t>"秋の風 .."</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2495,24 +2495,24 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>3168</t>
+          <t>3436</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>51204</t>
+          <t>46302</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>31401481</t>
+          <t>50837459</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Player-31401481</t>
+          <t>NINE日</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2522,24 +2522,24 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2951</t>
+          <t>3329</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>53212</t>
+          <t>46714</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>57813281</t>
+          <t>31401481</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>XAUEN</t>
+          <t>Player-31401481</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2549,24 +2549,24 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2868</t>
+          <t>3298</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>56071</t>
+          <t>47498</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>14110169</t>
+          <t>22161051</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>"Pasiony CANQ"</t>
+          <t>Botz5</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2576,24 +2576,24 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2758</t>
+          <t>3240</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>55617</t>
+          <t>47708</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>68132</t>
+          <t>38893233</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>"㊖TW9 百媚生"</t>
+          <t>"快乐 二哈"</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2603,24 +2603,24 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2773</t>
+          <t>3225</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>60755</t>
+          <t>48277</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>24733875</t>
+          <t>1550355</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>龍少</t>
+          <t>"皓茵 世界"</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2630,24 +2630,24 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2609</t>
+          <t>3184</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>54515</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>29565</t>
+          <t>57813281</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>"aK.j Zhong ㊥"</t>
+          <t>XAUEN</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2657,24 +2657,24 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2862</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>55558</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>12639656</t>
+          <t>68132</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>"wu huang"</t>
+          <t>"㊖TW9 百媚生"</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2684,24 +2684,24 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2819</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>57135</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>47758619</t>
+          <t>14110169</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>"㊥ Moon ㊥"</t>
+          <t>"Pasiony CANQ"</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2711,24 +2711,24 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2758</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>60559</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>44789201</t>
+          <t>24733875</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>华夏四川广安</t>
+          <t>龍少</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2738,7 +2738,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2641</t>
         </is>
       </c>
     </row>
@@ -2750,12 +2750,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>32478707</t>
+          <t>29565</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>"Bt So"</t>
+          <t>"aK.j Zhong ㊥"</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2772,27 +2772,27 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>14717</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>31134300</t>
+          <t>12639656</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>McMaX</t>
+          <t>"wu huang"</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>4837</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2804,17 +2804,17 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>44378757</t>
+          <t>47758619</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
+          <t>"㊥ Moon ㊥"</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -2826,71 +2826,71 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>17406</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>46289694</t>
+          <t>44789201</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>㊥Vincent</t>
+          <t>华夏四川广安</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>4702</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>21293</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>25479797</t>
+          <t>32478707</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>"Mohamed Alnaqbi"</t>
+          <t>"Bt So"</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>4529</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>22313</t>
+          <t>15149</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>37069173</t>
+          <t>31134300</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>詹toniii</t>
+          <t>McMaX</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2900,24 +2900,24 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>4489</t>
+          <t>4976</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>23574</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>28855852</t>
+          <t>44378757</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>tiger</t>
+          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2927,24 +2927,24 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>4435</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>23608</t>
+          <t>19500</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>44708798</t>
+          <t>46289694</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>"㊥ mythgod"</t>
+          <t>㊥Vincent</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2954,24 +2954,24 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>4433</t>
+          <t>4748</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>53084</t>
+          <t>20865</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>54588689</t>
+          <t>37069173</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>㊥墨衍枫迹☜</t>
+          <t>詹toniii</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2981,24 +2981,24 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>2873</t>
+          <t>4682</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>12432</t>
+          <t>22576</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>25163202</t>
+          <t>28855852</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>"sam yang"</t>
+          <t>tiger</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3008,24 +3008,24 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>4974</t>
+          <t>4604</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>14887</t>
+          <t>22637</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>37861953</t>
+          <t>25479797</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>"Durex ๑• . •๑"</t>
+          <t>"Mohamed Alnaqbi"</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3035,24 +3035,24 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>4828</t>
+          <t>4601</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>25568</t>
+          <t>25498</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>55634661</t>
+          <t>44708798</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Opalus</t>
+          <t>"㊥ mythgod"</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3062,24 +3062,24 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>4352</t>
+          <t>4482</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>28353</t>
+          <t>52418</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>47459684</t>
+          <t>54588689</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>㊥阿闹切克闹</t>
+          <t>㊥墨衍枫迹☜</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3089,24 +3089,24 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>4250</t>
+          <t>2949</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>32164</t>
+          <t>11414</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>56379103</t>
+          <t>37861953</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Globalking</t>
+          <t>"Durex ๑• . •๑"</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3116,24 +3116,24 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>4109</t>
+          <t>5223</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>32237</t>
+          <t>12714</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>56732705</t>
+          <t>25163202</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>时间温柔皆遗憾</t>
+          <t>"sam yang"</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3143,24 +3143,24 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>4106</t>
+          <t>5132</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>32427</t>
+          <t>25456</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>58743790</t>
+          <t>55634661</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Ma</t>
+          <t>Opalus</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3170,24 +3170,24 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>4099</t>
+          <t>4484</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>32404</t>
+          <t>29260</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>58839983</t>
+          <t>47459684</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>每逢佳节胖六斤</t>
+          <t>㊥阿闹切克闹</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3197,14 +3197,14 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>4100</t>
+          <t>4325</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>32473</t>
+          <t>31183</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -3214,7 +3214,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>"慶頴 謝"</t>
+          <t>Dj6106</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3224,24 +3224,24 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>4098</t>
+          <t>4247</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>32815</t>
+          <t>31247</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>47244896</t>
+          <t>56379103</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Dropthebeat</t>
+          <t>Globalking</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3251,24 +3251,24 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>4085</t>
+          <t>4244</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>32903</t>
+          <t>31049</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>18082891</t>
+          <t>58743790</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Ma</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3278,14 +3278,14 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>4082</t>
+          <t>4253</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>34483</t>
+          <t>31881</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -3305,24 +3305,24 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>4019</t>
+          <t>4218</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>35458</t>
+          <t>33581</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>58408326</t>
+          <t>56732705</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>"Killer Bee"</t>
+          <t>时间温柔皆遗憾</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3332,24 +3332,24 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>3994</t>
+          <t>4149</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>39547</t>
+          <t>33833</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>1304123</t>
+          <t>18082891</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Cccccccccccc</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3359,24 +3359,24 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>3747</t>
+          <t>4139</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>40004</t>
+          <t>33725</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>55499394</t>
+          <t>58839983</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Player-55499394</t>
+          <t>每逢佳节胖六斤</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -3386,24 +3386,24 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>3708</t>
+          <t>4143</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>40578</t>
+          <t>36392</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>48738257</t>
+          <t>47244896</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>死亡洲际跳蛋</t>
+          <t>Dropthebeat</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3413,24 +3413,24 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>3663</t>
+          <t>4040</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>43987</t>
+          <t>36938</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>56700848</t>
+          <t>58408326</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>工口漫画老师</t>
+          <t>"Killer Bee"</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3440,24 +3440,24 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>3400</t>
+          <t>4016</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>44001</t>
+          <t>37761</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>58641574</t>
+          <t>1304123</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Player-58641574鱼</t>
+          <t>Cccccccccccc</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3467,24 +3467,24 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>3399</t>
+          <t>3994</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>44165</t>
+          <t>38724</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>52997727</t>
+          <t>55499394</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>larios</t>
+          <t>Player-55499394</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3494,24 +3494,24 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>3386</t>
+          <t>3964</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>44621</t>
+          <t>40806</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>11645391</t>
+          <t>48738257</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>"omar omar"</t>
+          <t>死亡洲际跳蛋</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3521,24 +3521,24 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>3356</t>
+          <t>3774</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>47347</t>
+          <t>43048</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>48634530</t>
+          <t>52997727</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>leezhenrui</t>
+          <t>larios</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3548,24 +3548,24 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>3164</t>
+          <t>3582</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>49857</t>
+          <t>44137</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>43281368</t>
+          <t>58641574</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>xhs2763</t>
+          <t>Player-58641574鱼</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3575,24 +3575,24 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>3015</t>
+          <t>3495</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>53855</t>
+          <t>45058</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>58940575</t>
+          <t>56700848</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>图啊图z z</t>
+          <t>工口漫画老师</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3602,24 +3602,24 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>2841</t>
+          <t>3423</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>60864</t>
+          <t>45958</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>47430231</t>
+          <t>11645391</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Kentantrino</t>
+          <t>"omar omar"</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3629,24 +3629,24 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>2606</t>
+          <t>3356</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>62610</t>
+          <t>46882</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>5367482</t>
+          <t>48634530</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Ігор</t>
+          <t>leezhenrui</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3656,24 +3656,24 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>2562</t>
+          <t>3285</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>64237</t>
+          <t>50514</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>3391765</t>
+          <t>43281368</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>马er</t>
+          <t>xhs2763</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3683,24 +3683,24 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>2530</t>
+          <t>3044</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>65664</t>
+          <t>51309</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>52792063</t>
+          <t>58940575</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>"Tramaine Dowlen"</t>
+          <t>图啊图z z</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3710,24 +3710,24 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>2506</t>
+          <t>3002</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>66718</t>
+          <t>60867</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>15436348</t>
+          <t>52792063</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Lucas</t>
+          <t>"Tramaine Dowlen"</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3737,24 +3737,24 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>2495</t>
+          <t>2632</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>70587</t>
+          <t>60938</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>20372140</t>
+          <t>47430231</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>人山即是仙</t>
+          <t>Kentantrino</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3764,24 +3764,24 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>2359</t>
+          <t>2630</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>77410</t>
+          <t>61149</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>9718882</t>
+          <t>5367482</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>小霸王2021</t>
+          <t>Ігор</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -3791,24 +3791,24 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>2182</t>
+          <t>2624</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>85284</t>
+          <t>62826</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>57219176</t>
+          <t>3391765</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>青莲道人</t>
+          <t>马er</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -3818,24 +3818,24 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2579</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>95177</t>
+          <t>67719</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>54941706</t>
+          <t>15436348</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>AlexMenjivar20</t>
+          <t>Lucas</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -3845,24 +3845,24 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>1654</t>
+          <t>2492</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>71594</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>38994054</t>
+          <t>20372140</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>chengnan</t>
+          <t>人山即是仙</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -3872,24 +3872,24 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2357</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>78159</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>55810157</t>
+          <t>9718882</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Beard</t>
+          <t>小霸王2021</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -3899,24 +3899,24 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2193</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>86621</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>57556179</t>
+          <t>57219176</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>特战新生代英雄</t>
+          <t>青莲道人</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -3926,24 +3926,24 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2011</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>95427</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>1222440</t>
+          <t>54941706</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>"Sneaky Ninja Panda"</t>
+          <t>AlexMenjivar20</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -3953,7 +3953,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1686</t>
         </is>
       </c>
     </row>
@@ -3965,12 +3965,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>58340439</t>
+          <t>38994054</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>70qilin</t>
+          <t>chengnan</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -3992,12 +3992,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>58615925</t>
+          <t>55810157</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>齐天的大圣</t>
+          <t>Beard</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -4014,54 +4014,54 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>48091</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>41849539</t>
+          <t>57556179</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>三号馆馆主</t>
+          <t>特战新生代英雄</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>3114</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>42018</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>56241637</t>
+          <t>1222440</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Player-14day</t>
+          <t>"Sneaky Ninja Panda"</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>3547</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4073,17 +4073,17 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>47622456</t>
+          <t>58340439</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>伊恩</t>
+          <t>70qilin</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -4095,44 +4095,44 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>48088</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>55210350</t>
+          <t>58615925</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>一个过客而已</t>
+          <t>齐天的大圣</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>3114</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>48969</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>49553719</t>
+          <t>41849539</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>"Oreo Captain Sir"</t>
+          <t>三号馆馆主</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -4142,24 +4142,24 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3139</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>46397</t>
+          <t>43831</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>12434456</t>
+          <t>56241637</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Player-12434456</t>
+          <t>Player-14day</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -4169,24 +4169,24 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>3229</t>
+          <t>3518</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>78903</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>58671339</t>
+          <t>47622456</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>"quang pro"</t>
+          <t>伊恩</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -4196,24 +4196,24 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>2144</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>108119</t>
+          <t>47228</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>41231396</t>
+          <t>55210350</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>ollsthebro</t>
+          <t>一个过客而已</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -4223,7 +4223,7 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>1499</t>
+          <t>3260</t>
         </is>
       </c>
     </row>
@@ -4235,12 +4235,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>58572199</t>
+          <t>49553719</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>你干嘛～哎呦～</t>
+          <t>"Oreo Captain Sir"</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -4257,17 +4257,17 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>43814</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>58766144</t>
+          <t>12434456</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>EquablePrecedence38</t>
+          <t>Player-12434456</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -4277,24 +4277,24 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3520</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>80011</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>29355299</t>
+          <t>58671339</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Player-29355299</t>
+          <t>"quang pro"</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -4304,24 +4304,24 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2148</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>110304</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>58910668</t>
+          <t>41231396</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>BrittleAuthor33</t>
+          <t>ollsthebro</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -4331,7 +4331,7 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1498</t>
         </is>
       </c>
     </row>
@@ -4343,12 +4343,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>55745105</t>
+          <t>58572199</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>eldeniz</t>
+          <t>你干嘛～哎呦～</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -4370,12 +4370,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>58174442</t>
+          <t>58766144</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Player-58174442</t>
+          <t>EquablePrecedence38</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -4397,17 +4397,17 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>9913517</t>
+          <t>29355299</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>"Kenny Chan"</t>
+          <t>Player-29355299</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Chinese</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -4419,54 +4419,54 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>48786</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>41848598</t>
+          <t>58910668</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>国家一级保护沙雕</t>
+          <t>BrittleAuthor33</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Chinese</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>3074</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>60926</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>6010122</t>
+          <t>55745105</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>"Edward Peng"</t>
+          <t>eldeniz</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Chinese</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>2604</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4478,17 +4478,17 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>12648101</t>
+          <t>58174442</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>"player 198827"</t>
+          <t>Player-58174442</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Chinese</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -4505,12 +4505,12 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>9195340</t>
+          <t>9913517</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Namllllllik</t>
+          <t>"Kenny Chan"</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -4527,17 +4527,17 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>49517</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>15755724</t>
+          <t>41848598</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>"Last Good"</t>
+          <t>国家一级保护沙雕</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -4547,24 +4547,24 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3103</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>61818</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>8850180</t>
+          <t>6010122</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>30624300</t>
+          <t>"Edward Peng"</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -4574,7 +4574,7 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2604</t>
         </is>
       </c>
     </row>
@@ -4586,12 +4586,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>28624723</t>
+          <t>12648101</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>"Woody Shade"</t>
+          <t>"player 198827"</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -4608,27 +4608,135 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>51870</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
+          <t>9195340</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Namllllllik</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>999999</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>15755724</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>"Last Good"</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>999999</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>8850180</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>30624300</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>999999</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>28624723</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>"Woody Shade"</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>53132</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
           <t>10636651</t>
         </is>
       </c>
-      <c r="C158" t="inlineStr">
+      <c r="C162" t="inlineStr">
         <is>
           <t>"Ismail Aflou"</t>
         </is>
       </c>
-      <c r="D158" t="inlineStr">
+      <c r="D162" t="inlineStr">
         <is>
           <t>Chinese</t>
         </is>
       </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>2923</t>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>2919</t>
         </is>
       </c>
     </row>

--- a/Season_Trophies/86.xlsx
+++ b/Season_Trophies/86.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E162"/>
+  <dimension ref="A1:E164"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -396,7 +396,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>49271</t>
+          <t>44794</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -416,24 +416,24 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3119</t>
+          <t>3559</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>590</t>
+          <t>388</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>32613475</t>
+          <t>26424998</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>"李 无 善 德"</t>
+          <t>"Smok3y 1nOnly"</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -443,24 +443,24 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>6539</t>
+          <t>6916</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1626</t>
+          <t>544</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>26424998</t>
+          <t>32613475</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>"Smok3y 1nOnly"</t>
+          <t>"李 无 善 德"</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -470,14 +470,14 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>6274</t>
+          <t>6856</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2128</t>
+          <t>1294</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -497,14 +497,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>6186</t>
+          <t>6636</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>7691</t>
+          <t>7806</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -524,14 +524,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>5524</t>
+          <t>5733</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>13777</t>
+          <t>10733</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -551,14 +551,14 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>5058</t>
+          <t>5462</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>792</t>
+          <t>757</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -578,14 +578,14 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>6473</t>
+          <t>6788</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>9859</t>
+          <t>7493</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -605,14 +605,14 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>5338</t>
+          <t>5767</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>10523</t>
+          <t>8968</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -632,14 +632,14 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>5289</t>
+          <t>5618</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>29</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -659,14 +659,14 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>6773</t>
+          <t>7094</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>436</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -686,24 +686,24 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>6598</t>
+          <t>6972</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>947</t>
+          <t>911</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>25376635</t>
+          <t>3946814</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>"sanchez ᶻᵍˣ"</t>
+          <t>"小瑩 潘"</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -713,24 +713,24 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>6429</t>
+          <t>6740</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1289</t>
+          <t>1902</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>3946814</t>
+          <t>22497</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>"小瑩 潘"</t>
+          <t>xixihahagggᶻᵍˣ</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -740,24 +740,24 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>6344</t>
+          <t>6507</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2272</t>
+          <t>2363</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>46422609</t>
+          <t>1820342</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>㊥林天大大神</t>
+          <t>摸鱼爱好者三战</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -767,14 +767,14 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>6156</t>
+          <t>6424</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2389</t>
+          <t>2485</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -794,24 +794,24 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>6135</t>
+          <t>6398</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2413</t>
+          <t>2574</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>22497</t>
+          <t>25376635</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>xixihahagggᶻᵍˣ</t>
+          <t>"sanchez ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -821,24 +821,24 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>6131</t>
+          <t>6383</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2742</t>
+          <t>2652</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1820342</t>
+          <t>46422609</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>摸鱼爱好者三战</t>
+          <t>㊥林天大大神</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -848,14 +848,14 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>6079</t>
+          <t>6370</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>3385</t>
+          <t>3227</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -875,14 +875,14 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>5989</t>
+          <t>6282</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>3759</t>
+          <t>3861</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -902,24 +902,24 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>5937</t>
+          <t>6188</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>4248</t>
+          <t>4359</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>33656016</t>
+          <t>21735478</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>㊥☆梅海听雪☆</t>
+          <t>耀翔fly</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -929,24 +929,24 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>5877</t>
+          <t>6117</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>4714</t>
+          <t>4581</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>38711610</t>
+          <t>33656016</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>心灵有为</t>
+          <t>㊥☆梅海听雪☆</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -956,24 +956,24 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>5824</t>
+          <t>6088</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>4739</t>
+          <t>4855</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>21735478</t>
+          <t>30411791</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>耀翔fly</t>
+          <t>"㊥Ⓩ GOÐAFRÆÐI ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -983,24 +983,24 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>5821</t>
+          <t>6054</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>4769</t>
+          <t>5524</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>30411791</t>
+          <t>38711610</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>"㊥Ⓩ GOÐAFRÆÐI ᶻᵍˣ"</t>
+          <t>心灵有为</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1010,24 +1010,24 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>5818</t>
+          <t>5986</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>5208</t>
+          <t>5617</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>28749280</t>
+          <t>3477306</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>㊥老船⛵⛵</t>
+          <t>"MeGa Tsai"</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1037,14 +1037,14 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>5771</t>
+          <t>5974</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>5271</t>
+          <t>5767</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1064,24 +1064,24 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>5764</t>
+          <t>5958</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>5544</t>
+          <t>5981</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>7025661</t>
+          <t>29729468</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>"F ᶻᵍˣ"</t>
+          <t>"风神舞动 WDᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1091,24 +1091,24 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>5736</t>
+          <t>5934</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>5767</t>
+          <t>6090</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>3477306</t>
+          <t>28749280</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>"MeGa Tsai"</t>
+          <t>㊥老船⛵⛵</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1118,14 +1118,14 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>5714</t>
+          <t>5922</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>5941</t>
+          <t>7096</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1145,24 +1145,24 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>5696</t>
+          <t>5809</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>6519</t>
+          <t>7109</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>29729468</t>
+          <t>44955827</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>"风神舞动 WDᶻᵍˣ"</t>
+          <t>丶小阿狸丿</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1172,24 +1172,24 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>5643</t>
+          <t>5807</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>7823</t>
+          <t>7759</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>44955827</t>
+          <t>7025661</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>丶小阿狸丿</t>
+          <t>"F ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1199,24 +1199,24 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>5511</t>
+          <t>5738</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>7827</t>
+          <t>8538</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>26588375</t>
+          <t>26280580</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>何苦僧ai</t>
+          <t>AOW全体工作人员吃屎交易大厅</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1226,14 +1226,14 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>5511</t>
+          <t>5660</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>9571</t>
+          <t>9063</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1253,24 +1253,24 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>5360</t>
+          <t>5610</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>11654</t>
+          <t>9591</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>12333251</t>
+          <t>26588375</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>"㊌ Mingxuan"</t>
+          <t>何苦僧ai</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1280,24 +1280,24 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>5207</t>
+          <t>5561</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>11763</t>
+          <t>11629</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>26280580</t>
+          <t>47146736</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>꧁S.TIGRESS꧂ᶻᵍˣ</t>
+          <t>"HK 品瑜"</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1307,14 +1307,14 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>5200</t>
+          <t>5394</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>12803</t>
+          <t>11687</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1334,24 +1334,24 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>5126</t>
+          <t>5391</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>13271</t>
+          <t>15050</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>47146736</t>
+          <t>12333251</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>"HK 品瑜"</t>
+          <t>"㊌ Mingxuan"</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1361,24 +1361,24 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>5094</t>
+          <t>5151</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>14853</t>
+          <t>16104</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>45967307</t>
+          <t>29861826</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Ricky</t>
+          <t>★★★Eric★★★</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1388,24 +1388,24 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>4992</t>
+          <t>5087</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>15539</t>
+          <t>17497</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>29861826</t>
+          <t>45967307</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>★★★Eric★★★</t>
+          <t>Ricky</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1415,24 +1415,24 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>4955</t>
+          <t>5007</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>15939</t>
+          <t>18552</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>20737010</t>
+          <t>55317038</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>混着玩...</t>
+          <t>necman12345</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1442,24 +1442,24 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>4932</t>
+          <t>4948</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>20759</t>
+          <t>18849</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>55317038</t>
+          <t>20737010</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>necman12345</t>
+          <t>混着玩...</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1469,14 +1469,14 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>4687</t>
+          <t>4932</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>24891</t>
+          <t>24570</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1496,14 +1496,14 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>4508</t>
+          <t>4646</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>28784</t>
+          <t>27872</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1523,14 +1523,14 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>4344</t>
+          <t>4509</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>46209</t>
+          <t>47478</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1557,7 +1557,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>64232</t>
+          <t>65162</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1611,7 +1611,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>3175</t>
+          <t>2192</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1631,14 +1631,14 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>6017</t>
+          <t>6452</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>18173</t>
+          <t>16099</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1658,14 +1658,14 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>4813</t>
+          <t>5087</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>6353</t>
+          <t>6460</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1685,14 +1685,14 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>5658</t>
+          <t>5878</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>9526</t>
+          <t>9418</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1712,14 +1712,14 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>5363</t>
+          <t>5574</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>9807</t>
+          <t>10421</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1739,14 +1739,14 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>5341</t>
+          <t>5489</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>11136</t>
+          <t>11165</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1766,24 +1766,24 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>5243</t>
+          <t>5428</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>14438</t>
+          <t>14146</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>53520939</t>
+          <t>4756174</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>㊥虎哥tiger</t>
+          <t>純希です</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1793,24 +1793,24 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>5015</t>
+          <t>5211</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>16443</t>
+          <t>14741</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>31495601</t>
+          <t>53520939</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>陈晓军</t>
+          <t>㊥虎哥tiger</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1820,24 +1820,24 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>4903</t>
+          <t>5172</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>17662</t>
+          <t>15922</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>54698813</t>
+          <t>31495601</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>閃亮唐老鴨</t>
+          <t>陈晓军</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1847,24 +1847,24 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>4837</t>
+          <t>5096</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>19023</t>
+          <t>18108</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>4756174</t>
+          <t>54698813</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>純希です</t>
+          <t>閃亮唐老鴨</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1874,14 +1874,14 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>4770</t>
+          <t>4972</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>21136</t>
+          <t>23365</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1901,7 +1901,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>4670</t>
+          <t>4703</t>
         </is>
       </c>
     </row>
@@ -1935,7 +1935,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>872</t>
+          <t>793</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1955,24 +1955,24 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>6448</t>
+          <t>6778</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>1445</t>
+          <t>1818</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>29211638</t>
+          <t>1951758</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>"㊥ PhononDisperse"</t>
+          <t>我來找你了</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1982,24 +1982,24 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>6313</t>
+          <t>6526</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2112</t>
+          <t>1826</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>1951758</t>
+          <t>29211638</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>我來找你了</t>
+          <t>"㊥ PhononDisperse"</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2009,14 +2009,14 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>6189</t>
+          <t>6524</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>5078</t>
+          <t>4716</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2036,14 +2036,14 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>5784</t>
+          <t>6072</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>8269</t>
+          <t>7203</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2063,14 +2063,14 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>5470</t>
+          <t>5797</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>8429</t>
+          <t>7841</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2090,14 +2090,14 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>5455</t>
+          <t>5728</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>9905</t>
+          <t>9755</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2117,14 +2117,14 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>5334</t>
+          <t>5544</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>11024</t>
+          <t>10660</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2144,24 +2144,24 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>5251</t>
+          <t>5468</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>15751</t>
+          <t>13990</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>6809364</t>
+          <t>56133764</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>"Scorp IP"</t>
+          <t>ustcarter</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2171,24 +2171,24 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>4941</t>
+          <t>5221</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>16161</t>
+          <t>15205</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>8057001</t>
+          <t>6809364</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>㊥兵者诡道也</t>
+          <t>"Scorp IP"</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2198,24 +2198,24 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>4918</t>
+          <t>5140</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>16355</t>
+          <t>16256</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>56133764</t>
+          <t>8057001</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>ustcarter</t>
+          <t>㊥兵者诡道也</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2225,14 +2225,14 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>4907</t>
+          <t>5076</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>17360</t>
+          <t>18026</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2252,24 +2252,24 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>4853</t>
+          <t>4977</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>20333</t>
+          <t>20483</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>54778421</t>
+          <t>11582001</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Emma</t>
+          <t>iMinatoX4</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2279,24 +2279,24 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>4707</t>
+          <t>4845</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>21112</t>
+          <t>22148</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>54085771</t>
+          <t>54778421</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>㊥Matthieu</t>
+          <t>Emma</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2306,24 +2306,24 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>4671</t>
+          <t>4761</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>22137</t>
+          <t>23323</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>11582001</t>
+          <t>54085771</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>iMinatoX4</t>
+          <t>㊥Matthieu</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2333,24 +2333,24 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>4624</t>
+          <t>4705</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>29286</t>
+          <t>30556</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>38561634</t>
+          <t>55860890</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>"Ambrose PT"</t>
+          <t>㊥Ethan</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2360,24 +2360,24 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>4324</t>
+          <t>4388</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>33816</t>
+          <t>31774</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>56573048</t>
+          <t>38561634</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Xiaotian</t>
+          <t>"Ambrose PT"</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2387,24 +2387,24 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>4139</t>
+          <t>4333</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>35776</t>
+          <t>32879</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>55860890</t>
+          <t>56573048</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>㊥Ethan</t>
+          <t>Xiaotian</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2414,14 +2414,14 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>4064</t>
+          <t>4283</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>38267</t>
+          <t>39037</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2441,24 +2441,24 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>3986</t>
+          <t>4010</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>42157</t>
+          <t>40787</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>56500325</t>
+          <t>32316256</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>haruharuyukizg9735</t>
+          <t>"秋の風 .."</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2468,24 +2468,24 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>3654</t>
+          <t>3924</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>44904</t>
+          <t>42080</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>32316256</t>
+          <t>56500325</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>"秋の風 .."</t>
+          <t>haruharuyukizg9735</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2495,24 +2495,24 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>3436</t>
+          <t>3800</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>46302</t>
+          <t>42492</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>50837459</t>
+          <t>31401481</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>NINE日</t>
+          <t>Player-31401481</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2522,24 +2522,24 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>3329</t>
+          <t>3759</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>46714</t>
+          <t>43058</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>31401481</t>
+          <t>38893233</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Player-31401481</t>
+          <t>"快乐 二哈"</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2549,24 +2549,24 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>3298</t>
+          <t>3709</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>47498</t>
+          <t>47247</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>22161051</t>
+          <t>50837459</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Botz5</t>
+          <t>NINE日</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2576,24 +2576,24 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>3240</t>
+          <t>3355</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>47708</t>
+          <t>48861</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>38893233</t>
+          <t>22161051</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>"快乐 二哈"</t>
+          <t>Botz5</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2603,14 +2603,14 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>3225</t>
+          <t>3234</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>48277</t>
+          <t>49523</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -2637,7 +2637,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>54515</t>
+          <t>50455</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -2657,14 +2657,14 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2862</t>
+          <t>3120</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>55558</t>
+          <t>56704</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -2684,14 +2684,14 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2819</t>
+          <t>2818</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>57135</t>
+          <t>58184</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -2718,7 +2718,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>60559</t>
+          <t>60556</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -2738,7 +2738,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>2641</t>
+          <t>2673</t>
         </is>
       </c>
     </row>
@@ -2880,7 +2880,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>15149</t>
+          <t>15347</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -2900,7 +2900,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>4976</t>
+          <t>5132</t>
         </is>
       </c>
     </row>
@@ -2934,7 +2934,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>19500</t>
+          <t>19730</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -2954,14 +2954,14 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>4748</t>
+          <t>4886</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>20865</t>
+          <t>22194</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -2981,14 +2981,14 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>4682</t>
+          <t>4759</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>22576</t>
+          <t>22853</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -3008,14 +3008,14 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>4604</t>
+          <t>4729</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>22637</t>
+          <t>24249</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -3035,14 +3035,14 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>4601</t>
+          <t>4664</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>25498</t>
+          <t>25450</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -3062,14 +3062,14 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>4482</t>
+          <t>4608</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>52418</t>
+          <t>52034</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -3089,24 +3089,24 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>2949</t>
+          <t>3026</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>11414</t>
+          <t>11854</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>37861953</t>
+          <t>25163202</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>"Durex ๑• . •๑"</t>
+          <t>"sam yang"</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3116,24 +3116,24 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>5223</t>
+          <t>5378</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>12714</t>
+          <t>13305</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>25163202</t>
+          <t>37861953</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>"sam yang"</t>
+          <t>"Durex ๑• . •๑"</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3143,14 +3143,14 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>5132</t>
+          <t>5272</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>25456</t>
+          <t>24011</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -3170,24 +3170,24 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>4484</t>
+          <t>4674</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>29260</t>
+          <t>26951</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>47459684</t>
+          <t>58743790</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>㊥阿闹切克闹</t>
+          <t>Ma</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3197,24 +3197,24 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>4325</t>
+          <t>4542</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>31183</t>
+          <t>29295</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>3649043</t>
+          <t>47459684</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Dj6106</t>
+          <t>㊥阿闹切克闹</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3224,24 +3224,24 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>4247</t>
+          <t>4444</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>31247</t>
+          <t>31669</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>56379103</t>
+          <t>18082891</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Globalking</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3251,24 +3251,24 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>4244</t>
+          <t>4338</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>31049</t>
+          <t>32653</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>58743790</t>
+          <t>3649043</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Ma</t>
+          <t>Dj6106</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3278,24 +3278,24 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>4253</t>
+          <t>4294</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>31881</t>
+          <t>33071</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>56585361</t>
+          <t>56379103</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>"㊥ go策划我要ali"</t>
+          <t>Globalking</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3305,14 +3305,14 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>4218</t>
+          <t>4274</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>33581</t>
+          <t>34167</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -3332,24 +3332,24 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>4149</t>
+          <t>4227</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>33833</t>
+          <t>34830</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>18082891</t>
+          <t>56585361</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>"㊥ go策划我要ali"</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3359,14 +3359,14 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>4139</t>
+          <t>4197</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>33725</t>
+          <t>37429</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -3386,24 +3386,24 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>4143</t>
+          <t>4086</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>36392</t>
+          <t>37843</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>47244896</t>
+          <t>58408326</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Dropthebeat</t>
+          <t>"Killer Bee"</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3413,24 +3413,24 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>4040</t>
+          <t>4068</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>36938</t>
+          <t>38209</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>58408326</t>
+          <t>1304123</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>"Killer Bee"</t>
+          <t>Cccccccccccc</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3440,24 +3440,24 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>4016</t>
+          <t>4052</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>37761</t>
+          <t>38345</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>1304123</t>
+          <t>47244896</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Cccccccccccc</t>
+          <t>Dropthebeat</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3467,14 +3467,14 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>3994</t>
+          <t>4044</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>38724</t>
+          <t>40109</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -3494,14 +3494,14 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>3964</t>
+          <t>3982</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>40806</t>
+          <t>41140</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -3521,14 +3521,14 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>3774</t>
+          <t>3892</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>43048</t>
+          <t>43720</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -3548,14 +3548,14 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>3582</t>
+          <t>3651</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>44137</t>
+          <t>44652</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -3575,14 +3575,14 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>3495</t>
+          <t>3568</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>45058</t>
+          <t>46440</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -3602,24 +3602,24 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>3423</t>
+          <t>3421</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>45958</t>
+          <t>46843</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>11645391</t>
+          <t>48634530</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>"omar omar"</t>
+          <t>leezhenrui</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3629,24 +3629,24 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>3356</t>
+          <t>3388</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>46882</t>
+          <t>47238</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>48634530</t>
+          <t>11645391</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>leezhenrui</t>
+          <t>"omar omar"</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3656,24 +3656,24 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>3285</t>
+          <t>3356</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>50514</t>
+          <t>49061</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>43281368</t>
+          <t>58940575</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>xhs2763</t>
+          <t>图啊图z z</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3683,24 +3683,24 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>3044</t>
+          <t>3220</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>51309</t>
+          <t>51429</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>58940575</t>
+          <t>43281368</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>图啊图z z</t>
+          <t>xhs2763</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3710,24 +3710,24 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>3002</t>
+          <t>3061</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>60867</t>
+          <t>57758</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>52792063</t>
+          <t>52157846</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>"Tramaine Dowlen"</t>
+          <t>Hamza</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3737,14 +3737,14 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>2632</t>
+          <t>2775</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>60938</t>
+          <t>61040</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -3764,24 +3764,24 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>2630</t>
+          <t>2658</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>61149</t>
+          <t>62009</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>5367482</t>
+          <t>52792063</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Ігор</t>
+          <t>"Tramaine Dowlen"</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -3791,24 +3791,24 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>2624</t>
+          <t>2627</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>62826</t>
+          <t>62235</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>3391765</t>
+          <t>5367482</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>马er</t>
+          <t>Ігор</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -3818,24 +3818,24 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>2579</t>
+          <t>2621</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>67719</t>
+          <t>63312</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>15436348</t>
+          <t>3391765</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Lucas</t>
+          <t>马er</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -3845,24 +3845,24 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>2492</t>
+          <t>2592</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>71594</t>
+          <t>67499</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>20372140</t>
+          <t>15436348</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>人山即是仙</t>
+          <t>Lucas</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -3872,24 +3872,24 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>2357</t>
+          <t>2506</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>78159</t>
+          <t>72743</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>9718882</t>
+          <t>20372140</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>小霸王2021</t>
+          <t>人山即是仙</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -3899,24 +3899,24 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>2193</t>
+          <t>2355</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>86621</t>
+          <t>78676</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>57219176</t>
+          <t>9718882</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>青莲道人</t>
+          <t>小霸王2021</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -3926,24 +3926,24 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>2210</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>95427</t>
+          <t>88014</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>54941706</t>
+          <t>57219176</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>AlexMenjivar20</t>
+          <t>青莲道人</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -3953,24 +3953,24 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>1686</t>
+          <t>2006</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>95308</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>38994054</t>
+          <t>54941706</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>chengnan</t>
+          <t>AlexMenjivar20</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -3980,24 +3980,24 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1728</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>153668</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>55810157</t>
+          <t>49000199</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Beard</t>
+          <t>SlipperyForester5672</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -4007,7 +4007,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1065</t>
         </is>
       </c>
     </row>
@@ -4019,12 +4019,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>57556179</t>
+          <t>38994054</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>特战新生代英雄</t>
+          <t>chengnan</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -4046,12 +4046,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>1222440</t>
+          <t>55810157</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>"Sneaky Ninja Panda"</t>
+          <t>Beard</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -4073,12 +4073,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>58340439</t>
+          <t>57556179</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>70qilin</t>
+          <t>特战新生代英雄</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -4100,12 +4100,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>58615925</t>
+          <t>1222440</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>齐天的大圣</t>
+          <t>"Sneaky Ninja Panda"</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -4122,71 +4122,71 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>48969</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>41849539</t>
+          <t>58340439</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>三号馆馆主</t>
+          <t>70qilin</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>3139</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>43831</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>56241637</t>
+          <t>58615925</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Player-14day</t>
+          <t>齐天的大圣</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>3518</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>50108</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>47622456</t>
+          <t>41849539</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>伊恩</t>
+          <t>三号馆馆主</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -4196,24 +4196,24 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3145</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>47228</t>
+          <t>42137</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>55210350</t>
+          <t>56241637</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>一个过客而已</t>
+          <t>Player-14day</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -4223,7 +4223,7 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>3260</t>
+          <t>3793</t>
         </is>
       </c>
     </row>
@@ -4235,12 +4235,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>49553719</t>
+          <t>47622456</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>"Oreo Captain Sir"</t>
+          <t>伊恩</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -4257,17 +4257,17 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>43814</t>
+          <t>48712</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>12434456</t>
+          <t>55210350</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Player-12434456</t>
+          <t>一个过客而已</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -4277,24 +4277,24 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>3520</t>
+          <t>3243</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>80011</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>58671339</t>
+          <t>49553719</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>"quang pro"</t>
+          <t>"Oreo Captain Sir"</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -4304,24 +4304,24 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>2148</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>110304</t>
+          <t>81366</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>41231396</t>
+          <t>58671339</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>ollsthebro</t>
+          <t>"quang pro"</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -4331,24 +4331,24 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>1498</t>
+          <t>2148</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>107089</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>58572199</t>
+          <t>59081265</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>你干嘛～哎呦～</t>
+          <t>爬楼梯</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -4358,24 +4358,24 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1528</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>112106</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>58766144</t>
+          <t>41231396</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>EquablePrecedence38</t>
+          <t>ollsthebro</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -4385,7 +4385,7 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1498</t>
         </is>
       </c>
     </row>
@@ -4397,12 +4397,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>29355299</t>
+          <t>58572199</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Player-29355299</t>
+          <t>你干嘛～哎呦～</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -4424,12 +4424,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>58910668</t>
+          <t>58766144</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>BrittleAuthor33</t>
+          <t>EquablePrecedence38</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -4451,12 +4451,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>55745105</t>
+          <t>29355299</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>eldeniz</t>
+          <t>Player-29355299</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -4478,12 +4478,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>58174442</t>
+          <t>58910668</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Player-58174442</t>
+          <t>BrittleAuthor33</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -4505,17 +4505,17 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>9913517</t>
+          <t>55745105</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>"Kenny Chan"</t>
+          <t>eldeniz</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Chinese</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -4527,44 +4527,44 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>49517</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>41848598</t>
+          <t>58174442</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>国家一级保护沙雕</t>
+          <t>Player-58174442</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Chinese</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>3103</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>61818</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>6010122</t>
+          <t>9913517</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>"Edward Peng"</t>
+          <t>"Kenny Chan"</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -4574,24 +4574,24 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>2604</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>50271</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>12648101</t>
+          <t>41848598</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>"player 198827"</t>
+          <t>国家一级保护沙雕</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -4601,24 +4601,24 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3133</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>62855</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>9195340</t>
+          <t>6010122</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Namllllllik</t>
+          <t>"Edward Peng"</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -4628,7 +4628,7 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2604</t>
         </is>
       </c>
     </row>
@@ -4640,12 +4640,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>15755724</t>
+          <t>12648101</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>"Last Good"</t>
+          <t>"player 198827"</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -4667,12 +4667,12 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>8850180</t>
+          <t>9195340</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>30624300</t>
+          <t>Namllllllik</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -4694,12 +4694,12 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>28624723</t>
+          <t>15755724</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>"Woody Shade"</t>
+          <t>"Last Good"</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -4716,27 +4716,81 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>53132</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
+          <t>8850180</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>30624300</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>999999</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>28624723</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>"Woody Shade"</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>54405</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
           <t>10636651</t>
         </is>
       </c>
-      <c r="C162" t="inlineStr">
+      <c r="C164" t="inlineStr">
         <is>
           <t>"Ismail Aflou"</t>
         </is>
       </c>
-      <c r="D162" t="inlineStr">
+      <c r="D164" t="inlineStr">
         <is>
           <t>Chinese</t>
         </is>
       </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>2919</t>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>2915</t>
         </is>
       </c>
     </row>

--- a/Season_Trophies/86.xlsx
+++ b/Season_Trophies/86.xlsx
@@ -396,7 +396,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>44794</t>
+          <t>45640</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -416,14 +416,14 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3559</t>
+          <t>3570</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>388</t>
+          <t>124</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -443,14 +443,14 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>6916</t>
+          <t>7338</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>544</t>
+          <t>733</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -470,14 +470,14 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>6856</t>
+          <t>7082</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1294</t>
+          <t>909</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -497,24 +497,24 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>6636</t>
+          <t>7023</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>7806</t>
+          <t>1661</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>31217211</t>
+          <t>22497</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>解憂雜貨鋪㊥</t>
+          <t>xixihahagggᶻᵍˣ</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -524,14 +524,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>5733</t>
+          <t>6839</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>10733</t>
+          <t>7512</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -551,24 +551,24 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>5462</t>
+          <t>5977</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>757</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>27468237</t>
+          <t>20199374</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>佛系复仇者秀川</t>
+          <t>RuanFan</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -578,24 +578,24 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>6788</t>
+          <t>7304</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>7493</t>
+          <t>735</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>21665473</t>
+          <t>27468237</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>"Dog Gamedesiger"</t>
+          <t>佛系复仇者秀川</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -605,24 +605,24 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>5767</t>
+          <t>7081</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>8968</t>
+          <t>1063</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>43800641</t>
+          <t>3946814</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>㊥蛋蛋大</t>
+          <t>"小瑩 潘"</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -632,24 +632,24 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>5618</t>
+          <t>6986</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>3193</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>138176</t>
+          <t>21345373</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Ze5kyphyr</t>
+          <t>林北不講武德</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -659,24 +659,24 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>7094</t>
+          <t>6545</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>9459</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>20199374</t>
+          <t>21665473</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>RuanFan</t>
+          <t>"Dog Gamedesiger"</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -686,24 +686,24 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>6972</t>
+          <t>5767</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>911</t>
+          <t>9575</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>3946814</t>
+          <t>4229136</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>"小瑩 潘"</t>
+          <t>"totoro wu"</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -713,24 +713,24 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>6740</t>
+          <t>5753</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1902</t>
+          <t>11166</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>22497</t>
+          <t>43800641</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>xixihahagggᶻᵍˣ</t>
+          <t>㊥蛋蛋大</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -740,24 +740,24 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>6507</t>
+          <t>5606</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2363</t>
+          <t>12828</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1820342</t>
+          <t>14424176</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>摸鱼爱好者三战</t>
+          <t>天才少年老纪</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -767,24 +767,24 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>6424</t>
+          <t>5465</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2485</t>
+          <t>52</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>31267627</t>
+          <t>138176</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>"㊥ Martin"</t>
+          <t>Ze5kyphyr</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -794,24 +794,24 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>6398</t>
+          <t>7375</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2574</t>
+          <t>2268</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>25376635</t>
+          <t>46422609</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>"sanchez ᶻᵍˣ"</t>
+          <t>㊥林天大大神</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -821,24 +821,24 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>6383</t>
+          <t>6712</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2652</t>
+          <t>2342</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>46422609</t>
+          <t>1820342</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>㊥林天大大神</t>
+          <t>摸鱼爱好者三战</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -848,24 +848,24 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>6370</t>
+          <t>6697</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>3227</t>
+          <t>2560</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>21345373</t>
+          <t>31267627</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>林北不講武德</t>
+          <t>"㊥ Martin"</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -875,24 +875,24 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>6282</t>
+          <t>6652</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>3861</t>
+          <t>2664</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>11783968</t>
+          <t>25376635</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>F---119</t>
+          <t>"sanchez ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -902,24 +902,24 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>6188</t>
+          <t>6635</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>4359</t>
+          <t>3331</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>21735478</t>
+          <t>11783968</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>耀翔fly</t>
+          <t>F---119</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -929,24 +929,24 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>6117</t>
+          <t>6521</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>4581</t>
+          <t>3510</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>33656016</t>
+          <t>21735478</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>㊥☆梅海听雪☆</t>
+          <t>耀翔fly</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -956,24 +956,24 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>6088</t>
+          <t>6490</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>4855</t>
+          <t>4283</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>30411791</t>
+          <t>3477306</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>"㊥Ⓩ GOÐAFRÆÐI ᶻᵍˣ"</t>
+          <t>"MeGa Tsai"</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -983,14 +983,14 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>6054</t>
+          <t>6367</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>5524</t>
+          <t>4688</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1010,24 +1010,24 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>5986</t>
+          <t>6308</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>5617</t>
+          <t>5029</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>3477306</t>
+          <t>9541747</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>"MeGa Tsai"</t>
+          <t>豹子头林冲</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1037,24 +1037,24 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>5974</t>
+          <t>6264</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>5767</t>
+          <t>5096</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>9541747</t>
+          <t>33656016</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>豹子头林冲</t>
+          <t>㊥☆梅海听雪☆</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1064,24 +1064,24 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>5958</t>
+          <t>6254</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>5981</t>
+          <t>5298</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>29729468</t>
+          <t>30411791</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>"风神舞动 WDᶻᵍˣ"</t>
+          <t>"㊥Ⓩ GOÐAFRÆÐI ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1091,14 +1091,14 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>5934</t>
+          <t>6229</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>6090</t>
+          <t>5423</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1118,14 +1118,14 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>5922</t>
+          <t>6216</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>7096</t>
+          <t>5569</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1145,24 +1145,24 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>5809</t>
+          <t>6196</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>7109</t>
+          <t>6292</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>44955827</t>
+          <t>26588375</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>丶小阿狸丿</t>
+          <t>何苦僧ai</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1172,24 +1172,24 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>5807</t>
+          <t>6109</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>7759</t>
+          <t>6708</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>7025661</t>
+          <t>26280580</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>"F ᶻᵍˣ"</t>
+          <t>AOW全体工作人员吃屎交易大厅</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1199,24 +1199,24 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>5738</t>
+          <t>6063</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>8538</t>
+          <t>7845</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>26280580</t>
+          <t>44955827</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>AOW全体工作人员吃屎交易大厅</t>
+          <t>丶小阿狸丿</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1226,24 +1226,24 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>5660</t>
+          <t>5939</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>9063</t>
+          <t>8012</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>4229136</t>
+          <t>29729468</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>"totoro wu"</t>
+          <t>"风神舞动 WDᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1253,24 +1253,24 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>5610</t>
+          <t>5919</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>9591</t>
+          <t>13106</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>26588375</t>
+          <t>47146736</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>何苦僧ai</t>
+          <t>"HK 品瑜"</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1280,24 +1280,24 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>5561</t>
+          <t>5442</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>11629</t>
+          <t>14311</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>47146736</t>
+          <t>12333251</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>"HK 品瑜"</t>
+          <t>"㊌ Mingxuan"</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1307,24 +1307,24 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>5394</t>
+          <t>5350</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>11687</t>
+          <t>15696</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>14424176</t>
+          <t>29861826</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>天才少年老纪</t>
+          <t>★★★Eric★★★</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1334,24 +1334,24 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>5391</t>
+          <t>5257</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>15050</t>
+          <t>17355</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>12333251</t>
+          <t>55317038</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>"㊌ Mingxuan"</t>
+          <t>necman12345</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1361,24 +1361,24 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>5151</t>
+          <t>5154</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>16104</t>
+          <t>19867</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>29861826</t>
+          <t>45967307</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>★★★Eric★★★</t>
+          <t>Ricky</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1388,24 +1388,24 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>5087</t>
+          <t>5007</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>17497</t>
+          <t>21123</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>45967307</t>
+          <t>20737010</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Ricky</t>
+          <t>混着玩...</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1415,24 +1415,24 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>5007</t>
+          <t>4932</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>18552</t>
+          <t>26479</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>55317038</t>
+          <t>32929656</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>necman12345</t>
+          <t>"EIH Wilson Chu"</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1442,24 +1442,24 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>4948</t>
+          <t>4663</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>18849</t>
+          <t>48369</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>20737010</t>
+          <t>7587898</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>混着玩...</t>
+          <t>藍精靈ᶻᵍˣ</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1469,24 +1469,24 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>4932</t>
+          <t>3336</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>24570</t>
+          <t>65917</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>32929656</t>
+          <t>47928278</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>"EIH Wilson Chu"</t>
+          <t>"落日幻影 哈哈哈"</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1496,24 +1496,24 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>4646</t>
+          <t>2548</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>27872</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>28387448</t>
+          <t>23687250</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>☜⊙‖⊙☞</t>
+          <t>"jetlijp ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1523,105 +1523,105 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>4509</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>47478</t>
+          <t>2514</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>7587898</t>
+          <t>27484940</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>藍精靈ᶻᵍˣ</t>
+          <t>66666zgx</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>3336</t>
+          <t>6662</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>65162</t>
+          <t>18275</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>47928278</t>
+          <t>38809086</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>"落日幻影 哈哈哈"</t>
+          <t>Kouenᶻᵍˣ</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2548</t>
+          <t>5098</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>6070</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>23687250</t>
+          <t>13738844</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>"jetlijp ᶻᵍˣ"</t>
+          <t>"Chen Hao"</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6139</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2192</t>
+          <t>10354</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>27484940</t>
+          <t>42434117</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>66666zgx</t>
+          <t>㊥有双飞鸟</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1631,24 +1631,24 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>6452</t>
+          <t>5680</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>16099</t>
+          <t>10568</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>38809086</t>
+          <t>49710892</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Kouenᶻᵍˣ</t>
+          <t>MMMMMMM</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1658,24 +1658,24 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>5087</t>
+          <t>5662</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>6460</t>
+          <t>11163</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>13738844</t>
+          <t>53060417</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>"Chen Hao"</t>
+          <t>㊥老纳信耶稣</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1685,24 +1685,24 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>5878</t>
+          <t>5606</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>9418</t>
+          <t>12718</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>42434117</t>
+          <t>53520939</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>㊥有双飞鸟</t>
+          <t>㊥虎哥tiger</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1712,24 +1712,24 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>5574</t>
+          <t>5473</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>10421</t>
+          <t>15695</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>49710892</t>
+          <t>31495601</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>MMMMMMM</t>
+          <t>陈晓军</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1739,24 +1739,24 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>5489</t>
+          <t>5257</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>11165</t>
+          <t>15729</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>53060417</t>
+          <t>54698813</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>㊥老纳信耶稣</t>
+          <t>閃亮唐老鴨</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1766,14 +1766,14 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>5428</t>
+          <t>5254</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>14146</t>
+          <t>19139</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1793,24 +1793,24 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>5211</t>
+          <t>5047</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>14741</t>
+          <t>25542</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>53520939</t>
+          <t>55769051</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>㊥虎哥tiger</t>
+          <t>㊥叮叮当.</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1820,24 +1820,24 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>5172</t>
+          <t>4705</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>15922</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>31495601</t>
+          <t>43812707</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>陈晓军</t>
+          <t>bbtt</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1847,24 +1847,24 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>5096</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>18108</t>
+          <t>693</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>54698813</t>
+          <t>8741713</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>閃亮唐老鴨</t>
+          <t xml:space="preserve">㊥大咖玩家ky </t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1874,24 +1874,24 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>4972</t>
+          <t>7099</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>23365</t>
+          <t>1638</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>55769051</t>
+          <t>1951758</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>㊥叮叮当.</t>
+          <t>我來找你了</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1901,24 +1901,24 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>4703</t>
+          <t>6844</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>2304</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>43812707</t>
+          <t>29211638</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>bbtt</t>
+          <t>"㊥ PhononDisperse"</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1928,24 +1928,24 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6703</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>793</t>
+          <t>4418</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>8741713</t>
+          <t>16206490</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t xml:space="preserve">㊥大咖玩家ky </t>
+          <t>㊥Godcys</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1955,24 +1955,24 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>6778</t>
+          <t>6346</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>1818</t>
+          <t>6997</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>1951758</t>
+          <t>4493731</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>我來找你了</t>
+          <t>Player-1527362</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1982,24 +1982,24 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>6526</t>
+          <t>6032</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>1826</t>
+          <t>7688</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>29211638</t>
+          <t>7852598</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>"㊥ PhononDisperse"</t>
+          <t>seiji</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2009,24 +2009,24 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>6524</t>
+          <t>5958</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>4716</t>
+          <t>9470</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>16206490</t>
+          <t>31217211</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>㊥Godcys</t>
+          <t>解憂雜貨鋪㊥</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2036,24 +2036,24 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>6072</t>
+          <t>5765</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>7203</t>
+          <t>10301</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>4493731</t>
+          <t>47131129</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Player-1527362</t>
+          <t>NAM</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2063,24 +2063,24 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>5797</t>
+          <t>5686</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>7841</t>
+          <t>10396</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>7852598</t>
+          <t>22885399</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>seiji</t>
+          <t>余文琪</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2090,24 +2090,24 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>5728</t>
+          <t>5677</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>9755</t>
+          <t>14130</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>47131129</t>
+          <t>56133764</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>NAM</t>
+          <t>ustcarter</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2117,24 +2117,24 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>5544</t>
+          <t>5362</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>10660</t>
+          <t>16260</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>22885399</t>
+          <t>6809364</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>余文琪</t>
+          <t>"Scorp IP"</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2144,24 +2144,24 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>5468</t>
+          <t>5222</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>13990</t>
+          <t>16755</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>56133764</t>
+          <t>8057001</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>ustcarter</t>
+          <t>㊥兵者诡道也</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2171,24 +2171,24 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>5221</t>
+          <t>5193</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>15205</t>
+          <t>18489</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>6809364</t>
+          <t>38995116</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>"Scorp IP"</t>
+          <t>"Ramesh Pavai Nam"</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2198,24 +2198,24 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>5140</t>
+          <t>5084</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>16256</t>
+          <t>21442</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>8057001</t>
+          <t>54778421</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>㊥兵者诡道也</t>
+          <t>Emma</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2225,24 +2225,24 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>5076</t>
+          <t>4913</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>18026</t>
+          <t>22020</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>38995116</t>
+          <t>11582001</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>"Ramesh Pavai Nam"</t>
+          <t>iMinatoX4</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2252,24 +2252,24 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>4977</t>
+          <t>4882</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>20483</t>
+          <t>23804</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>11582001</t>
+          <t>54085771</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>iMinatoX4</t>
+          <t>㊥Matthieu</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2279,24 +2279,24 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>4845</t>
+          <t>4788</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>22148</t>
+          <t>32711</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>54778421</t>
+          <t>55860890</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Emma</t>
+          <t>㊥Ethan</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2306,24 +2306,24 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>4761</t>
+          <t>4381</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>23323</t>
+          <t>33810</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>54085771</t>
+          <t>38561634</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>㊥Matthieu</t>
+          <t>"Ambrose PT"</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2333,24 +2333,24 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>4705</t>
+          <t>4328</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>30556</t>
+          <t>35664</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>55860890</t>
+          <t>56573048</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>㊥Ethan</t>
+          <t>Xiaotian</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2360,24 +2360,24 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>4388</t>
+          <t>4238</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>31774</t>
+          <t>35795</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>38561634</t>
+          <t>31401481</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>"Ambrose PT"</t>
+          <t>Player-31401481</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2387,24 +2387,24 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>4333</t>
+          <t>4232</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>32879</t>
+          <t>37284</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>56573048</t>
+          <t>32316256</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Xiaotian</t>
+          <t>"秋の風 .."</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2414,14 +2414,14 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>4283</t>
+          <t>4167</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>39037</t>
+          <t>39592</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2441,24 +2441,24 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>4010</t>
+          <t>4053</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>40787</t>
+          <t>40627</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>32316256</t>
+          <t>56500325</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>"秋の風 .."</t>
+          <t>haruharuyukizg9735</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2468,24 +2468,24 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>3924</t>
+          <t>4000</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>42080</t>
+          <t>42093</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>56500325</t>
+          <t>38893233</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>haruharuyukizg9735</t>
+          <t>"快乐 二哈"</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2495,24 +2495,24 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>3800</t>
+          <t>3914</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>42492</t>
+          <t>42811</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>31401481</t>
+          <t>50837459</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Player-31401481</t>
+          <t>NINE日</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2522,24 +2522,24 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>3759</t>
+          <t>3841</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>43058</t>
+          <t>48853</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>38893233</t>
+          <t>1550355</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>"快乐 二哈"</t>
+          <t>"皓茵 世界"</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2549,24 +2549,24 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>3709</t>
+          <t>3300</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>47247</t>
+          <t>49865</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>50837459</t>
+          <t>22161051</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>NINE日</t>
+          <t>Botz5</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2576,24 +2576,24 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>3355</t>
+          <t>3229</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>48861</t>
+          <t>51450</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>22161051</t>
+          <t>57813281</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Botz5</t>
+          <t>XAUEN</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2603,24 +2603,24 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>3234</t>
+          <t>3113</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>49523</t>
+          <t>56742</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>1550355</t>
+          <t>68132</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>"皓茵 世界"</t>
+          <t>"㊖TW9 百媚生"</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2630,24 +2630,24 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>3184</t>
+          <t>2849</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>50455</t>
+          <t>58899</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>57813281</t>
+          <t>14110169</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>XAUEN</t>
+          <t>"Pasiony CANQ"</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2657,24 +2657,24 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>3120</t>
+          <t>2758</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>56704</t>
+          <t>60831</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>68132</t>
+          <t>24733875</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>"㊖TW9 百媚生"</t>
+          <t>龍少</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2684,24 +2684,24 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2818</t>
+          <t>2689</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>58184</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>14110169</t>
+          <t>29565</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>"Pasiony CANQ"</t>
+          <t>"aK.j Zhong ㊥"</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2711,24 +2711,24 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2758</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>60556</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>24733875</t>
+          <t>12639656</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>龍少</t>
+          <t>"wu huang"</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2738,7 +2738,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>2673</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2750,12 +2750,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>29565</t>
+          <t>47758619</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>"aK.j Zhong ㊥"</t>
+          <t>"㊥ Moon ㊥"</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2777,12 +2777,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>12639656</t>
+          <t>44789201</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>"wu huang"</t>
+          <t>华夏四川广安</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2804,12 +2804,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>47758619</t>
+          <t>32478707</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>"㊥ Moon ㊥"</t>
+          <t>"Bt So"</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2826,27 +2826,27 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>14612</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>44789201</t>
+          <t>31134300</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>华夏四川广安</t>
+          <t>McMaX</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5329</t>
         </is>
       </c>
     </row>
@@ -2858,17 +2858,17 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>32478707</t>
+          <t>44378757</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>"Bt So"</t>
+          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -2880,17 +2880,17 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>15347</t>
+          <t>23170</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>31134300</t>
+          <t>37069173</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>McMaX</t>
+          <t>詹toniii</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2900,24 +2900,24 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>5132</t>
+          <t>4822</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>23720</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>44378757</t>
+          <t>46289694</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
+          <t>㊥Vincent</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2927,24 +2927,24 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4792</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>19730</t>
+          <t>24289</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>46289694</t>
+          <t>25479797</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>㊥Vincent</t>
+          <t>"Mohamed Alnaqbi"</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2954,24 +2954,24 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>4886</t>
+          <t>4765</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>22194</t>
+          <t>25323</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>37069173</t>
+          <t>28855852</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>詹toniii</t>
+          <t>tiger</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2981,24 +2981,24 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>4759</t>
+          <t>4715</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>22853</t>
+          <t>26702</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>28855852</t>
+          <t>44708798</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>tiger</t>
+          <t>"㊥ mythgod"</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3008,24 +3008,24 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>4729</t>
+          <t>4653</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>24249</t>
+          <t>52379</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>25479797</t>
+          <t>54588689</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>"Mohamed Alnaqbi"</t>
+          <t>㊥墨衍枫迹☜</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3035,24 +3035,24 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>4664</t>
+          <t>3056</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>25450</t>
+          <t>8181</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>44708798</t>
+          <t>7025661</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>"㊥ mythgod"</t>
+          <t>"F ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3062,24 +3062,24 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>4608</t>
+          <t>5899</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>52034</t>
+          <t>13716</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>54588689</t>
+          <t>25163202</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>㊥墨衍枫迹☜</t>
+          <t>"sam yang"</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3089,24 +3089,24 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>3026</t>
+          <t>5394</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>11854</t>
+          <t>24906</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>25163202</t>
+          <t>55634661</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>"sam yang"</t>
+          <t>Opalus</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3116,24 +3116,24 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>5378</t>
+          <t>4735</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>13305</t>
+          <t>26234</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>37861953</t>
+          <t>28387448</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>"Durex ๑• . •๑"</t>
+          <t>☜⊙‖⊙☞</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3143,24 +3143,24 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>5272</t>
+          <t>4674</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>24011</t>
+          <t>29991</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>55634661</t>
+          <t>47459684</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Opalus</t>
+          <t>㊥阿闹切克闹</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3170,24 +3170,24 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>4674</t>
+          <t>4510</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>26951</t>
+          <t>31914</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>58743790</t>
+          <t>56585361</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Ma</t>
+          <t>"㊥ go策划我要ali"</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3197,24 +3197,24 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>4542</t>
+          <t>4417</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>29295</t>
+          <t>32485</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>47459684</t>
+          <t>58743790</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>㊥阿闹切克闹</t>
+          <t>Ma</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3224,24 +3224,24 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>4444</t>
+          <t>4390</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>31669</t>
+          <t>33024</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>18082891</t>
+          <t>3649043</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Dj6106</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3251,24 +3251,24 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>4338</t>
+          <t>4367</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>32653</t>
+          <t>33126</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>3649043</t>
+          <t>56379103</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Dj6106</t>
+          <t>Globalking</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3278,24 +3278,24 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>4294</t>
+          <t>4361</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>33071</t>
+          <t>33555</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>56379103</t>
+          <t>18082891</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Globalking</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3305,14 +3305,14 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>4274</t>
+          <t>4340</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>34167</t>
+          <t>34586</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -3332,24 +3332,24 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>4227</t>
+          <t>4289</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>34830</t>
+          <t>35472</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>56585361</t>
+          <t>58839983</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>"㊥ go策划我要ali"</t>
+          <t>每逢佳节胖六斤</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3359,24 +3359,24 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>4197</t>
+          <t>4247</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>37429</t>
+          <t>38510</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>58839983</t>
+          <t>58408326</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>每逢佳节胖六斤</t>
+          <t>"Killer Bee"</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -3386,24 +3386,24 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>4086</t>
+          <t>4107</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>37843</t>
+          <t>39184</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>58408326</t>
+          <t>45404911</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>"Killer Bee"</t>
+          <t>小伙伴666</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3413,24 +3413,24 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>4068</t>
+          <t>4074</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>38209</t>
+          <t>39918</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>1304123</t>
+          <t>55499394</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Cccccccccccc</t>
+          <t>Player-55499394</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3440,14 +3440,14 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>4052</t>
+          <t>4036</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>38345</t>
+          <t>40064</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -3467,24 +3467,24 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>4044</t>
+          <t>4029</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>40109</t>
+          <t>40491</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>55499394</t>
+          <t>1304123</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Player-55499394</t>
+          <t>Cccccccccccc</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3494,14 +3494,14 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>3982</t>
+          <t>4007</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>41140</t>
+          <t>42070</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -3521,14 +3521,14 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>3892</t>
+          <t>3916</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>43720</t>
+          <t>44029</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -3548,24 +3548,24 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>3651</t>
+          <t>3718</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>44652</t>
+          <t>44077</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>58641574</t>
+          <t>11645391</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Player-58641574鱼</t>
+          <t>"omar omar"</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3575,24 +3575,24 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>3568</t>
+          <t>3715</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>46440</t>
+          <t>45789</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>56700848</t>
+          <t>58641574</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>工口漫画老师</t>
+          <t>Player-58641574鱼</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3602,14 +3602,14 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>3421</t>
+          <t>3556</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>46843</t>
+          <t>46138</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -3629,24 +3629,24 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>3388</t>
+          <t>3526</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>47238</t>
+          <t>46986</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>11645391</t>
+          <t>56700848</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>"omar omar"</t>
+          <t>工口漫画老师</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3656,14 +3656,14 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>3356</t>
+          <t>3453</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>49061</t>
+          <t>49213</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -3683,24 +3683,24 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>3220</t>
+          <t>3273</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>51429</t>
+          <t>50974</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>43281368</t>
+          <t>52157846</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>xhs2763</t>
+          <t>Hamza</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3710,24 +3710,24 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>3061</t>
+          <t>3147</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>57758</t>
+          <t>51226</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>52157846</t>
+          <t>43281368</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Hamza</t>
+          <t>xhs2763</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3737,14 +3737,14 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>2775</t>
+          <t>3130</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>61040</t>
+          <t>61993</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -3764,24 +3764,24 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>2658</t>
+          <t>2652</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>62009</t>
+          <t>62101</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>52792063</t>
+          <t>5367482</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>"Tramaine Dowlen"</t>
+          <t>Ігор</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -3791,24 +3791,24 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>2627</t>
+          <t>2648</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>62235</t>
+          <t>62980</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>5367482</t>
+          <t>52792063</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Ігор</t>
+          <t>"Tramaine Dowlen"</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -3818,14 +3818,14 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>2621</t>
+          <t>2622</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>63312</t>
+          <t>63495</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -3845,14 +3845,14 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>2592</t>
+          <t>2608</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>67499</t>
+          <t>63789</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -3872,24 +3872,24 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>2506</t>
+          <t>2600</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>72743</t>
+          <t>70996</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>20372140</t>
+          <t>9718882</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>人山即是仙</t>
+          <t>小霸王2021</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -3899,24 +3899,24 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>2355</t>
+          <t>2456</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>78676</t>
+          <t>72812</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>9718882</t>
+          <t>20372140</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>小霸王2021</t>
+          <t>人山即是仙</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -3926,14 +3926,14 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>2210</t>
+          <t>2385</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>88014</t>
+          <t>88970</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -3953,14 +3953,14 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>2006</t>
+          <t>2005</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>95308</t>
+          <t>94632</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -3980,14 +3980,14 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>1728</t>
+          <t>1779</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>153668</t>
+          <t>147619</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -4007,7 +4007,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>1065</t>
+          <t>1126</t>
         </is>
       </c>
     </row>
@@ -4176,7 +4176,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>50108</t>
+          <t>51121</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -4196,14 +4196,14 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>3145</t>
+          <t>3137</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>42137</t>
+          <t>43403</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -4223,7 +4223,7 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>3793</t>
+          <t>3782</t>
         </is>
       </c>
     </row>
@@ -4257,7 +4257,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>48712</t>
+          <t>49716</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -4277,7 +4277,7 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>3243</t>
+          <t>3238</t>
         </is>
       </c>
     </row>
@@ -4311,7 +4311,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>81366</t>
+          <t>81648</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -4331,14 +4331,14 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>2148</t>
+          <t>2166</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>107089</t>
+          <t>103006</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -4358,14 +4358,14 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>1528</t>
+          <t>1601</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>112106</t>
+          <t>113522</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -4554,17 +4554,17 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>54642</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>9913517</t>
+          <t>10636651</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>"Kenny Chan"</t>
+          <t>"Ismail Aflou"</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -4574,14 +4574,14 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2941</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>50271</t>
+          <t>50404</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -4601,14 +4601,14 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>3133</t>
+          <t>3189</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>62855</t>
+          <t>63612</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -4770,17 +4770,17 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>54405</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>10636651</t>
+          <t>9913517</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>"Ismail Aflou"</t>
+          <t>"Kenny Chan"</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -4790,7 +4790,7 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>2915</t>
+          <t>0</t>
         </is>
       </c>
     </row>

--- a/Season_Trophies/86.xlsx
+++ b/Season_Trophies/86.xlsx
@@ -396,7 +396,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>45640</t>
+          <t>45734</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -423,7 +423,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>108</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -443,14 +443,14 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>7338</t>
+          <t>7349</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>733</t>
+          <t>727</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -470,14 +470,14 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>7082</t>
+          <t>7088</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>909</t>
+          <t>913</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -497,14 +497,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>7023</t>
+          <t>7027</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1661</t>
+          <t>1687</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -531,7 +531,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>7512</t>
+          <t>7577</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -558,7 +558,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -585,7 +585,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>735</t>
+          <t>737</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -612,7 +612,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1063</t>
+          <t>802</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -632,14 +632,14 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>6986</t>
+          <t>7061</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>3193</t>
+          <t>3221</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -666,7 +666,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>9459</t>
+          <t>9522</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -693,7 +693,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>9575</t>
+          <t>9647</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -720,7 +720,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>11166</t>
+          <t>11253</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -747,7 +747,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>12828</t>
+          <t>12931</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -774,7 +774,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>29</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -794,14 +794,14 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>7375</t>
+          <t>7388</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2268</t>
+          <t>2281</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -828,7 +828,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2342</t>
+          <t>2360</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -855,7 +855,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2560</t>
+          <t>2575</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -882,7 +882,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2664</t>
+          <t>2679</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -909,7 +909,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>3331</t>
+          <t>3374</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -929,14 +929,14 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>6521</t>
+          <t>6520</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>3510</t>
+          <t>3546</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -963,7 +963,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>4283</t>
+          <t>4319</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -990,7 +990,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>4688</t>
+          <t>4687</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1010,14 +1010,14 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>6308</t>
+          <t>6312</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>5029</t>
+          <t>5068</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1044,17 +1044,17 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>5096</t>
+          <t>5085</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>33656016</t>
+          <t>26588375</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>㊥☆梅海听雪☆</t>
+          <t>何苦僧ai</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1064,24 +1064,24 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>6254</t>
+          <t>6262</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>5298</t>
+          <t>4994</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>30411791</t>
+          <t>6510348</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>"㊥Ⓩ GOÐAFRÆÐI ᶻᵍˣ"</t>
+          <t>Bonpoisson</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1091,24 +1091,24 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>6229</t>
+          <t>6273</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>5423</t>
+          <t>5149</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>28749280</t>
+          <t>33656016</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>㊥老船⛵⛵</t>
+          <t>㊥☆梅海听雪☆</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1118,24 +1118,24 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>6216</t>
+          <t>6254</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>5569</t>
+          <t>5358</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>6510348</t>
+          <t>30411791</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Bonpoisson</t>
+          <t>"㊥Ⓩ GOÐAFRÆÐI ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1145,24 +1145,24 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>6196</t>
+          <t>6229</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>6292</t>
+          <t>5470</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>26588375</t>
+          <t>28749280</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>何苦僧ai</t>
+          <t>㊥老船⛵⛵</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1172,24 +1172,24 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>6109</t>
+          <t>6216</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>6708</t>
+          <t>5537</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>26280580</t>
+          <t>44955827</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>AOW全体工作人员吃屎交易大厅</t>
+          <t>丶小阿狸丿</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1199,24 +1199,24 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>6063</t>
+          <t>6206</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>7845</t>
+          <t>6750</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>44955827</t>
+          <t>26280580</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>丶小阿狸丿</t>
+          <t>AOW全体工作人员吃屎交易大厅</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1226,14 +1226,14 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>5939</t>
+          <t>6063</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>8012</t>
+          <t>8093</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1253,14 +1253,14 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>5919</t>
+          <t>5917</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>13106</t>
+          <t>12821</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1280,14 +1280,14 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>5442</t>
+          <t>5474</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>14311</t>
+          <t>12544</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1307,14 +1307,14 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>5350</t>
+          <t>5497</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>15696</t>
+          <t>15830</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1341,7 +1341,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>17355</t>
+          <t>17504</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1368,7 +1368,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>19867</t>
+          <t>20041</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1395,7 +1395,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>21123</t>
+          <t>21300</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1422,7 +1422,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>26479</t>
+          <t>26668</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1449,7 +1449,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>48369</t>
+          <t>48466</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1476,7 +1476,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>65917</t>
+          <t>65982</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1530,7 +1530,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2514</t>
+          <t>1770</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1550,14 +1550,14 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>6662</t>
+          <t>6821</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>18275</t>
+          <t>18419</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1584,7 +1584,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>6070</t>
+          <t>6063</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1604,14 +1604,14 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>6139</t>
+          <t>6144</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>10354</t>
+          <t>10418</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1638,7 +1638,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>10568</t>
+          <t>10449</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1658,14 +1658,14 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>5662</t>
+          <t>5677</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>11163</t>
+          <t>10647</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1685,14 +1685,14 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>5606</t>
+          <t>5662</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>12718</t>
+          <t>12440</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1712,24 +1712,24 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>5473</t>
+          <t>5505</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>15695</t>
+          <t>14752</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>31495601</t>
+          <t>4756174</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>陈晓军</t>
+          <t>純希です</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1739,24 +1739,24 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>5257</t>
+          <t>5328</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>15729</t>
+          <t>15829</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>54698813</t>
+          <t>31495601</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>閃亮唐老鴨</t>
+          <t>陈晓军</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1766,24 +1766,24 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>5254</t>
+          <t>5257</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>19139</t>
+          <t>16047</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>4756174</t>
+          <t>54698813</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>純希です</t>
+          <t>閃亮唐老鴨</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1793,14 +1793,14 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>5047</t>
+          <t>5245</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>25542</t>
+          <t>25760</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1854,7 +1854,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>693</t>
+          <t>720</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1874,14 +1874,14 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>7099</t>
+          <t>7090</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>1638</t>
+          <t>1383</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1901,14 +1901,14 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>6844</t>
+          <t>6909</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2304</t>
+          <t>2325</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1935,7 +1935,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>4418</t>
+          <t>4456</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1962,7 +1962,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>6997</t>
+          <t>7122</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1982,14 +1982,14 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>6032</t>
+          <t>6025</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>7688</t>
+          <t>7226</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2009,14 +2009,14 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>5958</t>
+          <t>6014</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>9470</t>
+          <t>9535</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2043,7 +2043,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>10301</t>
+          <t>10363</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2070,7 +2070,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>10396</t>
+          <t>10461</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2097,7 +2097,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>14130</t>
+          <t>15035</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2117,14 +2117,14 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>5362</t>
+          <t>5308</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>16260</t>
+          <t>16474</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2144,14 +2144,14 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>5222</t>
+          <t>5219</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>16755</t>
+          <t>17019</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2171,14 +2171,14 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>5193</t>
+          <t>5186</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>18489</t>
+          <t>18944</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2198,14 +2198,14 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>5084</t>
+          <t>5067</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>21442</t>
+          <t>21511</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2225,14 +2225,14 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>4913</t>
+          <t>4918</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>22020</t>
+          <t>22179</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2259,7 +2259,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>23804</t>
+          <t>24171</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2279,14 +2279,14 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>4788</t>
+          <t>4781</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>32711</t>
+          <t>32885</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2313,17 +2313,17 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>33810</t>
+          <t>33123</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>38561634</t>
+          <t>56573048</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>"Ambrose PT"</t>
+          <t>Xiaotian</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2333,24 +2333,24 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>4328</t>
+          <t>4370</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>35664</t>
+          <t>33981</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>56573048</t>
+          <t>38561634</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Xiaotian</t>
+          <t>"Ambrose PT"</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2360,14 +2360,14 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>4238</t>
+          <t>4328</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>35795</t>
+          <t>35986</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2394,7 +2394,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>37284</t>
+          <t>37449</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2414,14 +2414,14 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>4167</t>
+          <t>4166</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>39592</t>
+          <t>39740</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2448,7 +2448,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>40627</t>
+          <t>40561</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2468,14 +2468,14 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>4000</t>
+          <t>4009</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>42093</t>
+          <t>42223</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2502,7 +2502,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>42811</t>
+          <t>42965</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2522,14 +2522,14 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>3841</t>
+          <t>3839</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>48853</t>
+          <t>48522</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2549,14 +2549,14 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>3300</t>
+          <t>3332</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>49865</t>
+          <t>49969</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -2583,7 +2583,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>51450</t>
+          <t>51559</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -2603,14 +2603,14 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>3113</t>
+          <t>3111</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>56742</t>
+          <t>56814</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -2637,7 +2637,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>58899</t>
+          <t>58989</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -2664,7 +2664,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>60831</t>
+          <t>60905</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -2826,7 +2826,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>14612</t>
+          <t>14811</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -2846,7 +2846,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>5329</t>
+          <t>5324</t>
         </is>
       </c>
     </row>
@@ -2880,17 +2880,17 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>23170</t>
+          <t>22386</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>37069173</t>
+          <t>46289694</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>詹toniii</t>
+          <t>㊥Vincent</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2900,24 +2900,24 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>4822</t>
+          <t>4872</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>23720</t>
+          <t>22882</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>46289694</t>
+          <t>37069173</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>㊥Vincent</t>
+          <t>詹toniii</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2927,14 +2927,14 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>4792</t>
+          <t>4845</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>24289</t>
+          <t>24530</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -2961,7 +2961,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>25323</t>
+          <t>25587</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -2988,7 +2988,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>26702</t>
+          <t>26739</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -3008,14 +3008,14 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>4653</t>
+          <t>4659</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>52379</t>
+          <t>51944</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -3035,14 +3035,14 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>3056</t>
+          <t>3087</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>8181</t>
+          <t>8244</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -3069,7 +3069,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>13716</t>
+          <t>11770</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -3089,14 +3089,14 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>5394</t>
+          <t>5560</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>24906</t>
+          <t>24401</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -3116,14 +3116,14 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>4735</t>
+          <t>4770</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>26234</t>
+          <t>26433</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -3150,7 +3150,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>29991</t>
+          <t>30195</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -3170,24 +3170,24 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>4510</t>
+          <t>4509</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>31914</t>
+          <t>31244</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>56585361</t>
+          <t>58743790</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>"㊥ go策划我要ali"</t>
+          <t>Ma</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3197,24 +3197,24 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>4417</t>
+          <t>4461</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>32485</t>
+          <t>33101</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>58743790</t>
+          <t>56585361</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Ma</t>
+          <t>"㊥ go策划我要ali"</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3224,24 +3224,24 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>4390</t>
+          <t>4371</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>33024</t>
+          <t>33281</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>3649043</t>
+          <t>56379103</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Dj6106</t>
+          <t>Globalking</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3251,24 +3251,24 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>4367</t>
+          <t>4362</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>33126</t>
+          <t>33294</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>56379103</t>
+          <t>3649043</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Globalking</t>
+          <t>Dj6106</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3278,14 +3278,14 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>4361</t>
+          <t>4362</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>33555</t>
+          <t>34229</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -3305,14 +3305,14 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>4340</t>
+          <t>4317</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>34586</t>
+          <t>34906</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -3332,14 +3332,14 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>4289</t>
+          <t>4282</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>35472</t>
+          <t>35537</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -3359,24 +3359,24 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>4247</t>
+          <t>4251</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>38510</t>
+          <t>36007</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>58408326</t>
+          <t>55499394</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>"Killer Bee"</t>
+          <t>Player-55499394</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -3386,24 +3386,24 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>4107</t>
+          <t>4231</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>39184</t>
+          <t>38763</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>45404911</t>
+          <t>58408326</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>小伙伴666</t>
+          <t>"Killer Bee"</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3413,24 +3413,24 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>4074</t>
+          <t>4101</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>39918</t>
+          <t>39453</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>55499394</t>
+          <t>45404911</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Player-55499394</t>
+          <t>小伙伴666</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3440,14 +3440,14 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>4036</t>
+          <t>4068</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>40064</t>
+          <t>40378</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -3467,14 +3467,14 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>4029</t>
+          <t>4020</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>40491</t>
+          <t>40432</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -3494,14 +3494,14 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>4007</t>
+          <t>4017</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>42070</t>
+          <t>42201</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -3528,7 +3528,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>44029</t>
+          <t>44176</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -3548,14 +3548,14 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>3718</t>
+          <t>3716</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>44077</t>
+          <t>44201</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -3582,7 +3582,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>45789</t>
+          <t>44711</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -3602,14 +3602,14 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>3556</t>
+          <t>3666</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>46138</t>
+          <t>46046</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -3629,14 +3629,14 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>3526</t>
+          <t>3542</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>46986</t>
+          <t>47090</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -3663,7 +3663,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>49213</t>
+          <t>49093</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -3683,14 +3683,14 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>3273</t>
+          <t>3288</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>50974</t>
+          <t>51047</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -3717,7 +3717,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>51226</t>
+          <t>51304</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -3744,7 +3744,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>61993</t>
+          <t>62095</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -3764,14 +3764,14 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>2652</t>
+          <t>2651</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>62101</t>
+          <t>62184</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -3798,7 +3798,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>62980</t>
+          <t>63101</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -3818,14 +3818,14 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>2622</t>
+          <t>2621</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>63495</t>
+          <t>63575</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -3852,7 +3852,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>63789</t>
+          <t>63870</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -3879,7 +3879,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>70996</t>
+          <t>71071</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -3906,7 +3906,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>72812</t>
+          <t>72895</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -3933,7 +3933,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>88970</t>
+          <t>89096</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -3953,14 +3953,14 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>2005</t>
+          <t>2004</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>94632</t>
+          <t>94734</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -3987,7 +3987,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>147619</t>
+          <t>147811</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -4176,7 +4176,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>51121</t>
+          <t>51193</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -4203,7 +4203,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>43403</t>
+          <t>43530</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -4257,7 +4257,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>49716</t>
+          <t>49828</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -4277,7 +4277,7 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>3238</t>
+          <t>3237</t>
         </is>
       </c>
     </row>
@@ -4311,7 +4311,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>81648</t>
+          <t>81755</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -4338,7 +4338,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>103006</t>
+          <t>91926</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -4358,14 +4358,14 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>1601</t>
+          <t>1896</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>113522</t>
+          <t>113678</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -4554,7 +4554,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>54642</t>
+          <t>54780</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -4574,14 +4574,14 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>2941</t>
+          <t>2940</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>50404</t>
+          <t>50497</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -4608,7 +4608,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>63612</t>
+          <t>63692</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">

--- a/Season_Trophies/86.xlsx
+++ b/Season_Trophies/86.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E164"/>
+  <dimension ref="A1:E165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -396,7 +396,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>45734</t>
+          <t>45710</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -416,24 +416,24 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3570</t>
+          <t>3664</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>455</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>26424998</t>
+          <t>32613475</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>"Smok3y 1nOnly"</t>
+          <t>"李 无 善 德"</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -443,24 +443,24 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>7349</t>
+          <t>7481</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>727</t>
+          <t>705</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>32613475</t>
+          <t>6940556</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>"李 无 善 德"</t>
+          <t>"Cry ab it林黛玉ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -470,24 +470,24 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>7088</t>
+          <t>7385</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>913</t>
+          <t>925</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>6940556</t>
+          <t>26424998</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>"Cry ab it林黛玉ᶻᵍˣ"</t>
+          <t>"Smok3y 1nOnly"</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -497,14 +497,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>7027</t>
+          <t>7318</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1687</t>
+          <t>3158</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -524,14 +524,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>6839</t>
+          <t>6817</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>7577</t>
+          <t>9615</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -551,14 +551,14 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>5977</t>
+          <t>5955</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -578,14 +578,14 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>7304</t>
+          <t>7589</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>737</t>
+          <t>1160</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -605,14 +605,14 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>7081</t>
+          <t>7252</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>802</t>
+          <t>1367</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -632,14 +632,14 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>7061</t>
+          <t>7192</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>3221</t>
+          <t>2955</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -659,24 +659,24 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>6545</t>
+          <t>6858</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>9522</t>
+          <t>8883</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>21665473</t>
+          <t>43800641</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>"Dog Gamedesiger"</t>
+          <t>㊥蛋蛋大</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -686,14 +686,14 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>5767</t>
+          <t>6028</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>9647</t>
+          <t>9742</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -713,24 +713,24 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>5753</t>
+          <t>5942</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>11253</t>
+          <t>11270</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>43800641</t>
+          <t>21665473</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>㊥蛋蛋大</t>
+          <t>"Dog Gamedesiger"</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -740,14 +740,14 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>5606</t>
+          <t>5785</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>12931</t>
+          <t>12520</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -767,14 +767,14 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>5465</t>
+          <t>5659</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>166</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -794,24 +794,24 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>7388</t>
+          <t>7607</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2281</t>
+          <t>1912</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>46422609</t>
+          <t>31267627</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>㊥林天大大神</t>
+          <t>"㊥ Martin"</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -821,24 +821,24 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>6712</t>
+          <t>7060</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2360</t>
+          <t>2240</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1820342</t>
+          <t>25376635</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>摸鱼爱好者三战</t>
+          <t>"sanchez ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -848,24 +848,24 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>6697</t>
+          <t>6997</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2575</t>
+          <t>2403</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>31267627</t>
+          <t>1820342</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>"㊥ Martin"</t>
+          <t>摸鱼爱好者三战</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -875,24 +875,24 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>6652</t>
+          <t>6961</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2679</t>
+          <t>2464</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>25376635</t>
+          <t>46422609</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>"sanchez ᶻᵍˣ"</t>
+          <t>㊥林天大大神</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -902,14 +902,14 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>6635</t>
+          <t>6947</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>3374</t>
+          <t>3152</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -929,24 +929,24 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>6520</t>
+          <t>6818</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>3546</t>
+          <t>4080</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>21735478</t>
+          <t>3477306</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>耀翔fly</t>
+          <t>"MeGa Tsai"</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -956,24 +956,24 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>6490</t>
+          <t>6647</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>4319</t>
+          <t>4477</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>3477306</t>
+          <t>21735478</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>"MeGa Tsai"</t>
+          <t>耀翔fly</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -983,24 +983,24 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>6367</t>
+          <t>6585</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>4687</t>
+          <t>5055</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>38711610</t>
+          <t>26280580</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>心灵有为</t>
+          <t>AOW全体工作人员吃屎交易大厅</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1010,24 +1010,24 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>6312</t>
+          <t>6491</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>5068</t>
+          <t>5165</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>9541747</t>
+          <t>30411791</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>豹子头林冲</t>
+          <t>"㊥Ⓩ GOÐAFRÆÐI ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1037,24 +1037,24 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>6264</t>
+          <t>6476</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>5085</t>
+          <t>5252</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>26588375</t>
+          <t>33656016</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>何苦僧ai</t>
+          <t>㊥☆梅海听雪☆</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1064,24 +1064,24 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>6262</t>
+          <t>6461</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>4994</t>
+          <t>5312</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>6510348</t>
+          <t>28749280</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Bonpoisson</t>
+          <t>㊥老船⛵⛵</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1091,24 +1091,24 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>6273</t>
+          <t>6452</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>5149</t>
+          <t>5464</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>33656016</t>
+          <t>38711610</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>㊥☆梅海听雪☆</t>
+          <t>心灵有为</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1118,24 +1118,24 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>6254</t>
+          <t>6429</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>5358</t>
+          <t>5594</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>30411791</t>
+          <t>6510348</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>"㊥Ⓩ GOÐAFRÆÐI ᶻᵍˣ"</t>
+          <t>Bonpoisson</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1145,24 +1145,24 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>6229</t>
+          <t>6414</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>5470</t>
+          <t>5158</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>28749280</t>
+          <t>9541747</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>㊥老船⛵⛵</t>
+          <t>豹子头林冲</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1172,24 +1172,24 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>6216</t>
+          <t>6476</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>5537</t>
+          <t>6665</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>44955827</t>
+          <t>31217211</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>丶小阿狸丿</t>
+          <t>解憂雜貨鋪㊥</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1199,24 +1199,24 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>6206</t>
+          <t>6276</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>6750</t>
+          <t>7458</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>26280580</t>
+          <t>29729468</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>AOW全体工作人员吃屎交易大厅</t>
+          <t>"风神舞动 WDᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1226,24 +1226,24 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>6063</t>
+          <t>6179</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>8093</t>
+          <t>8301</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>29729468</t>
+          <t>44955827</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>"风神舞动 WDᶻᵍˣ"</t>
+          <t>丶小阿狸丿</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1253,14 +1253,14 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>5917</t>
+          <t>6083</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>12821</t>
+          <t>13190</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1280,14 +1280,14 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>5474</t>
+          <t>5595</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>12544</t>
+          <t>14118</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1307,14 +1307,14 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>5497</t>
+          <t>5515</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>15830</t>
+          <t>16054</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1334,14 +1334,14 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>5257</t>
+          <t>5375</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>17504</t>
+          <t>17507</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1361,14 +1361,14 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>5154</t>
+          <t>5288</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>20041</t>
+          <t>21724</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1388,14 +1388,14 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>5007</t>
+          <t>5027</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>21300</t>
+          <t>23366</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1422,17 +1422,17 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>26668</t>
+          <t>24796</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>32929656</t>
+          <t>46289694</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>"EIH Wilson Chu"</t>
+          <t>㊥Vincent</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1442,24 +1442,24 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>4663</t>
+          <t>4849</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>48466</t>
+          <t>26409</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>7587898</t>
+          <t>32929656</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>藍精靈ᶻᵍˣ</t>
+          <t>"EIH Wilson Chu"</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1469,24 +1469,24 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>3336</t>
+          <t>4768</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>65982</t>
+          <t>49331</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>47928278</t>
+          <t>7587898</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>"落日幻影 哈哈哈"</t>
+          <t>藍精靈ᶻᵍˣ</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1496,24 +1496,24 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2548</t>
+          <t>3336</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>66757</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>23687250</t>
+          <t>47928278</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>"jetlijp ᶻᵍˣ"</t>
+          <t>"落日幻影 哈哈哈"</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1523,51 +1523,51 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2548</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>1770</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>27484940</t>
+          <t>23687250</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>66666zgx</t>
+          <t>"jetlijp ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>6821</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>18419</t>
+          <t>2780</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>38809086</t>
+          <t>27484940</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Kouenᶻᵍˣ</t>
+          <t>66666zgx</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1577,24 +1577,24 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>5098</t>
+          <t>6888</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>6063</t>
+          <t>19258</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>13738844</t>
+          <t>38809086</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>"Chen Hao"</t>
+          <t>Kouenᶻᵍˣ</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1604,24 +1604,24 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>6144</t>
+          <t>5184</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>10418</t>
+          <t>6223</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>42434117</t>
+          <t>13738844</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>㊥有双飞鸟</t>
+          <t>"Chen Hao"</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1631,24 +1631,24 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>5680</t>
+          <t>6333</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>10449</t>
+          <t>9262</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>49710892</t>
+          <t>42434117</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>MMMMMMM</t>
+          <t>㊥有双飞鸟</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1658,14 +1658,14 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>5677</t>
+          <t>5998</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>10647</t>
+          <t>11780</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1685,24 +1685,24 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>5662</t>
+          <t>5732</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>12440</t>
+          <t>12413</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>53520939</t>
+          <t>49710892</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>㊥虎哥tiger</t>
+          <t>MMMMMMM</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1712,24 +1712,24 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>5505</t>
+          <t>5668</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>14752</t>
+          <t>12888</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>4756174</t>
+          <t>53520939</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>純希です</t>
+          <t>㊥虎哥tiger</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1739,14 +1739,14 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>5328</t>
+          <t>5623</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>15829</t>
+          <t>15808</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1766,14 +1766,14 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>5257</t>
+          <t>5392</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>16047</t>
+          <t>17343</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1793,24 +1793,24 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>5245</t>
+          <t>5298</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>25760</t>
+          <t>18873</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>55769051</t>
+          <t>4756174</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>㊥叮叮当.</t>
+          <t>純希です</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1820,24 +1820,24 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>4705</t>
+          <t>5206</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>23344</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>43812707</t>
+          <t>55769051</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>bbtt</t>
+          <t>㊥叮叮当.</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1847,24 +1847,24 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4932</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>720</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>8741713</t>
+          <t>43812707</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t xml:space="preserve">㊥大咖玩家ky </t>
+          <t>bbtt</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1874,14 +1874,14 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>7090</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>1383</t>
+          <t>1109</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1901,24 +1901,24 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>6909</t>
+          <t>7267</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2325</t>
+          <t>1144</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>29211638</t>
+          <t>8741713</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>"㊥ PhononDisperse"</t>
+          <t xml:space="preserve">㊥大咖玩家ky </t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1928,24 +1928,24 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>6703</t>
+          <t>7257</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>4456</t>
+          <t>1671</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>16206490</t>
+          <t>29211638</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>㊥Godcys</t>
+          <t>"㊥ PhononDisperse"</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1955,24 +1955,24 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>6346</t>
+          <t>7117</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>7122</t>
+          <t>4341</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>4493731</t>
+          <t>26588375</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Player-1527362</t>
+          <t>何苦僧ai</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1982,24 +1982,24 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>6025</t>
+          <t>6603</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>7226</t>
+          <t>4418</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>7852598</t>
+          <t>16206490</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>seiji</t>
+          <t>㊥Godcys</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2009,24 +2009,24 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>6014</t>
+          <t>6591</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>9535</t>
+          <t>6811</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>31217211</t>
+          <t>4493731</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>解憂雜貨鋪㊥</t>
+          <t>Player-1527362</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2036,24 +2036,24 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>5765</t>
+          <t>6258</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>10363</t>
+          <t>7547</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>47131129</t>
+          <t>7852598</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>NAM</t>
+          <t>seiji</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2063,24 +2063,24 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>5686</t>
+          <t>6168</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>10461</t>
+          <t>9801</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>22885399</t>
+          <t>47131129</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>余文琪</t>
+          <t>NAM</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2090,24 +2090,24 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>5677</t>
+          <t>5936</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>15035</t>
+          <t>10552</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>56133764</t>
+          <t>22885399</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>ustcarter</t>
+          <t>余文琪</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2117,24 +2117,24 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>5308</t>
+          <t>5857</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>16474</t>
+          <t>12006</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>6809364</t>
+          <t>37861953</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>"Scorp IP"</t>
+          <t>"Durex ๑• . •๑"</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2144,24 +2144,24 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>5219</t>
+          <t>5708</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>17019</t>
+          <t>12498</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>8057001</t>
+          <t>56133764</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>㊥兵者诡道也</t>
+          <t>ustcarter</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2171,24 +2171,24 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>5186</t>
+          <t>5660</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>18944</t>
+          <t>16264</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>38995116</t>
+          <t>8057001</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>"Ramesh Pavai Nam"</t>
+          <t>㊥兵者诡道也</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2198,24 +2198,24 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>5067</t>
+          <t>5362</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>21511</t>
+          <t>16874</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>54778421</t>
+          <t>6809364</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Emma</t>
+          <t>"Scorp IP"</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2225,24 +2225,24 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>4918</t>
+          <t>5323</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>22179</t>
+          <t>18580</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>11582001</t>
+          <t>38995116</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>iMinatoX4</t>
+          <t>"Ramesh Pavai Nam"</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2252,24 +2252,24 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>4882</t>
+          <t>5222</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>24171</t>
+          <t>20219</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>54085771</t>
+          <t>54778421</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>㊥Matthieu</t>
+          <t>Emma</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2279,24 +2279,24 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>4781</t>
+          <t>5120</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>32885</t>
+          <t>23598</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>55860890</t>
+          <t>11582001</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>㊥Ethan</t>
+          <t>iMinatoX4</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2306,24 +2306,24 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>4381</t>
+          <t>4918</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>33123</t>
+          <t>26211</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>56573048</t>
+          <t>54085771</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Xiaotian</t>
+          <t>㊥Matthieu</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2333,24 +2333,24 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>4370</t>
+          <t>4778</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>33981</t>
+          <t>28690</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>38561634</t>
+          <t>55860890</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>"Ambrose PT"</t>
+          <t>㊥Ethan</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2360,24 +2360,24 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>4328</t>
+          <t>4660</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>35986</t>
+          <t>30563</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>31401481</t>
+          <t>56573048</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Player-31401481</t>
+          <t>Xiaotian</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2387,24 +2387,24 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>4232</t>
+          <t>4579</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>37449</t>
+          <t>31429</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>32316256</t>
+          <t>31401481</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>"秋の風 .."</t>
+          <t>Player-31401481</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2414,24 +2414,24 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>4166</t>
+          <t>4541</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>39740</t>
+          <t>32450</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>58203298</t>
+          <t>32316256</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>权旨qua</t>
+          <t>"秋の風 .."</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2441,24 +2441,24 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>4053</t>
+          <t>4492</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>40561</t>
+          <t>33192</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>56500325</t>
+          <t>38561634</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>haruharuyukizg9735</t>
+          <t>"Ambrose PT"</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2468,14 +2468,14 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>4009</t>
+          <t>4454</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>42223</t>
+          <t>36120</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2495,14 +2495,14 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>3914</t>
+          <t>4300</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>42965</t>
+          <t>40394</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2522,24 +2522,24 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>3839</t>
+          <t>4085</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>48522</t>
+          <t>40806</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>1550355</t>
+          <t>58203298</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>"皓茵 世界"</t>
+          <t>权旨qua</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2549,24 +2549,24 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>3332</t>
+          <t>4064</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>49969</t>
+          <t>41099</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>22161051</t>
+          <t>56500325</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Botz5</t>
+          <t>haruharuyukizg9735</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2576,24 +2576,24 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>3229</t>
+          <t>4047</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>51559</t>
+          <t>49407</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>57813281</t>
+          <t>1550355</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>XAUEN</t>
+          <t>"皓茵 世界"</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2603,24 +2603,24 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>3111</t>
+          <t>3331</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>56814</t>
+          <t>50917</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>68132</t>
+          <t>22161051</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>"㊖TW9 百媚生"</t>
+          <t>Botz5</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2630,24 +2630,24 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2849</t>
+          <t>3225</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>58989</t>
+          <t>52574</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>14110169</t>
+          <t>57813281</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>"Pasiony CANQ"</t>
+          <t>XAUEN</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2657,24 +2657,24 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2758</t>
+          <t>3103</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>60905</t>
+          <t>56172</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>24733875</t>
+          <t>68132</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>龍少</t>
+          <t>"㊖TW9 百媚生"</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2684,24 +2684,24 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2689</t>
+          <t>2912</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>59688</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>29565</t>
+          <t>14110169</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>"aK.j Zhong ㊥"</t>
+          <t>"Pasiony CANQ"</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2711,24 +2711,24 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2758</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>61645</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>12639656</t>
+          <t>24733875</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>"wu huang"</t>
+          <t>龍少</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2738,7 +2738,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2689</t>
         </is>
       </c>
     </row>
@@ -2750,12 +2750,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>47758619</t>
+          <t>29565</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>"㊥ Moon ㊥"</t>
+          <t>"aK.j Zhong ㊥"</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2777,12 +2777,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>44789201</t>
+          <t>12639656</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>华夏四川广安</t>
+          <t>"wu huang"</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2804,12 +2804,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>32478707</t>
+          <t>47758619</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>"Bt So"</t>
+          <t>"㊥ Moon ㊥"</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2826,27 +2826,27 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>14811</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>31134300</t>
+          <t>44789201</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>McMaX</t>
+          <t>华夏四川广安</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>5324</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2858,17 +2858,17 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>44378757</t>
+          <t>32478707</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
+          <t>"Bt So"</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -2880,17 +2880,17 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>22386</t>
+          <t>15535</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>46289694</t>
+          <t>31134300</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>㊥Vincent</t>
+          <t>McMaX</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2900,24 +2900,24 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>4872</t>
+          <t>5411</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>22882</t>
+          <t>52015</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>37069173</t>
+          <t>43281368</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>詹toniii</t>
+          <t>xhs2763</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2927,24 +2927,24 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>4845</t>
+          <t>3140</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>24530</t>
+          <t>69416</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>25479797</t>
+          <t>44378757</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>"Mohamed Alnaqbi"</t>
+          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2954,24 +2954,24 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>4765</t>
+          <t>2500</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>25587</t>
+          <t>23272</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>28855852</t>
+          <t>25479797</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>tiger</t>
+          <t>"Mohamed Alnaqbi"</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2981,24 +2981,24 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>4715</t>
+          <t>4937</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>26739</t>
+          <t>24324</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>44708798</t>
+          <t>37069173</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>"㊥ mythgod"</t>
+          <t>詹toniii</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3008,24 +3008,24 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>4659</t>
+          <t>4875</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>51944</t>
+          <t>26454</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>54588689</t>
+          <t>28855852</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>㊥墨衍枫迹☜</t>
+          <t>tiger</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3035,24 +3035,24 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>3087</t>
+          <t>4766</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>8244</t>
+          <t>26739</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>7025661</t>
+          <t>44708798</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>"F ᶻᵍˣ"</t>
+          <t>"㊥ mythgod"</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3062,24 +3062,24 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>5899</t>
+          <t>4752</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>11770</t>
+          <t>52653</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>25163202</t>
+          <t>54588689</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>"sam yang"</t>
+          <t>㊥墨衍枫迹☜</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3089,24 +3089,24 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>5560</t>
+          <t>3098</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>24401</t>
+          <t>8350</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>55634661</t>
+          <t>7025661</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Opalus</t>
+          <t>"F ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3116,14 +3116,14 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>4770</t>
+          <t>6078</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>26433</t>
+          <t>22060</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -3143,24 +3143,24 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>4674</t>
+          <t>5008</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>30195</t>
+          <t>26397</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>47459684</t>
+          <t>55634661</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>㊥阿闹切克闹</t>
+          <t>Opalus</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3170,24 +3170,24 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>4509</t>
+          <t>4768</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>31244</t>
+          <t>29333</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>58743790</t>
+          <t>18082891</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Ma</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3197,24 +3197,24 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>4461</t>
+          <t>4632</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>33101</t>
+          <t>30675</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>56585361</t>
+          <t>47459684</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>"㊥ go策划我要ali"</t>
+          <t>㊥阿闹切克闹</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3224,24 +3224,24 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>4371</t>
+          <t>4575</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>33281</t>
+          <t>31866</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>56379103</t>
+          <t>3649043</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Globalking</t>
+          <t>Dj6106</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3251,24 +3251,24 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>4362</t>
+          <t>4520</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>33294</t>
+          <t>32962</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>3649043</t>
+          <t>58743790</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Dj6106</t>
+          <t>Ma</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3278,24 +3278,24 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>4362</t>
+          <t>4466</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>34229</t>
+          <t>34144</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>18082891</t>
+          <t>56379103</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Globalking</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3305,14 +3305,14 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>4317</t>
+          <t>4402</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>34906</t>
+          <t>34344</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -3332,24 +3332,24 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>4282</t>
+          <t>4392</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>35537</t>
+          <t>36406</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>58839983</t>
+          <t>55499394</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>每逢佳节胖六斤</t>
+          <t>Player-55499394</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3359,24 +3359,24 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>4251</t>
+          <t>4285</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>36007</t>
+          <t>36466</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>55499394</t>
+          <t>56585361</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Player-55499394</t>
+          <t>"㊥ go策划我要ali"</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -3386,24 +3386,24 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>4231</t>
+          <t>4282</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>38763</t>
+          <t>37023</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>58408326</t>
+          <t>58839983</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>"Killer Bee"</t>
+          <t>每逢佳节胖六斤</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3413,14 +3413,14 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>4101</t>
+          <t>4254</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>39453</t>
+          <t>39783</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -3440,24 +3440,24 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>4068</t>
+          <t>4116</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>40378</t>
+          <t>40676</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>47244896</t>
+          <t>58408326</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Dropthebeat</t>
+          <t>"Killer Bee"</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3467,14 +3467,14 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>4020</t>
+          <t>4071</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>40432</t>
+          <t>41462</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -3494,24 +3494,24 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>4017</t>
+          <t>4026</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>42201</t>
+          <t>41526</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>48738257</t>
+          <t>47244896</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>死亡洲际跳蛋</t>
+          <t>Dropthebeat</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3521,24 +3521,24 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>3916</t>
+          <t>4021</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>44176</t>
+          <t>43017</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>52997727</t>
+          <t>48738257</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>larios</t>
+          <t>死亡洲际跳蛋</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3548,14 +3548,14 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>3716</t>
+          <t>3939</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>44201</t>
+          <t>43541</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -3575,24 +3575,24 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>3715</t>
+          <t>3892</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>44711</t>
+          <t>43656</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>58641574</t>
+          <t>52997727</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Player-58641574鱼</t>
+          <t>larios</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3602,24 +3602,24 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>3666</t>
+          <t>3880</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>46046</t>
+          <t>45798</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>48634530</t>
+          <t>58641574</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>leezhenrui</t>
+          <t>Player-58641574鱼</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3629,24 +3629,24 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>3542</t>
+          <t>3655</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>47090</t>
+          <t>46442</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>56700848</t>
+          <t>48634530</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>工口漫画老师</t>
+          <t>leezhenrui</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3656,24 +3656,24 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>3453</t>
+          <t>3591</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>49093</t>
+          <t>48002</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>58940575</t>
+          <t>56700848</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>图啊图z z</t>
+          <t>工口漫画老师</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3683,24 +3683,24 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>3288</t>
+          <t>3450</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>51047</t>
+          <t>50384</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>52157846</t>
+          <t>58940575</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Hamza</t>
+          <t>图啊图z z</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3710,24 +3710,24 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>3147</t>
+          <t>3260</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>51304</t>
+          <t>52075</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>43281368</t>
+          <t>52157846</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>xhs2763</t>
+          <t>Hamza</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3737,24 +3737,24 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>3130</t>
+          <t>3136</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>62095</t>
+          <t>61847</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>47430231</t>
+          <t>52792063</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Kentantrino</t>
+          <t>"Tramaine Dowlen"</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3764,24 +3764,24 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>2651</t>
+          <t>2682</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>62184</t>
+          <t>63043</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>5367482</t>
+          <t>47430231</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Ігор</t>
+          <t>Kentantrino</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -3791,24 +3791,24 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>2648</t>
+          <t>2645</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>63101</t>
+          <t>63103</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>52792063</t>
+          <t>5367482</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>"Tramaine Dowlen"</t>
+          <t>Ігор</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -3818,14 +3818,14 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>2621</t>
+          <t>2643</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>63575</t>
+          <t>63370</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -3845,14 +3845,14 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>2608</t>
+          <t>2635</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>63870</t>
+          <t>63603</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -3872,14 +3872,14 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>2600</t>
+          <t>2628</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>71071</t>
+          <t>71446</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -3899,14 +3899,14 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>2456</t>
+          <t>2467</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>72895</t>
+          <t>73387</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -3926,14 +3926,14 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>2385</t>
+          <t>2398</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>89096</t>
+          <t>90354</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -3953,14 +3953,14 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>2004</t>
+          <t>1999</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>94734</t>
+          <t>95800</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -3980,14 +3980,14 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>1779</t>
+          <t>1782</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>147811</t>
+          <t>151043</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -4007,7 +4007,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>1126</t>
+          <t>1125</t>
         </is>
       </c>
     </row>
@@ -4176,7 +4176,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>51193</t>
+          <t>51875</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -4196,14 +4196,14 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>3137</t>
+          <t>3150</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>43530</t>
+          <t>44785</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -4223,7 +4223,7 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>3782</t>
+          <t>3757</t>
         </is>
       </c>
     </row>
@@ -4257,7 +4257,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>49828</t>
+          <t>50334</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -4277,7 +4277,7 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>3237</t>
+          <t>3264</t>
         </is>
       </c>
     </row>
@@ -4311,7 +4311,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>81755</t>
+          <t>82225</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -4331,14 +4331,14 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>2166</t>
+          <t>2180</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>91926</t>
+          <t>92616</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -4358,24 +4358,24 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>1896</t>
+          <t>1911</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>113678</t>
+          <t>105603</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>41231396</t>
+          <t>59082827</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>ollsthebro</t>
+          <t>Player-59082827</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -4385,24 +4385,24 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>1498</t>
+          <t>1586</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>115172</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>58572199</t>
+          <t>41231396</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>你干嘛～哎呦～</t>
+          <t>ollsthebro</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -4412,7 +4412,7 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1498</t>
         </is>
       </c>
     </row>
@@ -4424,12 +4424,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>58766144</t>
+          <t>58572199</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>EquablePrecedence38</t>
+          <t>你干嘛～哎呦～</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -4451,12 +4451,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>29355299</t>
+          <t>58766144</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Player-29355299</t>
+          <t>EquablePrecedence38</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -4478,12 +4478,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>58910668</t>
+          <t>29355299</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>BrittleAuthor33</t>
+          <t>Player-29355299</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -4505,12 +4505,12 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>55745105</t>
+          <t>58910668</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>eldeniz</t>
+          <t>BrittleAuthor33</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -4532,12 +4532,12 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>58174442</t>
+          <t>55745105</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Player-58174442</t>
+          <t>eldeniz</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -4554,44 +4554,44 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>54780</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>10636651</t>
+          <t>58174442</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>"Ismail Aflou"</t>
+          <t>Player-58174442</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Chinese</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>2940</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>50497</t>
+          <t>55593</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>41848598</t>
+          <t>10636651</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>国家一级保护沙雕</t>
+          <t>"Ismail Aflou"</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -4601,24 +4601,24 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>3189</t>
+          <t>2940</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>63692</t>
+          <t>50570</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>6010122</t>
+          <t>41848598</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>"Edward Peng"</t>
+          <t>国家一级保护沙雕</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -4628,24 +4628,24 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>2604</t>
+          <t>3248</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>64409</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>12648101</t>
+          <t>6010122</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>"player 198827"</t>
+          <t>"Edward Peng"</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -4655,7 +4655,7 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2604</t>
         </is>
       </c>
     </row>
@@ -4667,12 +4667,12 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>9195340</t>
+          <t>12648101</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Namllllllik</t>
+          <t>"player 198827"</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -4694,12 +4694,12 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>15755724</t>
+          <t>9195340</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>"Last Good"</t>
+          <t>Namllllllik</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -4721,12 +4721,12 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>8850180</t>
+          <t>15755724</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>30624300</t>
+          <t>"Last Good"</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -4748,12 +4748,12 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>28624723</t>
+          <t>8850180</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>"Woody Shade"</t>
+          <t>30624300</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -4775,20 +4775,47 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
+          <t>28624723</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>"Woody Shade"</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>999999</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
           <t>9913517</t>
         </is>
       </c>
-      <c r="C164" t="inlineStr">
+      <c r="C165" t="inlineStr">
         <is>
           <t>"Kenny Chan"</t>
         </is>
       </c>
-      <c r="D164" t="inlineStr">
+      <c r="D165" t="inlineStr">
         <is>
           <t>Chinese</t>
         </is>
       </c>
-      <c r="E164" t="inlineStr">
+      <c r="E165" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/Season_Trophies/86.xlsx
+++ b/Season_Trophies/86.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E165"/>
+  <dimension ref="A1:E158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -396,7 +396,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>45710</t>
+          <t>46192</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -423,17 +423,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>32613475</t>
+          <t>26424998</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>"李 无 善 德"</t>
+          <t>"Smok3y 1nOnly"</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -443,24 +443,24 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>7481</t>
+          <t>7573</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>705</t>
+          <t>485</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>6940556</t>
+          <t>32613475</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>"Cry ab it林黛玉ᶻᵍˣ"</t>
+          <t>"李 无 善 德"</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -470,24 +470,24 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>7385</t>
+          <t>7472</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>925</t>
+          <t>731</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>26424998</t>
+          <t>6940556</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>"Smok3y 1nOnly"</t>
+          <t>"Cry ab it林黛玉ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -497,14 +497,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>7318</t>
+          <t>7383</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3158</t>
+          <t>3367</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -531,7 +531,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>9615</t>
+          <t>5892</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -551,14 +551,14 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>5955</t>
+          <t>6415</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>209</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -585,17 +585,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1160</t>
+          <t>768</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>27468237</t>
+          <t>3946814</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>佛系复仇者秀川</t>
+          <t>"小瑩 潘"</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -605,24 +605,24 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>7252</t>
+          <t>7371</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1367</t>
+          <t>1216</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>3946814</t>
+          <t>27468237</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>"小瑩 潘"</t>
+          <t>佛系复仇者秀川</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -632,14 +632,14 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>7192</t>
+          <t>7257</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2955</t>
+          <t>2076</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -659,14 +659,14 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>6858</t>
+          <t>7062</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>8883</t>
+          <t>9329</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -686,14 +686,14 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>6028</t>
+          <t>6027</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>9742</t>
+          <t>10055</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -713,24 +713,24 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>5942</t>
+          <t>5957</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>11270</t>
+          <t>10251</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>21665473</t>
+          <t>14424176</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>"Dog Gamedesiger"</t>
+          <t>天才少年老纪</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -740,24 +740,24 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>5785</t>
+          <t>5937</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>12520</t>
+          <t>11723</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>14424176</t>
+          <t>21665473</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>天才少年老纪</t>
+          <t>"Dog Gamedesiger"</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -767,14 +767,14 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>5659</t>
+          <t>5785</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>183</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -794,24 +794,24 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>7607</t>
+          <t>7601</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1912</t>
+          <t>800</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>31267627</t>
+          <t>1951758</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>"㊥ Martin"</t>
+          <t>我來找你了</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -821,24 +821,24 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>7060</t>
+          <t>7362</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2240</t>
+          <t>1307</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>25376635</t>
+          <t>8741713</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>"sanchez ᶻᵍˣ"</t>
+          <t xml:space="preserve">㊥大咖玩家ky </t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -848,24 +848,24 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>6997</t>
+          <t>7232</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2403</t>
+          <t>1856</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1820342</t>
+          <t>29211638</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>摸鱼爱好者三战</t>
+          <t>"㊥ PhononDisperse"</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -875,24 +875,24 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>6961</t>
+          <t>7103</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2464</t>
+          <t>2080</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>46422609</t>
+          <t>31267627</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>㊥林天大大神</t>
+          <t>"㊥ Martin"</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -902,24 +902,24 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>6947</t>
+          <t>7060</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>3152</t>
+          <t>2218</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>11783968</t>
+          <t>25376635</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>F---119</t>
+          <t>"sanchez ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -929,24 +929,24 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>6818</t>
+          <t>7033</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>4080</t>
+          <t>2308</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>3477306</t>
+          <t>1820342</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>"MeGa Tsai"</t>
+          <t>摸鱼爱好者三战</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -956,24 +956,24 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>6647</t>
+          <t>7017</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>4477</t>
+          <t>2859</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>21735478</t>
+          <t>46422609</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>耀翔fly</t>
+          <t>㊥林天大大神</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -983,24 +983,24 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>6585</t>
+          <t>6909</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>5055</t>
+          <t>3276</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>26280580</t>
+          <t>31217211</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>AOW全体工作人员吃屎交易大厅</t>
+          <t>解憂雜貨鋪㊥</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1010,24 +1010,24 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>6491</t>
+          <t>6833</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>5165</t>
+          <t>3363</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>30411791</t>
+          <t>11783968</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>"㊥Ⓩ GOÐAFRÆÐI ᶻᵍˣ"</t>
+          <t>F---119</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1037,24 +1037,24 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>6476</t>
+          <t>6818</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>5252</t>
+          <t>3386</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>33656016</t>
+          <t>28749280</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>㊥☆梅海听雪☆</t>
+          <t>㊥老船⛵⛵</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1064,24 +1064,24 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>6461</t>
+          <t>6813</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>5312</t>
+          <t>3729</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>28749280</t>
+          <t>16206490</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>㊥老船⛵⛵</t>
+          <t>㊥Godcys</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1091,24 +1091,24 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>6452</t>
+          <t>6752</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>5464</t>
+          <t>4189</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>38711610</t>
+          <t>21735478</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>心灵有为</t>
+          <t>耀翔fly</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1118,24 +1118,24 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>6429</t>
+          <t>6670</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>5594</t>
+          <t>4263</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>6510348</t>
+          <t>3477306</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Bonpoisson</t>
+          <t>"MeGa Tsai"</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1145,24 +1145,24 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>6414</t>
+          <t>6658</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>5158</t>
+          <t>4080</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>9541747</t>
+          <t>26280580</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>豹子头林冲</t>
+          <t>AOW全体工作人员吃屎交易大厅</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1172,24 +1172,24 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>6476</t>
+          <t>6692</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>6665</t>
+          <t>5274</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>31217211</t>
+          <t>30411791</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>解憂雜貨鋪㊥</t>
+          <t>"㊥Ⓩ GOÐAFRÆÐI ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1199,24 +1199,24 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>6276</t>
+          <t>6501</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>7458</t>
+          <t>5544</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>29729468</t>
+          <t>9541747</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>"风神舞动 WDᶻᵍˣ"</t>
+          <t>豹子头林冲</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1226,24 +1226,24 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>6179</t>
+          <t>6463</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>8301</t>
+          <t>5647</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>44955827</t>
+          <t>38711610</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>丶小阿狸丿</t>
+          <t>心灵有为</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1253,24 +1253,24 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>6083</t>
+          <t>6446</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>13190</t>
+          <t>5737</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>47146736</t>
+          <t>33656016</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>"HK 品瑜"</t>
+          <t>㊥☆梅海听雪☆</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1280,24 +1280,24 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>5595</t>
+          <t>6433</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>14118</t>
+          <t>6290</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>12333251</t>
+          <t>6510348</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>"㊌ Mingxuan"</t>
+          <t>Bonpoisson</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1307,24 +1307,24 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>5515</t>
+          <t>6365</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>16054</t>
+          <t>7919</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>29861826</t>
+          <t>29729468</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>★★★Eric★★★</t>
+          <t>"风神舞动 WDᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1334,24 +1334,24 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>5375</t>
+          <t>6170</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>17507</t>
+          <t>8754</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>55317038</t>
+          <t>7025661</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>necman12345</t>
+          <t>"F ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1361,24 +1361,24 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>5288</t>
+          <t>6078</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>21724</t>
+          <t>9098</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>45967307</t>
+          <t>44955827</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Ricky</t>
+          <t>丶小阿狸丿</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1388,24 +1388,24 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>5027</t>
+          <t>6047</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>23366</t>
+          <t>12171</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>20737010</t>
+          <t>47146736</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>混着玩...</t>
+          <t>"HK 品瑜"</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1415,24 +1415,24 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>4932</t>
+          <t>5740</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>24796</t>
+          <t>13763</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>46289694</t>
+          <t>12333251</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>㊥Vincent</t>
+          <t>"㊌ Mingxuan"</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1442,24 +1442,24 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>4849</t>
+          <t>5596</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>26409</t>
+          <t>16834</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>32929656</t>
+          <t>29861826</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>"EIH Wilson Chu"</t>
+          <t>★★★Eric★★★</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1469,24 +1469,24 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>4768</t>
+          <t>5375</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>49331</t>
+          <t>18442</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>7587898</t>
+          <t>55317038</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>藍精靈ᶻᵍˣ</t>
+          <t>necman12345</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1496,24 +1496,24 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>3336</t>
+          <t>5283</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>66757</t>
+          <t>18506</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>47928278</t>
+          <t>28387448</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>"落日幻影 哈哈哈"</t>
+          <t>☜⊙‖⊙☞</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1523,24 +1523,24 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2548</t>
+          <t>5280</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>18150</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>23687250</t>
+          <t>45967307</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>"jetlijp ᶻᵍˣ"</t>
+          <t>Ricky</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1550,159 +1550,159 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5300</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2780</t>
+          <t>23963</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>27484940</t>
+          <t>46289694</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>66666zgx</t>
+          <t>㊥Vincent</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>6888</t>
+          <t>4948</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>19258</t>
+          <t>24234</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>38809086</t>
+          <t>20737010</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Kouenᶻᵍˣ</t>
+          <t>混着玩...</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>5184</t>
+          <t>4932</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>6223</t>
+          <t>49457</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>13738844</t>
+          <t>7587898</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>"Chen Hao"</t>
+          <t>藍精靈ᶻᵍˣ</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>6333</t>
+          <t>3368</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>9262</t>
+          <t>67172</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>42434117</t>
+          <t>47928278</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>㊥有双飞鸟</t>
+          <t>"落日幻影 哈哈哈"</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>5998</t>
+          <t>2548</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>11780</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>53060417</t>
+          <t>23687250</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>㊥老纳信耶稣</t>
+          <t>"jetlijp ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>5732</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>12413</t>
+          <t>4724</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>49710892</t>
+          <t>26588375</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>MMMMMMM</t>
+          <t>何苦僧ai</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1712,24 +1712,24 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>5668</t>
+          <t>6585</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>12888</t>
+          <t>6581</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>53520939</t>
+          <t>13738844</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>㊥虎哥tiger</t>
+          <t>"Chen Hao"</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1739,24 +1739,24 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>5623</t>
+          <t>6330</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>15808</t>
+          <t>12173</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>31495601</t>
+          <t>37861953</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>陈晓军</t>
+          <t>"Durex ๑• . •๑"</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1766,24 +1766,24 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>5392</t>
+          <t>5740</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>17343</t>
+          <t>18596</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>54698813</t>
+          <t>38809086</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>閃亮唐老鴨</t>
+          <t>Kouenᶻᵍˣ</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1793,24 +1793,24 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>5298</t>
+          <t>5275</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>18873</t>
+          <t>10104</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>4756174</t>
+          <t>42434117</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>純希です</t>
+          <t>㊥有双飞鸟</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1820,24 +1820,24 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>5206</t>
+          <t>5952</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>23344</t>
+          <t>10814</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>55769051</t>
+          <t>49710892</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>㊥叮叮当.</t>
+          <t>MMMMMMM</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1847,24 +1847,24 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>4932</t>
+          <t>5873</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>13081</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>43812707</t>
+          <t>53060417</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>bbtt</t>
+          <t>㊥老纳信耶稣</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1874,24 +1874,24 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5653</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>1109</t>
+          <t>13066</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>1951758</t>
+          <t>53520939</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>我來找你了</t>
+          <t>㊥虎哥tiger</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1901,24 +1901,24 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>7267</t>
+          <t>5654</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>1144</t>
+          <t>15328</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>8741713</t>
+          <t>31495601</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t xml:space="preserve">㊥大咖玩家ky </t>
+          <t>陈晓军</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1928,24 +1928,24 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>7257</t>
+          <t>5474</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>1671</t>
+          <t>18034</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>29211638</t>
+          <t>4756174</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>"㊥ PhononDisperse"</t>
+          <t>純希です</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1955,24 +1955,24 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>7117</t>
+          <t>5305</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>4341</t>
+          <t>18552</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>26588375</t>
+          <t>54698813</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>何苦僧ai</t>
+          <t>閃亮唐老鴨</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1982,24 +1982,24 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>6603</t>
+          <t>5277</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>4418</t>
+          <t>24136</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>16206490</t>
+          <t>55769051</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>㊥Godcys</t>
+          <t>㊥叮叮当.</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2009,14 +2009,14 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>6591</t>
+          <t>4938</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>6811</t>
+          <t>7255</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2036,14 +2036,14 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>6258</t>
+          <t>6244</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>7547</t>
+          <t>7932</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2070,7 +2070,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>9801</t>
+          <t>9747</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2090,14 +2090,14 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>5936</t>
+          <t>5996</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>10552</t>
+          <t>10990</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2124,17 +2124,17 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>12006</t>
+          <t>15443</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>37861953</t>
+          <t>56133764</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>"Durex ๑• . •๑"</t>
+          <t>ustcarter</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2144,24 +2144,24 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>5708</t>
+          <t>5465</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>12498</t>
+          <t>16280</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>56133764</t>
+          <t>6809364</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>ustcarter</t>
+          <t>"Scorp IP"</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2171,14 +2171,14 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>5660</t>
+          <t>5410</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>16264</t>
+          <t>17304</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2198,24 +2198,24 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>5362</t>
+          <t>5346</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>16874</t>
+          <t>20251</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>6809364</t>
+          <t>38995116</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>"Scorp IP"</t>
+          <t>"Ramesh Pavai Nam"</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2225,24 +2225,24 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>5323</t>
+          <t>5172</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>18580</t>
+          <t>21663</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>38995116</t>
+          <t>54778421</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>"Ramesh Pavai Nam"</t>
+          <t>Emma</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2252,24 +2252,24 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>5222</t>
+          <t>5083</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>20219</t>
+          <t>24470</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>54778421</t>
+          <t>11582001</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Emma</t>
+          <t>iMinatoX4</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2279,24 +2279,24 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>5120</t>
+          <t>4918</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>23598</t>
+          <t>25589</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>11582001</t>
+          <t>54085771</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>iMinatoX4</t>
+          <t>㊥Matthieu</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2306,24 +2306,24 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>4918</t>
+          <t>4856</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>26211</t>
+          <t>26039</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>54085771</t>
+          <t>32316256</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>㊥Matthieu</t>
+          <t>"秋の風 .."</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2333,14 +2333,14 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>4778</t>
+          <t>4834</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>28690</t>
+          <t>27262</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2360,24 +2360,24 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>4660</t>
+          <t>4773</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>30563</t>
+          <t>30456</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>56573048</t>
+          <t>38893233</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Xiaotian</t>
+          <t>"快乐 二哈"</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2387,24 +2387,24 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>4579</t>
+          <t>4625</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>31429</t>
+          <t>32623</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>31401481</t>
+          <t>38561634</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Player-31401481</t>
+          <t>"Ambrose PT"</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2414,24 +2414,24 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>4541</t>
+          <t>4530</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>32450</t>
+          <t>32650</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>32316256</t>
+          <t>31401481</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>"秋の風 .."</t>
+          <t>Player-31401481</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2441,24 +2441,24 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>4492</t>
+          <t>4529</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>33192</t>
+          <t>33146</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>38561634</t>
+          <t>56573048</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>"Ambrose PT"</t>
+          <t>Xiaotian</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2468,24 +2468,24 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>4454</t>
+          <t>4505</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>36120</t>
+          <t>40264</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>38893233</t>
+          <t>58203298</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>"快乐 二哈"</t>
+          <t>权旨qua</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2495,14 +2495,14 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>4300</t>
+          <t>4128</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>40394</t>
+          <t>41546</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2522,24 +2522,24 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>4085</t>
+          <t>4059</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>40806</t>
+          <t>42391</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>58203298</t>
+          <t>56500325</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>权旨qua</t>
+          <t>haruharuyukizg9735</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2549,24 +2549,24 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>4064</t>
+          <t>4007</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>41099</t>
+          <t>49430</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>56500325</t>
+          <t>57813281</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>haruharuyukizg9735</t>
+          <t>XAUEN</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2576,14 +2576,14 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>4047</t>
+          <t>3370</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>49407</t>
+          <t>49931</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -2603,14 +2603,14 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>3331</t>
+          <t>3330</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>50917</t>
+          <t>51434</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -2630,24 +2630,24 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>3225</t>
+          <t>3221</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>52574</t>
+          <t>55918</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>57813281</t>
+          <t>68132</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>XAUEN</t>
+          <t>"㊖TW9 百媚生"</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2657,24 +2657,24 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>3103</t>
+          <t>2943</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>56172</t>
+          <t>56551</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>68132</t>
+          <t>14110169</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>"㊖TW9 百媚生"</t>
+          <t>"Pasiony CANQ"</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2684,24 +2684,24 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2912</t>
+          <t>2915</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>59688</t>
+          <t>62079</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>14110169</t>
+          <t>24733875</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>"Pasiony CANQ"</t>
+          <t>龍少</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2711,24 +2711,24 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2758</t>
+          <t>2689</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>61645</t>
+          <t>70163</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>24733875</t>
+          <t>29565</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>龍少</t>
+          <t>"aK.j Zhong ㊥"</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2738,7 +2738,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>2689</t>
+          <t>2499</t>
         </is>
       </c>
     </row>
@@ -2750,12 +2750,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>29565</t>
+          <t>47758619</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>"aK.j Zhong ㊥"</t>
+          <t>"㊥ Moon ㊥"</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2772,125 +2772,125 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>16276</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>12639656</t>
+          <t>31134300</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>"wu huang"</t>
+          <t>McMaX</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5411</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>43396</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>47758619</t>
+          <t>48738257</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>"㊥ Moon ㊥"</t>
+          <t>死亡洲际跳蛋</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3953</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>52447</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>44789201</t>
+          <t>43281368</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>华夏四川广安</t>
+          <t>xhs2763</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3139</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>69870</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>32478707</t>
+          <t>44378757</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>"Bt So"</t>
+          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2500</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>15535</t>
+          <t>22570</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>31134300</t>
+          <t>37069173</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>McMaX</t>
+          <t>詹toniii</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2900,24 +2900,24 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>5411</t>
+          <t>5028</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>52015</t>
+          <t>24158</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>43281368</t>
+          <t>25479797</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>xhs2763</t>
+          <t>"Mohamed Alnaqbi"</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2927,24 +2927,24 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>3140</t>
+          <t>4937</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>69416</t>
+          <t>24604</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>44378757</t>
+          <t>28855852</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
+          <t>tiger</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2954,24 +2954,24 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>4910</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>23272</t>
+          <t>26567</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>25479797</t>
+          <t>44708798</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>"Mohamed Alnaqbi"</t>
+          <t>"㊥ mythgod"</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2981,24 +2981,24 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>4937</t>
+          <t>4808</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>24324</t>
+          <t>52631</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>37069173</t>
+          <t>54588689</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>詹toniii</t>
+          <t>㊥墨衍枫迹☜</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3008,24 +3008,24 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>4875</t>
+          <t>3127</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>26454</t>
+          <t>26012</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>28855852</t>
+          <t>55634661</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>tiger</t>
+          <t>Opalus</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3035,24 +3035,24 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>4766</t>
+          <t>4835</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>26739</t>
+          <t>29418</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>44708798</t>
+          <t>3649043</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>"㊥ mythgod"</t>
+          <t>Dj6106</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3062,24 +3062,24 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>4752</t>
+          <t>4673</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>52653</t>
+          <t>30260</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>54588689</t>
+          <t>18082891</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>㊥墨衍枫迹☜</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3089,24 +3089,24 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>3098</t>
+          <t>4635</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>8350</t>
+          <t>31759</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>7025661</t>
+          <t>47459684</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>"F ᶻᵍˣ"</t>
+          <t>㊥阿闹切克闹</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3116,24 +3116,24 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>6078</t>
+          <t>4570</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>22060</t>
+          <t>34570</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>28387448</t>
+          <t>56379103</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>☜⊙‖⊙☞</t>
+          <t>Globalking</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3143,24 +3143,24 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>5008</t>
+          <t>4428</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>26397</t>
+          <t>34770</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>55634661</t>
+          <t>56585361</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Opalus</t>
+          <t>"㊥ go策划我要ali"</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3170,24 +3170,24 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>4768</t>
+          <t>4417</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>29333</t>
+          <t>34994</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>18082891</t>
+          <t>58743790</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Ma</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3197,24 +3197,24 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>4632</t>
+          <t>4405</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>30675</t>
+          <t>35146</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>47459684</t>
+          <t>56732705</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>㊥阿闹切克闹</t>
+          <t>时间温柔皆遗憾</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3224,24 +3224,24 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>4575</t>
+          <t>4397</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>31866</t>
+          <t>35887</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>3649043</t>
+          <t>58839983</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Dj6106</t>
+          <t>每逢佳节胖六斤</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3251,24 +3251,24 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>4520</t>
+          <t>4356</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>32962</t>
+          <t>36795</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>58743790</t>
+          <t>55499394</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Ma</t>
+          <t>Player-55499394</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3278,24 +3278,24 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>4466</t>
+          <t>4306</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>34144</t>
+          <t>37656</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>56379103</t>
+          <t>11645391</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Globalking</t>
+          <t>"omar omar"</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3305,24 +3305,24 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>4402</t>
+          <t>4262</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>34344</t>
+          <t>39164</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>56732705</t>
+          <t>58408326</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>时间温柔皆遗憾</t>
+          <t>"Killer Bee"</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3332,24 +3332,24 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>4392</t>
+          <t>4184</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>36406</t>
+          <t>42288</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>55499394</t>
+          <t>47244896</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Player-55499394</t>
+          <t>Dropthebeat</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3359,24 +3359,24 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>4285</t>
+          <t>4014</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>36466</t>
+          <t>42562</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>56585361</t>
+          <t>1304123</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>"㊥ go策划我要ali"</t>
+          <t>Cccccccccccc</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -3386,24 +3386,24 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>4282</t>
+          <t>3998</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>37023</t>
+          <t>43715</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>58839983</t>
+          <t>52997727</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>每逢佳节胖六斤</t>
+          <t>larios</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3413,24 +3413,24 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>4254</t>
+          <t>3922</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>39783</t>
+          <t>46354</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>45404911</t>
+          <t>58641574</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>小伙伴666</t>
+          <t>Player-58641574鱼</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3440,24 +3440,24 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>4116</t>
+          <t>3648</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>40676</t>
+          <t>46515</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>58408326</t>
+          <t>48634530</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>"Killer Bee"</t>
+          <t>leezhenrui</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3467,24 +3467,24 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>4071</t>
+          <t>3633</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>41462</t>
+          <t>48502</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>1304123</t>
+          <t>56700848</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Cccccccccccc</t>
+          <t>工口漫画老师</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3494,24 +3494,24 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>4026</t>
+          <t>3448</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>41526</t>
+          <t>50948</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>47244896</t>
+          <t>58940575</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Dropthebeat</t>
+          <t>图啊图z z</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3521,24 +3521,24 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>4021</t>
+          <t>3256</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>43017</t>
+          <t>52584</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>48738257</t>
+          <t>52157846</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>死亡洲际跳蛋</t>
+          <t>Hamza</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3548,24 +3548,24 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>3939</t>
+          <t>3130</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>43541</t>
+          <t>58797</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>11645391</t>
+          <t>9718882</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>"omar omar"</t>
+          <t>小霸王2021</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3575,24 +3575,24 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>3892</t>
+          <t>2810</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>43656</t>
+          <t>62298</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>52997727</t>
+          <t>52792063</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>larios</t>
+          <t>"Tramaine Dowlen"</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3602,24 +3602,24 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>3880</t>
+          <t>2681</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>45798</t>
+          <t>62839</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>58641574</t>
+          <t>3391765</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Player-58641574鱼</t>
+          <t>马er</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3629,24 +3629,24 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>3655</t>
+          <t>2664</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>46442</t>
+          <t>63546</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>48634530</t>
+          <t>47430231</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>leezhenrui</t>
+          <t>Kentantrino</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3656,24 +3656,24 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>3591</t>
+          <t>2643</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>48002</t>
+          <t>63571</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>56700848</t>
+          <t>5367482</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>工口漫画老师</t>
+          <t>Ігор</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3683,24 +3683,24 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>3450</t>
+          <t>2642</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>50384</t>
+          <t>64089</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>58940575</t>
+          <t>15436348</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>图啊图z z</t>
+          <t>Lucas</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3710,24 +3710,24 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>3260</t>
+          <t>2626</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>52075</t>
+          <t>74014</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>52157846</t>
+          <t>20372140</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Hamza</t>
+          <t>人山即是仙</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3737,24 +3737,24 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>3136</t>
+          <t>2395</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>61847</t>
+          <t>91018</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>52792063</t>
+          <t>57219176</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>"Tramaine Dowlen"</t>
+          <t>青莲道人</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3764,24 +3764,24 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>2682</t>
+          <t>1998</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>63043</t>
+          <t>95762</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>47430231</t>
+          <t>54941706</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Kentantrino</t>
+          <t>AlexMenjivar20</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -3791,24 +3791,24 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>2645</t>
+          <t>1806</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>63103</t>
+          <t>150588</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>5367482</t>
+          <t>49000199</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Ігор</t>
+          <t>SlipperyForester5672</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -3818,24 +3818,24 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>2643</t>
+          <t>1156</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>63370</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>3391765</t>
+          <t>38994054</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>马er</t>
+          <t>chengnan</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -3845,24 +3845,24 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>2635</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>63603</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>15436348</t>
+          <t>55810157</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Lucas</t>
+          <t>Beard</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -3872,24 +3872,24 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>2628</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>71446</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>9718882</t>
+          <t>57556179</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>小霸王2021</t>
+          <t>特战新生代英雄</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -3899,24 +3899,24 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>2467</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>73387</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>20372140</t>
+          <t>1222440</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>人山即是仙</t>
+          <t>"Sneaky Ninja Panda"</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -3926,24 +3926,24 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>2398</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>90354</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>57219176</t>
+          <t>58340439</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>青莲道人</t>
+          <t>70qilin</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -3953,24 +3953,24 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>1999</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>95800</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>54941706</t>
+          <t>58615925</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>AlexMenjivar20</t>
+          <t>齐天的大圣</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -3980,61 +3980,61 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>1782</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>151043</t>
+          <t>51606</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>49000199</t>
+          <t>41849539</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>SlipperyForester5672</t>
+          <t>三号馆馆主</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>1125</t>
+          <t>3207</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>45408</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>38994054</t>
+          <t>56241637</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>chengnan</t>
+          <t>Player-14day</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3743</t>
         </is>
       </c>
     </row>
@@ -4046,17 +4046,17 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>55810157</t>
+          <t>47622456</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Beard</t>
+          <t>伊恩</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -4068,27 +4068,27 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>50892</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>57556179</t>
+          <t>55210350</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>特战新生代英雄</t>
+          <t>一个过客而已</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3260</t>
         </is>
       </c>
     </row>
@@ -4100,17 +4100,17 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>1222440</t>
+          <t>49553719</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>"Sneaky Ninja Panda"</t>
+          <t>"Oreo Captain Sir"</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -4122,71 +4122,71 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>80288</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>58340439</t>
+          <t>59081265</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>70qilin</t>
+          <t>爬楼梯</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2230</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>82898</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>58615925</t>
+          <t>58671339</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>齐天的大圣</t>
+          <t>"quang pro"</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2180</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>51875</t>
+          <t>107019</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>41849539</t>
+          <t>59082827</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>三号馆馆主</t>
+          <t>Player-59082827</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -4196,24 +4196,24 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>3150</t>
+          <t>1580</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>44785</t>
+          <t>116229</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>56241637</t>
+          <t>41231396</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Player-14day</t>
+          <t>ollsthebro</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -4223,7 +4223,7 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>3757</t>
+          <t>1498</t>
         </is>
       </c>
     </row>
@@ -4235,12 +4235,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>47622456</t>
+          <t>58572199</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>伊恩</t>
+          <t>你干嘛～哎呦～</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -4257,17 +4257,17 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>50334</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>55210350</t>
+          <t>58766144</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>一个过客而已</t>
+          <t>EquablePrecedence38</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -4277,7 +4277,7 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>3264</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4289,12 +4289,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>49553719</t>
+          <t>29355299</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>"Oreo Captain Sir"</t>
+          <t>Player-29355299</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -4311,17 +4311,17 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>82225</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>58671339</t>
+          <t>58910668</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>"quang pro"</t>
+          <t>BrittleAuthor33</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -4331,24 +4331,24 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>2180</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>92616</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>59081265</t>
+          <t>55745105</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>爬楼梯</t>
+          <t>eldeniz</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -4358,24 +4358,24 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>1911</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>105603</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>59082827</t>
+          <t>58174442</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Player-59082827</t>
+          <t>Player-58174442</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -4385,88 +4385,88 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>1586</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>115172</t>
+          <t>56052</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>41231396</t>
+          <t>10636651</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>ollsthebro</t>
+          <t>"Ismail Aflou"</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>Chinese</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>1498</t>
+          <t>2938</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>50218</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>58572199</t>
+          <t>41848598</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>你干嘛～哎呦～</t>
+          <t>国家一级保护沙雕</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>Chinese</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3310</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>64259</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>58766144</t>
+          <t>6010122</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>EquablePrecedence38</t>
+          <t>"Edward Peng"</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>Chinese</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2620</t>
         </is>
       </c>
     </row>
@@ -4478,17 +4478,17 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>29355299</t>
+          <t>12648101</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Player-29355299</t>
+          <t>"player 198827"</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>Chinese</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -4505,17 +4505,17 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>58910668</t>
+          <t>9195340</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>BrittleAuthor33</t>
+          <t>Namllllllik</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>Chinese</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -4532,17 +4532,17 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>55745105</t>
+          <t>15755724</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>eldeniz</t>
+          <t>"Last Good"</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>Chinese</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -4559,17 +4559,17 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>58174442</t>
+          <t>8850180</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Player-58174442</t>
+          <t>30624300</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>Chinese</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -4581,17 +4581,17 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>55593</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>10636651</t>
+          <t>28624723</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>"Ismail Aflou"</t>
+          <t>"Woody Shade"</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -4601,24 +4601,24 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>2940</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>50570</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>41848598</t>
+          <t>9913517</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>国家一级保护沙雕</t>
+          <t>"Kenny Chan"</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -4627,195 +4627,6 @@
         </is>
       </c>
       <c r="E158" t="inlineStr">
-        <is>
-          <t>3248</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>64409</t>
-        </is>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>6010122</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>"Edward Peng"</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>Chinese</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>2604</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>999999</t>
-        </is>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>12648101</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>"player 198827"</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>Chinese</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>999999</t>
-        </is>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>9195340</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>Namllllllik</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>Chinese</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>999999</t>
-        </is>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>15755724</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>"Last Good"</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>Chinese</t>
-        </is>
-      </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>999999</t>
-        </is>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>8850180</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>30624300</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>Chinese</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>999999</t>
-        </is>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>28624723</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>"Woody Shade"</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>Chinese</t>
-        </is>
-      </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>999999</t>
-        </is>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>9913517</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>"Kenny Chan"</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>Chinese</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/Season_Trophies/86.xlsx
+++ b/Season_Trophies/86.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E158"/>
+  <dimension ref="A1:E159"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -396,7 +396,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>46192</t>
+          <t>46528</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -423,17 +423,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>3021</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>26424998</t>
+          <t>22497</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>"Smok3y 1nOnly"</t>
+          <t>xixihahagggᶻᵍˣ</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -443,24 +443,24 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>7573</t>
+          <t>7101</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>485</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>32613475</t>
+          <t>138176</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>"李 无 善 德"</t>
+          <t>Ze5kyphyr</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -470,24 +470,24 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>7472</t>
+          <t>8008</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>731</t>
+          <t>2607</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>6940556</t>
+          <t>1820342</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>"Cry ab it林黛玉ᶻᵍˣ"</t>
+          <t>摸鱼爱好者三战</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -497,24 +497,24 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>7383</t>
+          <t>7174</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3367</t>
+          <t>958</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>22497</t>
+          <t>1951758</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>xixihahagggᶻᵍˣ</t>
+          <t>我來找你了</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -524,24 +524,24 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>6817</t>
+          <t>7592</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>5892</t>
+          <t>3838</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>27113069</t>
+          <t>3477306</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>㊥DumbSmoky</t>
+          <t>"MeGa Tsai"</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -551,24 +551,24 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>6415</t>
+          <t>6946</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>1796</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>20199374</t>
+          <t>3946814</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>RuanFan</t>
+          <t>"小瑩 潘"</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -578,24 +578,24 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>7589</t>
+          <t>7352</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>768</t>
+          <t>8087</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>3946814</t>
+          <t>4229136</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>"小瑩 潘"</t>
+          <t>"totoro wu"</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -605,24 +605,24 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>7371</t>
+          <t>6278</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1216</t>
+          <t>5683</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>27468237</t>
+          <t>6510348</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>佛系复仇者秀川</t>
+          <t>Bonpoisson</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -632,24 +632,24 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>7257</t>
+          <t>6607</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2076</t>
+          <t>560</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>21345373</t>
+          <t>6940556</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>林北不講武德</t>
+          <t>"Cry ab it林黛玉ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -659,24 +659,24 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>7062</t>
+          <t>7719</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>9329</t>
+          <t>6030</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>43800641</t>
+          <t>7025661</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>㊥蛋蛋大</t>
+          <t>"F ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -686,24 +686,24 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>6027</t>
+          <t>6551</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>10055</t>
+          <t>49768</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>4229136</t>
+          <t>7587898</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>"totoro wu"</t>
+          <t>藍精靈ᶻᵍˣ</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -713,24 +713,24 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>5957</t>
+          <t>3368</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>10251</t>
+          <t>1897</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>14424176</t>
+          <t>8741713</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>天才少年老纪</t>
+          <t xml:space="preserve">㊥大咖玩家ky </t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -740,24 +740,24 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>5937</t>
+          <t>7327</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>11723</t>
+          <t>6010</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>21665473</t>
+          <t>9541747</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>"Dog Gamedesiger"</t>
+          <t>豹子头林冲</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -767,24 +767,24 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>5785</t>
+          <t>6552</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>3025</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>138176</t>
+          <t>11783968</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Ze5kyphyr</t>
+          <t>F---119</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -794,24 +794,24 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>7601</t>
+          <t>7101</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>800</t>
+          <t>15118</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1951758</t>
+          <t>12333251</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>我來找你了</t>
+          <t>"㊌ Mingxuan"</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -821,24 +821,24 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>7362</t>
+          <t>5564</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1307</t>
+          <t>11280</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>8741713</t>
+          <t>14424176</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t xml:space="preserve">㊥大咖玩家ky </t>
+          <t>天才少年老纪</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -848,24 +848,24 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>7232</t>
+          <t>5986</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1856</t>
+          <t>4409</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>29211638</t>
+          <t>16206490</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>"㊥ PhononDisperse"</t>
+          <t>㊥Godcys</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -875,24 +875,24 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>7103</t>
+          <t>6823</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2080</t>
+          <t>167</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>31267627</t>
+          <t>20199374</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>"㊥ Martin"</t>
+          <t>RuanFan</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -902,24 +902,24 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>7060</t>
+          <t>7874</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2218</t>
+          <t>20140</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>25376635</t>
+          <t>20737010</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>"sanchez ᶻᵍˣ"</t>
+          <t>混着玩...</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -929,24 +929,24 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>7033</t>
+          <t>5252</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2308</t>
+          <t>3265</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1820342</t>
+          <t>21345373</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>摸鱼爱好者三战</t>
+          <t>林北不講武德</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -956,24 +956,24 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>7017</t>
+          <t>7056</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2859</t>
+          <t>9609</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>46422609</t>
+          <t>21665473</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>㊥林天大大神</t>
+          <t>"Dog Gamedesiger"</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -983,24 +983,24 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>6909</t>
+          <t>6127</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>3276</t>
+          <t>3889</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>31217211</t>
+          <t>21735478</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>解憂雜貨鋪㊥</t>
+          <t>耀翔fly</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1010,24 +1010,24 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>6833</t>
+          <t>6935</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>3363</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>11783968</t>
+          <t>23687250</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>F---119</t>
+          <t>"jetlijp ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1037,24 +1037,24 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>6818</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>3386</t>
+          <t>1823</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>28749280</t>
+          <t>25376635</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>㊥老船⛵⛵</t>
+          <t>"sanchez ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1064,24 +1064,24 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>6813</t>
+          <t>7342</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>3729</t>
+          <t>4205</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>16206490</t>
+          <t>26280580</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>㊥Godcys</t>
+          <t>AOW全体工作人员吃屎交易大厅</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1091,24 +1091,24 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>6752</t>
+          <t>6863</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>4189</t>
+          <t>658</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>21735478</t>
+          <t>26424998</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>耀翔fly</t>
+          <t>"Smok3y 1nOnly"</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1118,24 +1118,24 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>6670</t>
+          <t>7686</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>4263</t>
+          <t>4128</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>3477306</t>
+          <t>26588375</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>"MeGa Tsai"</t>
+          <t>何苦僧ai</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1145,24 +1145,24 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>6658</t>
+          <t>6881</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>4080</t>
+          <t>6886</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>26280580</t>
+          <t>27113069</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>AOW全体工作人员吃屎交易大厅</t>
+          <t>㊥DumbSmoky</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1172,24 +1172,24 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>6692</t>
+          <t>6434</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>5274</t>
+          <t>1804</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>30411791</t>
+          <t>27468237</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>"㊥Ⓩ GOÐAFRÆÐI ᶻᵍˣ"</t>
+          <t>佛系复仇者秀川</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1199,24 +1199,24 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>6501</t>
+          <t>7350</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>5544</t>
+          <t>2454</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>9541747</t>
+          <t>27484940</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>豹子头林冲</t>
+          <t>66666zgx</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1226,24 +1226,24 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>6463</t>
+          <t>7207</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>5647</t>
+          <t>16755</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>38711610</t>
+          <t>28387448</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>心灵有为</t>
+          <t>☜⊙‖⊙☞</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1253,24 +1253,24 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>6446</t>
+          <t>5449</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>5737</t>
+          <t>5401</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>33656016</t>
+          <t>28749280</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>㊥☆梅海听雪☆</t>
+          <t>㊥老船⛵⛵</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1280,24 +1280,24 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>6433</t>
+          <t>6649</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>6290</t>
+          <t>1865</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>6510348</t>
+          <t>29211638</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Bonpoisson</t>
+          <t>"㊥ PhononDisperse"</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1307,14 +1307,14 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>6365</t>
+          <t>7333</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>7919</t>
+          <t>6877</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1334,24 +1334,24 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>6170</t>
+          <t>6436</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>8754</t>
+          <t>17385</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>7025661</t>
+          <t>29861826</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>"F ᶻᵍˣ"</t>
+          <t>★★★Eric★★★</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1361,24 +1361,24 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>6078</t>
+          <t>5408</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>9098</t>
+          <t>4814</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>44955827</t>
+          <t>30411791</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>丶小阿狸丿</t>
+          <t>"㊥Ⓩ GOÐAFRÆÐI ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1388,24 +1388,24 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>6047</t>
+          <t>6746</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>12171</t>
+          <t>5285</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>47146736</t>
+          <t>31217211</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>"HK 品瑜"</t>
+          <t>解憂雜貨鋪㊥</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1415,24 +1415,24 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>5740</t>
+          <t>6669</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>13763</t>
+          <t>2551</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>12333251</t>
+          <t>31267627</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>"㊌ Mingxuan"</t>
+          <t>"㊥ Martin"</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1442,24 +1442,24 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>5596</t>
+          <t>7184</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>16834</t>
+          <t>455</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>29861826</t>
+          <t>32613475</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>★★★Eric★★★</t>
+          <t>"李 无 善 德"</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1469,24 +1469,24 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>5375</t>
+          <t>7758</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>18442</t>
+          <t>4636</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>55317038</t>
+          <t>33656016</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>necman12345</t>
+          <t>㊥☆梅海听雪☆</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1496,24 +1496,24 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>5283</t>
+          <t>6780</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>18506</t>
+          <t>5760</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>28387448</t>
+          <t>38711610</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>☜⊙‖⊙☞</t>
+          <t>心灵有为</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1523,24 +1523,24 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>5280</t>
+          <t>6594</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>18150</t>
+          <t>7556</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>45967307</t>
+          <t>43800641</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Ricky</t>
+          <t>㊥蛋蛋大</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1550,24 +1550,24 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>5300</t>
+          <t>6343</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>23963</t>
+          <t>6935</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>46289694</t>
+          <t>44955827</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>㊥Vincent</t>
+          <t>丶小阿狸丿</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1577,24 +1577,24 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>4948</t>
+          <t>6426</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>24234</t>
+          <t>18098</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>20737010</t>
+          <t>45967307</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>混着玩...</t>
+          <t>Ricky</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1604,24 +1604,24 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>4932</t>
+          <t>5362</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>49457</t>
+          <t>24430</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>7587898</t>
+          <t>46289694</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>藍精靈ᶻᵍˣ</t>
+          <t>㊥Vincent</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1631,24 +1631,24 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>3368</t>
+          <t>4964</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>67172</t>
+          <t>2438</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>47928278</t>
+          <t>46422609</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>"落日幻影 哈哈哈"</t>
+          <t>㊥林天大大神</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1658,24 +1658,24 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2548</t>
+          <t>7210</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>13418</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>23687250</t>
+          <t>47146736</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>"jetlijp ᶻᵍˣ"</t>
+          <t>"HK 品瑜"</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1685,78 +1685,78 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5711</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>4724</t>
+          <t>67453</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>26588375</t>
+          <t>47928278</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>何苦僧ai</t>
+          <t>"落日幻影 哈哈哈"</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>6585</t>
+          <t>2548</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>6581</t>
+          <t>19254</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>13738844</t>
+          <t>55317038</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>"Chen Hao"</t>
+          <t>necman12345</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>6330</t>
+          <t>5301</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>12173</t>
+          <t>70592</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>37861953</t>
+          <t>29565</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>"Durex ๑• . •๑"</t>
+          <t>"aK.j Zhong ㊥"</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1766,24 +1766,24 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>5740</t>
+          <t>2498</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>18596</t>
+          <t>55917</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>38809086</t>
+          <t>68132</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Kouenᶻᵍˣ</t>
+          <t>"㊖TW9 百媚生"</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1793,24 +1793,24 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>5275</t>
+          <t>2956</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>10104</t>
+          <t>50262</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>42434117</t>
+          <t>1550355</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>㊥有双飞鸟</t>
+          <t>"皓茵 世界"</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1820,24 +1820,24 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>5952</t>
+          <t>3330</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>10814</t>
+          <t>7313</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>49710892</t>
+          <t>4493731</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>MMMMMMM</t>
+          <t>Player-1527362</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1847,24 +1847,24 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>5873</t>
+          <t>6376</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>13081</t>
+          <t>19227</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>53060417</t>
+          <t>4756174</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>㊥老纳信耶稣</t>
+          <t>純希です</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1874,24 +1874,24 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>5653</t>
+          <t>5302</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>13066</t>
+          <t>17604</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>53520939</t>
+          <t>6809364</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>㊥虎哥tiger</t>
+          <t>"Scorp IP"</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1901,24 +1901,24 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>5654</t>
+          <t>5393</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>15328</t>
+          <t>7290</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>31495601</t>
+          <t>7852598</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>陈晓军</t>
+          <t>seiji</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1928,24 +1928,24 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>5474</t>
+          <t>6378</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>18034</t>
+          <t>14843</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>4756174</t>
+          <t>8057001</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>純希です</t>
+          <t>㊥兵者诡道也</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1955,24 +1955,24 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>5305</t>
+          <t>5585</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>18552</t>
+          <t>18854</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>54698813</t>
+          <t>11582001</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>閃亮唐老鴨</t>
+          <t>iMinatoX4</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1982,24 +1982,24 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>5277</t>
+          <t>5323</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>24136</t>
+          <t>6129</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>55769051</t>
+          <t>13738844</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>㊥叮叮当.</t>
+          <t>"Chen Hao"</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2009,24 +2009,24 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>4938</t>
+          <t>6540</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>7255</t>
+          <t>50387</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>4493731</t>
+          <t>14110169</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Player-1527362</t>
+          <t>"Pasiony CANQ"</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2036,24 +2036,24 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>6244</t>
+          <t>3321</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>7932</t>
+          <t>51774</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>7852598</t>
+          <t>22161051</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>seiji</t>
+          <t>Botz5</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2063,24 +2063,24 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>6168</t>
+          <t>3220</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>9747</t>
+          <t>9683</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>47131129</t>
+          <t>22885399</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>NAM</t>
+          <t>余文琪</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2090,24 +2090,24 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>5996</t>
+          <t>6120</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>10990</t>
+          <t>62369</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>22885399</t>
+          <t>24733875</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>余文琪</t>
+          <t>龍少</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2117,24 +2117,24 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>5857</t>
+          <t>2689</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>15443</t>
+          <t>30178</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>56133764</t>
+          <t>31401481</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>ustcarter</t>
+          <t>Player-31401481</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2144,24 +2144,24 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>5465</t>
+          <t>4671</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>16280</t>
+          <t>16032</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>6809364</t>
+          <t>31495601</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>"Scorp IP"</t>
+          <t>陈晓军</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2171,24 +2171,24 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>5410</t>
+          <t>5498</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>17304</t>
+          <t>26280</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>8057001</t>
+          <t>32316256</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>㊥兵者诡道也</t>
+          <t>"秋の風 .."</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2198,24 +2198,24 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>5346</t>
+          <t>4858</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>20251</t>
+          <t>12908</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>38995116</t>
+          <t>37861953</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>"Ramesh Pavai Nam"</t>
+          <t>"Durex ๑• . •๑"</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2225,24 +2225,24 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>5172</t>
+          <t>5765</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>21663</t>
+          <t>31681</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>54778421</t>
+          <t>38561634</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Emma</t>
+          <t>"Ambrose PT"</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2252,24 +2252,24 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>5083</t>
+          <t>4605</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>24470</t>
+          <t>18803</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>11582001</t>
+          <t>38809086</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>iMinatoX4</t>
+          <t>Kouenᶻᵍˣ</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2279,24 +2279,24 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>4918</t>
+          <t>5325</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>25589</t>
+          <t>29205</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>54085771</t>
+          <t>38893233</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>㊥Matthieu</t>
+          <t>"快乐 二哈"</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2306,24 +2306,24 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>4856</t>
+          <t>4715</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>26039</t>
+          <t>22575</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>32316256</t>
+          <t>38995116</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>"秋の風 .."</t>
+          <t>"Ramesh Pavai Nam"</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2333,24 +2333,24 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>4834</t>
+          <t>5078</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>27262</t>
+          <t>9231</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>55860890</t>
+          <t>42434117</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>㊥Ethan</t>
+          <t>㊥有双飞鸟</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2360,24 +2360,24 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>4773</t>
+          <t>6160</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>30456</t>
+          <t>9902</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>38893233</t>
+          <t>47131129</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>"快乐 二哈"</t>
+          <t>NAM</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2387,24 +2387,24 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>4625</t>
+          <t>6102</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>32623</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>38561634</t>
+          <t>47758619</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>"Ambrose PT"</t>
+          <t>"㊥ Moon ㊥"</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2414,24 +2414,24 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>4530</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>32650</t>
+          <t>11787</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>31401481</t>
+          <t>49710892</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Player-31401481</t>
+          <t>MMMMMMM</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2441,24 +2441,24 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>4529</t>
+          <t>5895</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>33146</t>
+          <t>42989</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>56573048</t>
+          <t>50837459</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Xiaotian</t>
+          <t>NINE日</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2468,24 +2468,24 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>4505</t>
+          <t>3997</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>40264</t>
+          <t>11021</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>58203298</t>
+          <t>53060417</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>权旨qua</t>
+          <t>㊥老纳信耶稣</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2495,24 +2495,24 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>4128</t>
+          <t>6012</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>41546</t>
+          <t>12371</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>50837459</t>
+          <t>53520939</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>NINE日</t>
+          <t>㊥虎哥tiger</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2522,24 +2522,24 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>4059</t>
+          <t>5823</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>42391</t>
+          <t>25044</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>56500325</t>
+          <t>54085771</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>haruharuyukizg9735</t>
+          <t>㊥Matthieu</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2549,24 +2549,24 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>4007</t>
+          <t>4927</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>49430</t>
+          <t>17207</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>57813281</t>
+          <t>54698813</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>XAUEN</t>
+          <t>閃亮唐老鴨</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2576,24 +2576,24 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>3370</t>
+          <t>5419</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>49931</t>
+          <t>21783</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>1550355</t>
+          <t>54778421</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>"皓茵 世界"</t>
+          <t>Emma</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2603,24 +2603,24 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>3330</t>
+          <t>5135</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>51434</t>
+          <t>24901</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>22161051</t>
+          <t>55769051</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Botz5</t>
+          <t>㊥叮叮当.</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2630,24 +2630,24 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>3221</t>
+          <t>4935</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>55918</t>
+          <t>28139</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>68132</t>
+          <t>55860890</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>"㊖TW9 百媚生"</t>
+          <t>㊥Ethan</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2657,24 +2657,24 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2943</t>
+          <t>4766</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>56551</t>
+          <t>14322</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>14110169</t>
+          <t>56133764</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>"Pasiony CANQ"</t>
+          <t>ustcarter</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2684,24 +2684,24 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2915</t>
+          <t>5628</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>62079</t>
+          <t>42317</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>24733875</t>
+          <t>56500325</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>龍少</t>
+          <t>haruharuyukizg9735</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2711,24 +2711,24 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2689</t>
+          <t>4037</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>70163</t>
+          <t>33810</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>29565</t>
+          <t>56573048</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>"aK.j Zhong ㊥"</t>
+          <t>Xiaotian</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2738,24 +2738,24 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>2499</t>
+          <t>4508</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>49771</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>47758619</t>
+          <t>57813281</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>"㊥ Moon ㊥"</t>
+          <t>XAUEN</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2765,51 +2765,51 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3368</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>16276</t>
+          <t>41108</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>31134300</t>
+          <t>58203298</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>McMaX</t>
+          <t>权旨qua</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>5411</t>
+          <t>4106</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>43396</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>48738257</t>
+          <t>1222440</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>死亡洲际跳蛋</t>
+          <t>"Sneaky Ninja Panda"</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2819,24 +2819,24 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>3953</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>52447</t>
+          <t>43103</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>43281368</t>
+          <t>1304123</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>xhs2763</t>
+          <t>Cccccccccccc</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2846,24 +2846,24 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>3139</t>
+          <t>3995</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>69870</t>
+          <t>63115</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>44378757</t>
+          <t>3391765</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
+          <t>马er</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2873,24 +2873,24 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>2664</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>22570</t>
+          <t>31041</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>37069173</t>
+          <t>3649043</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>詹toniii</t>
+          <t>Dj6106</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2900,24 +2900,24 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>5028</t>
+          <t>4633</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>24158</t>
+          <t>64015</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>25479797</t>
+          <t>5367482</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>"Mohamed Alnaqbi"</t>
+          <t>Ігор</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2927,24 +2927,24 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>4937</t>
+          <t>2637</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>24604</t>
+          <t>59094</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>28855852</t>
+          <t>9718882</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>tiger</t>
+          <t>小霸王2021</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2954,24 +2954,24 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>4910</t>
+          <t>2809</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>26567</t>
+          <t>37983</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>44708798</t>
+          <t>11645391</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>"㊥ mythgod"</t>
+          <t>"omar omar"</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2981,24 +2981,24 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>4808</t>
+          <t>4270</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>52631</t>
+          <t>64426</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>54588689</t>
+          <t>15436348</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>㊥墨衍枫迹☜</t>
+          <t>Lucas</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3008,24 +3008,24 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>3127</t>
+          <t>2625</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>26012</t>
+          <t>30801</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>55634661</t>
+          <t>18082891</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Opalus</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3035,24 +3035,24 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>4835</t>
+          <t>4644</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>29418</t>
+          <t>74439</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>3649043</t>
+          <t>20372140</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Dj6106</t>
+          <t>人山即是仙</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3062,24 +3062,24 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>4673</t>
+          <t>2393</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>30260</t>
+          <t>23235</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>18082891</t>
+          <t>25479797</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>"Mohamed Alnaqbi"</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3089,24 +3089,24 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>4635</t>
+          <t>5033</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>31759</t>
+          <t>25936</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>47459684</t>
+          <t>28855852</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>㊥阿闹切克闹</t>
+          <t>tiger</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3116,24 +3116,24 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>4570</t>
+          <t>4877</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>34570</t>
+          <t>14951</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>56379103</t>
+          <t>31134300</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Globalking</t>
+          <t>McMaX</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3143,24 +3143,24 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>4428</t>
+          <t>5577</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>34770</t>
+          <t>23220</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>56585361</t>
+          <t>37069173</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>"㊥ go策划我要ali"</t>
+          <t>詹toniii</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3170,24 +3170,24 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>4417</t>
+          <t>5034</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>34994</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>58743790</t>
+          <t>38994054</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Ma</t>
+          <t>chengnan</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3197,24 +3197,24 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>4405</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>35146</t>
+          <t>52772</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>56732705</t>
+          <t>43281368</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>时间温柔皆遗憾</t>
+          <t>xhs2763</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3224,24 +3224,24 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>4397</t>
+          <t>3138</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>35887</t>
+          <t>70155</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>58839983</t>
+          <t>44378757</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>每逢佳节胖六斤</t>
+          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3251,24 +3251,24 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>4356</t>
+          <t>2500</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>36795</t>
+          <t>27003</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>55499394</t>
+          <t>44708798</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Player-55499394</t>
+          <t>"㊥ mythgod"</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3278,24 +3278,24 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>4306</t>
+          <t>4821</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>37656</t>
+          <t>42551</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>11645391</t>
+          <t>47244896</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>"omar omar"</t>
+          <t>Dropthebeat</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3305,24 +3305,24 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>4262</t>
+          <t>4024</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>39164</t>
+          <t>60956</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>58408326</t>
+          <t>47430231</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>"Killer Bee"</t>
+          <t>Kentantrino</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3332,24 +3332,24 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>4184</t>
+          <t>2737</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>42288</t>
+          <t>33369</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>47244896</t>
+          <t>47459684</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Dropthebeat</t>
+          <t>㊥阿闹切克闹</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3359,24 +3359,24 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>4014</t>
+          <t>4530</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>42562</t>
+          <t>46377</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>1304123</t>
+          <t>48634530</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Cccccccccccc</t>
+          <t>leezhenrui</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -3386,24 +3386,24 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>3998</t>
+          <t>3681</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>43715</t>
+          <t>43836</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>52997727</t>
+          <t>48738257</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>larios</t>
+          <t>死亡洲际跳蛋</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3413,24 +3413,24 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>3922</t>
+          <t>3951</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>46354</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>58641574</t>
+          <t>49000199</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Player-58641574鱼</t>
+          <t>SlipperyForester5672</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3440,24 +3440,24 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>3648</t>
+          <t>1156</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>46515</t>
+          <t>52954</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>48634530</t>
+          <t>52157846</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>leezhenrui</t>
+          <t>Hamza</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3467,24 +3467,24 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>3633</t>
+          <t>3125</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>48502</t>
+          <t>60682</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>56700848</t>
+          <t>52792063</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>工口漫画老师</t>
+          <t>"Tramaine Dowlen"</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3494,24 +3494,24 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>3448</t>
+          <t>2747</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>50948</t>
+          <t>44189</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>58940575</t>
+          <t>52997727</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>图啊图z z</t>
+          <t>larios</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3521,24 +3521,24 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>3256</t>
+          <t>3916</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>52584</t>
+          <t>52935</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>52157846</t>
+          <t>54588689</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Hamza</t>
+          <t>㊥墨衍枫迹☜</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3548,24 +3548,24 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>3130</t>
+          <t>3126</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>58797</t>
+          <t>96224</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>9718882</t>
+          <t>54941706</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>小霸王2021</t>
+          <t>AlexMenjivar20</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3575,24 +3575,24 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>2810</t>
+          <t>1806</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>62298</t>
+          <t>37471</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>52792063</t>
+          <t>55499394</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>"Tramaine Dowlen"</t>
+          <t>Player-55499394</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3602,24 +3602,24 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>2681</t>
+          <t>4297</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>62839</t>
+          <t>25471</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>3391765</t>
+          <t>55634661</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>马er</t>
+          <t>Opalus</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3629,24 +3629,24 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>2664</t>
+          <t>4902</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>63546</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>47430231</t>
+          <t>55810157</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Kentantrino</t>
+          <t>Beard</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3656,24 +3656,24 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>2643</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>63571</t>
+          <t>34085</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>5367482</t>
+          <t>56379103</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Ігор</t>
+          <t>Globalking</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3683,24 +3683,24 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>2642</t>
+          <t>4493</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>64089</t>
+          <t>34553</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>15436348</t>
+          <t>56585361</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Lucas</t>
+          <t>"㊥ go策划我要ali"</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3710,24 +3710,24 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>2626</t>
+          <t>4464</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>74014</t>
+          <t>48819</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>20372140</t>
+          <t>56700848</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>人山即是仙</t>
+          <t>工口漫画老师</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3737,24 +3737,24 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>2395</t>
+          <t>3448</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>91018</t>
+          <t>33863</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>57219176</t>
+          <t>56732705</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>青莲道人</t>
+          <t>时间温柔皆遗憾</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3764,24 +3764,24 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>1998</t>
+          <t>4505</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>95762</t>
+          <t>91494</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>54941706</t>
+          <t>57219176</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>AlexMenjivar20</t>
+          <t>青莲道人</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -3791,24 +3791,24 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>1806</t>
+          <t>1997</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>150588</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>49000199</t>
+          <t>57556179</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>SlipperyForester5672</t>
+          <t>特战新生代英雄</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -3818,24 +3818,24 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>1156</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>38994054</t>
+          <t>58340439</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>chengnan</t>
+          <t>70qilin</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -3852,17 +3852,17 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>39888</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>55810157</t>
+          <t>58408326</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Beard</t>
+          <t>"Killer Bee"</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -3872,24 +3872,24 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4170</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>57556179</t>
+          <t>58615925</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>特战新生代英雄</t>
+          <t>齐天的大圣</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -3906,17 +3906,17 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>46742</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>1222440</t>
+          <t>58641574</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>"Sneaky Ninja Panda"</t>
+          <t>Player-58641574鱼</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -3926,24 +3926,24 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3641</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>33904</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>58340439</t>
+          <t>58743790</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>70qilin</t>
+          <t>Ma</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -3953,24 +3953,24 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4503</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>36427</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>58615925</t>
+          <t>58839983</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>齐天的大圣</t>
+          <t>每逢佳节胖六斤</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -3980,51 +3980,51 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4354</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>51606</t>
+          <t>51309</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>41849539</t>
+          <t>58940575</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>三号馆馆主</t>
+          <t>图啊图z z</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>3207</t>
+          <t>3253</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>45408</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>56241637</t>
+          <t>29355299</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Player-14day</t>
+          <t>Player-29355299</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -4034,24 +4034,24 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>3743</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>47622456</t>
+          <t>41231396</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>伊恩</t>
+          <t>ollsthebro</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -4061,24 +4061,24 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1498</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>50892</t>
+          <t>51957</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>55210350</t>
+          <t>41849539</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>一个过客而已</t>
+          <t>三号馆馆主</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -4088,24 +4088,24 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>3260</t>
+          <t>3205</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>49553719</t>
+          <t>47622456</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>"Oreo Captain Sir"</t>
+          <t>伊恩</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -4122,17 +4122,17 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>80288</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>59081265</t>
+          <t>49553719</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>爬楼梯</t>
+          <t>"Oreo Captain Sir"</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -4142,24 +4142,24 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>2230</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>82898</t>
+          <t>51234</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>58671339</t>
+          <t>55210350</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>"quang pro"</t>
+          <t>一个过客而已</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -4169,24 +4169,24 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>2180</t>
+          <t>3259</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>107019</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>59082827</t>
+          <t>55745105</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Player-59082827</t>
+          <t>eldeniz</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -4196,24 +4196,24 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>1580</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>116229</t>
+          <t>45784</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>41231396</t>
+          <t>56241637</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>ollsthebro</t>
+          <t>Player-14day</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -4223,24 +4223,24 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>1498</t>
+          <t>3743</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>58572199</t>
+          <t>58174442</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>你干嘛～哎呦～</t>
+          <t>Player-58174442</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -4257,17 +4257,17 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>58766144</t>
+          <t>58572199</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>EquablePrecedence38</t>
+          <t>你干嘛～哎呦～</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -4284,17 +4284,17 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>83365</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>29355299</t>
+          <t>58671339</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Player-29355299</t>
+          <t>"quang pro"</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -4304,24 +4304,24 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2180</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>58910668</t>
+          <t>58766144</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>BrittleAuthor33</t>
+          <t>EquablePrecedence38</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -4338,17 +4338,17 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>55745105</t>
+          <t>58910668</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>eldeniz</t>
+          <t>BrittleAuthor33</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -4365,17 +4365,17 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>80727</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>58174442</t>
+          <t>59081265</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Player-58174442</t>
+          <t>爬楼梯</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -4385,51 +4385,51 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2230</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>56052</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>10636651</t>
+          <t>59082827</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>"Ismail Aflou"</t>
+          <t>Player-59082827</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Chinese</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>2938</t>
+          <t>1578</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>50218</t>
+          <t>64557</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>41848598</t>
+          <t>6010122</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>国家一级保护沙雕</t>
+          <t>"Edward Peng"</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -4439,24 +4439,24 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>3310</t>
+          <t>2620</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>64259</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>6010122</t>
+          <t>8850180</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>"Edward Peng"</t>
+          <t>30624300</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -4466,24 +4466,24 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>2620</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>12648101</t>
+          <t>9195340</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>"player 198827"</t>
+          <t>Namllllllik</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -4500,17 +4500,17 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>9195340</t>
+          <t>9913517</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Namllllllik</t>
+          <t>"Kenny Chan"</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -4527,17 +4527,17 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>56384</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>15755724</t>
+          <t>10636651</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>"Last Good"</t>
+          <t>"Ismail Aflou"</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -4547,24 +4547,24 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2936</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>8850180</t>
+          <t>12648101</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>30624300</t>
+          <t>"player 198827"</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -4581,17 +4581,17 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>28624723</t>
+          <t>15755724</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>"Woody Shade"</t>
+          <t>"Last Good"</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -4608,17 +4608,17 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>9913517</t>
+          <t>28624723</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>"Kenny Chan"</t>
+          <t>"Woody Shade"</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -4629,6 +4629,33 @@
       <c r="E158" t="inlineStr">
         <is>
           <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>49859</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>41848598</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>国家一级保护沙雕</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>3361</t>
         </is>
       </c>
     </row>

--- a/Season_Trophies/86.xlsx
+++ b/Season_Trophies/86.xlsx
@@ -676,7 +676,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>"F ᶻᵍˣ"</t>
+          <t>ᶻᵍˣ</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1108,7 +1108,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>"Smok3y 1nOnly"</t>
+          <t>"㊥Smok3y 1nOnly"</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1486,7 +1486,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>㊥☆梅海听雪☆</t>
+          <t>㊥☆梅海听雪☆zgx</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2080,7 +2080,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>余文琪</t>
+          <t>囼uu文琪</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Globalking</t>
+          <t>Globalking1001</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">

--- a/Season_Trophies/86.xlsx
+++ b/Season_Trophies/86.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E159"/>
+  <dimension ref="A1:E109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -396,4264 +396,2914 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>46528</t>
+          <t>70592</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>29565</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>春田花花幼稚园</t>
+          <t>"aK.j Zhong ㊥"</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3664</t>
+          <t>2498</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>3021</t>
+          <t>55917</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>22497</t>
+          <t>68132</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>xixihahagggᶻᵍˣ</t>
+          <t>"㊖TW9 百媚生"</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>7101</t>
+          <t>2956</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>50262</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>138176</t>
+          <t>1550355</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Ze5kyphyr</t>
+          <t>"皓茵 世界"</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>8008</t>
+          <t>3330</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2607</t>
+          <t>7313</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1820342</t>
+          <t>4493731</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>摸鱼爱好者三战</t>
+          <t>Player-1527362</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>7174</t>
+          <t>6376</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>958</t>
+          <t>19227</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1951758</t>
+          <t>4756174</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>我來找你了</t>
+          <t>純希です</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>7592</t>
+          <t>5302</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>3838</t>
+          <t>17604</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>3477306</t>
+          <t>6809364</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>"MeGa Tsai"</t>
+          <t>"Scorp IP"</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>6946</t>
+          <t>5393</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1796</t>
+          <t>7290</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>3946814</t>
+          <t>7852598</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>"小瑩 潘"</t>
+          <t>seiji</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>7352</t>
+          <t>6378</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>8087</t>
+          <t>14843</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>4229136</t>
+          <t>8057001</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>"totoro wu"</t>
+          <t>㊥兵者诡道也</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>6278</t>
+          <t>5585</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>5683</t>
+          <t>18854</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>6510348</t>
+          <t>11582001</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Bonpoisson</t>
+          <t>iMinatoX4</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>6607</t>
+          <t>5323</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>6129</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>6940556</t>
+          <t>13738844</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>"Cry ab it林黛玉ᶻᵍˣ"</t>
+          <t>"Chen Hao"</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>7719</t>
+          <t>6540</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>6030</t>
+          <t>50387</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>7025661</t>
+          <t>14110169</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>ᶻᵍˣ</t>
+          <t>"Pasiony CANQ"</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>6551</t>
+          <t>3321</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>49768</t>
+          <t>51774</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>7587898</t>
+          <t>22161051</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>藍精靈ᶻᵍˣ</t>
+          <t>Botz5</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3368</t>
+          <t>3220</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1897</t>
+          <t>9683</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>8741713</t>
+          <t>22885399</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t xml:space="preserve">㊥大咖玩家ky </t>
+          <t>囼uu文琪</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>7327</t>
+          <t>6120</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>6010</t>
+          <t>62369</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>9541747</t>
+          <t>24733875</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>豹子头林冲</t>
+          <t>龍少</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>6552</t>
+          <t>2689</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>3025</t>
+          <t>30178</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>11783968</t>
+          <t>31401481</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>F---119</t>
+          <t>Player-31401481</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>7101</t>
+          <t>4671</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>15118</t>
+          <t>16032</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>12333251</t>
+          <t>31495601</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>"㊌ Mingxuan"</t>
+          <t>陈晓军</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>5564</t>
+          <t>5498</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>11280</t>
+          <t>26280</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>14424176</t>
+          <t>32316256</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>天才少年老纪</t>
+          <t>"秋の風 .."</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>5986</t>
+          <t>4858</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>4409</t>
+          <t>12908</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>16206490</t>
+          <t>37861953</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>㊥Godcys</t>
+          <t>"Durex ๑• . •๑"</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>6823</t>
+          <t>5765</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>31681</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>20199374</t>
+          <t>38561634</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>RuanFan</t>
+          <t>"Ambrose PT"</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>7874</t>
+          <t>4605</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>20140</t>
+          <t>18803</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>20737010</t>
+          <t>38809086</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>混着玩...</t>
+          <t>Kouenᶻᵍˣ</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>5252</t>
+          <t>5325</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>3265</t>
+          <t>29205</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>21345373</t>
+          <t>38893233</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>林北不講武德</t>
+          <t>"快乐 二哈"</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>7056</t>
+          <t>4715</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>9609</t>
+          <t>22575</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>21665473</t>
+          <t>38995116</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>"Dog Gamedesiger"</t>
+          <t>"Ramesh Pavai Nam"</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>6127</t>
+          <t>5078</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>3889</t>
+          <t>9231</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>21735478</t>
+          <t>42434117</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>耀翔fly</t>
+          <t>㊥有双飞鸟</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>6935</t>
+          <t>6160</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9902</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>23687250</t>
+          <t>47131129</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>"jetlijp ᶻᵍˣ"</t>
+          <t>NAM</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6102</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>1823</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>25376635</t>
+          <t>47758619</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>"sanchez ᶻᵍˣ"</t>
+          <t>"㊥ Moon ㊥"</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>7342</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>4205</t>
+          <t>11787</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>26280580</t>
+          <t>49710892</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>AOW全体工作人员吃屎交易大厅</t>
+          <t>MMMMMMM</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>6863</t>
+          <t>5895</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>658</t>
+          <t>42989</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>26424998</t>
+          <t>50837459</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>"㊥Smok3y 1nOnly"</t>
+          <t>NINE日</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>7686</t>
+          <t>3997</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>4128</t>
+          <t>11021</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>26588375</t>
+          <t>53060417</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>何苦僧ai</t>
+          <t>㊥老纳信耶稣</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>6881</t>
+          <t>6012</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>6886</t>
+          <t>12371</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>27113069</t>
+          <t>53520939</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>㊥DumbSmoky</t>
+          <t>㊥虎哥tiger</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>6434</t>
+          <t>5823</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>1804</t>
+          <t>25044</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>27468237</t>
+          <t>54085771</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>佛系复仇者秀川</t>
+          <t>㊥Matthieu</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>7350</t>
+          <t>4927</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2454</t>
+          <t>17207</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>27484940</t>
+          <t>54698813</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>66666zgx</t>
+          <t>閃亮唐老鴨</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>7207</t>
+          <t>5419</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>16755</t>
+          <t>21783</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>28387448</t>
+          <t>54778421</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>☜⊙‖⊙☞</t>
+          <t>Emma</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>5449</t>
+          <t>5135</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>5401</t>
+          <t>24901</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>28749280</t>
+          <t>55769051</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>㊥老船⛵⛵</t>
+          <t>㊥叮叮当.</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>6649</t>
+          <t>4935</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>1865</t>
+          <t>28139</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>29211638</t>
+          <t>55860890</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>"㊥ PhononDisperse"</t>
+          <t>㊥Ethan</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>7333</t>
+          <t>4766</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>6877</t>
+          <t>14322</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>29729468</t>
+          <t>56133764</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>"风神舞动 WDᶻᵍˣ"</t>
+          <t>ustcarter</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>6436</t>
+          <t>5628</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>17385</t>
+          <t>42317</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>29861826</t>
+          <t>56500325</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>★★★Eric★★★</t>
+          <t>haruharuyukizg9735</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>5408</t>
+          <t>4037</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>4814</t>
+          <t>33810</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>30411791</t>
+          <t>56573048</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>"㊥Ⓩ GOÐAFRÆÐI ᶻᵍˣ"</t>
+          <t>Xiaotian</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>6746</t>
+          <t>4508</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>5285</t>
+          <t>49771</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>31217211</t>
+          <t>57813281</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>解憂雜貨鋪㊥</t>
+          <t>XAUEN</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>6669</t>
+          <t>3368</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2551</t>
+          <t>41108</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>31267627</t>
+          <t>58203298</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>"㊥ Martin"</t>
+          <t>权旨qua</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>7184</t>
+          <t>4106</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>32613475</t>
+          <t>1222440</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>"李 无 善 德"</t>
+          <t>"Sneaky Ninja Panda"</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>7758</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>4636</t>
+          <t>43103</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>33656016</t>
+          <t>1304123</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>㊥☆梅海听雪☆zgx</t>
+          <t>Cccccccccccc</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>6780</t>
+          <t>3995</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>5760</t>
+          <t>63115</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>38711610</t>
+          <t>3391765</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>心灵有为</t>
+          <t>马er</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>6594</t>
+          <t>2664</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>7556</t>
+          <t>31041</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>43800641</t>
+          <t>3649043</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>㊥蛋蛋大</t>
+          <t>Dj6106</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>6343</t>
+          <t>4633</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>6935</t>
+          <t>64015</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>44955827</t>
+          <t>5367482</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>丶小阿狸丿</t>
+          <t>Ігор</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>6426</t>
+          <t>2637</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>18098</t>
+          <t>59094</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>45967307</t>
+          <t>9718882</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Ricky</t>
+          <t>小霸王2021</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>5362</t>
+          <t>2809</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>24430</t>
+          <t>37983</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>46289694</t>
+          <t>11645391</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>㊥Vincent</t>
+          <t>"omar omar"</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>4964</t>
+          <t>4270</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2438</t>
+          <t>64426</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>46422609</t>
+          <t>15436348</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>㊥林天大大神</t>
+          <t>Lucas</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>7210</t>
+          <t>2625</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>13418</t>
+          <t>30801</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>47146736</t>
+          <t>18082891</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>"HK 品瑜"</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>5711</t>
+          <t>4644</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>67453</t>
+          <t>74439</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>47928278</t>
+          <t>20372140</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>"落日幻影 哈哈哈"</t>
+          <t>人山即是仙</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2548</t>
+          <t>2393</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>19254</t>
+          <t>23235</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>55317038</t>
+          <t>25479797</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>necman12345</t>
+          <t>"Mohamed Alnaqbi"</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>5301</t>
+          <t>5033</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>70592</t>
+          <t>25936</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>29565</t>
+          <t>28855852</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>"aK.j Zhong ㊥"</t>
+          <t>tiger</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2498</t>
+          <t>4877</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>55917</t>
+          <t>14951</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>68132</t>
+          <t>31134300</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>"㊖TW9 百媚生"</t>
+          <t>McMaX</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2956</t>
+          <t>5577</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>50262</t>
+          <t>23220</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>1550355</t>
+          <t>37069173</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>"皓茵 世界"</t>
+          <t>詹toniii</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>3330</t>
+          <t>5034</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>7313</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>4493731</t>
+          <t>38994054</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Player-1527362</t>
+          <t>chengnan</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>6376</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>19227</t>
+          <t>52772</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>4756174</t>
+          <t>43281368</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>純希です</t>
+          <t>xhs2763</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>5302</t>
+          <t>3138</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>17604</t>
+          <t>70155</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>6809364</t>
+          <t>44378757</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>"Scorp IP"</t>
+          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>5393</t>
+          <t>2500</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>7290</t>
+          <t>27003</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>7852598</t>
+          <t>44708798</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>seiji</t>
+          <t>"㊥ mythgod"</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>6378</t>
+          <t>4821</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>14843</t>
+          <t>42551</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>8057001</t>
+          <t>47244896</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>㊥兵者诡道也</t>
+          <t>Dropthebeat</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>5585</t>
+          <t>4024</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>18854</t>
+          <t>60956</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>11582001</t>
+          <t>47430231</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>iMinatoX4</t>
+          <t>Kentantrino</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>5323</t>
+          <t>2737</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>6129</t>
+          <t>33369</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>13738844</t>
+          <t>47459684</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>"Chen Hao"</t>
+          <t>㊥阿闹切克闹</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>6540</t>
+          <t>4530</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>50387</t>
+          <t>46377</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>14110169</t>
+          <t>48634530</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>"Pasiony CANQ"</t>
+          <t>leezhenrui</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>3321</t>
+          <t>3681</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>51774</t>
+          <t>43836</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>22161051</t>
+          <t>48738257</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Botz5</t>
+          <t>死亡洲际跳蛋</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>3220</t>
+          <t>3951</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>9683</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>22885399</t>
+          <t>49000199</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>囼uu文琪</t>
+          <t>SlipperyForester5672</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>6120</t>
+          <t>1156</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>62369</t>
+          <t>52954</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>24733875</t>
+          <t>52157846</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>龍少</t>
+          <t>Hamza</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2689</t>
+          <t>3125</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>30178</t>
+          <t>60682</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>31401481</t>
+          <t>52792063</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Player-31401481</t>
+          <t>"Tramaine Dowlen"</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>4671</t>
+          <t>2747</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>16032</t>
+          <t>44189</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>31495601</t>
+          <t>52997727</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>陈晓军</t>
+          <t>larios</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>5498</t>
+          <t>3916</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>26280</t>
+          <t>52935</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>32316256</t>
+          <t>54588689</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>"秋の風 .."</t>
+          <t>㊥墨衍枫迹☜</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>4858</t>
+          <t>3126</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>12908</t>
+          <t>96224</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>37861953</t>
+          <t>54941706</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>"Durex ๑• . •๑"</t>
+          <t>AlexMenjivar20</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>5765</t>
+          <t>1806</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>31681</t>
+          <t>37471</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>38561634</t>
+          <t>55499394</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>"Ambrose PT"</t>
+          <t>Player-55499394</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>4605</t>
+          <t>4297</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>18803</t>
+          <t>25471</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>38809086</t>
+          <t>55634661</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Kouenᶻᵍˣ</t>
+          <t>Opalus</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>5325</t>
+          <t>4902</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>29205</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>38893233</t>
+          <t>55810157</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>"快乐 二哈"</t>
+          <t>Beard</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>4715</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>22575</t>
+          <t>34085</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>38995116</t>
+          <t>56379103</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>"Ramesh Pavai Nam"</t>
+          <t>Globalking1001</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>5078</t>
+          <t>4493</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>9231</t>
+          <t>34553</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>42434117</t>
+          <t>56585361</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>㊥有双飞鸟</t>
+          <t>"㊥ go策划我要ali"</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>6160</t>
+          <t>4464</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>9902</t>
+          <t>48819</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>47131129</t>
+          <t>56700848</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>NAM</t>
+          <t>工口漫画老师</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>6102</t>
+          <t>3448</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>33863</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>47758619</t>
+          <t>56732705</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>"㊥ Moon ㊥"</t>
+          <t>时间温柔皆遗憾</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4505</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>11787</t>
+          <t>91494</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>49710892</t>
+          <t>57219176</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>MMMMMMM</t>
+          <t>青莲道人</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>5895</t>
+          <t>1997</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>42989</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>50837459</t>
+          <t>57556179</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>NINE日</t>
+          <t>特战新生代英雄</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>3997</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>11021</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>53060417</t>
+          <t>58340439</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>㊥老纳信耶稣</t>
+          <t>70qilin</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>6012</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>12371</t>
+          <t>39888</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>53520939</t>
+          <t>58408326</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>㊥虎哥tiger</t>
+          <t>"Killer Bee"</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>5823</t>
+          <t>4170</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>25044</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>54085771</t>
+          <t>58615925</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>㊥Matthieu</t>
+          <t>齐天的大圣</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>4927</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>17207</t>
+          <t>46742</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>54698813</t>
+          <t>58641574</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>閃亮唐老鴨</t>
+          <t>Player-58641574鱼</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>5419</t>
+          <t>3641</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>21783</t>
+          <t>33904</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>54778421</t>
+          <t>58743790</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Emma</t>
+          <t>Ma</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>5135</t>
+          <t>4503</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>24901</t>
+          <t>36427</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>55769051</t>
+          <t>58839983</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>㊥叮叮当.</t>
+          <t>每逢佳节胖六斤</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>4935</t>
+          <t>4354</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>28139</t>
+          <t>51309</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>55860890</t>
+          <t>58940575</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>㊥Ethan</t>
+          <t>图啊图z z</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>4766</t>
+          <t>3253</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>14322</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>56133764</t>
+          <t>29355299</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>ustcarter</t>
+          <t>Player-29355299</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>5628</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>42317</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>56500325</t>
+          <t>41231396</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>haruharuyukizg9735</t>
+          <t>ollsthebro</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>4037</t>
+          <t>1498</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>33810</t>
+          <t>51957</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>56573048</t>
+          <t>41849539</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Xiaotian</t>
+          <t>三号馆馆主</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>4508</t>
+          <t>3205</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>49771</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>57813281</t>
+          <t>47622456</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>XAUEN</t>
+          <t>伊恩</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>3368</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>41108</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>58203298</t>
+          <t>49553719</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>权旨qua</t>
+          <t>"Oreo Captain Sir"</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>4106</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>51234</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>1222440</t>
+          <t>55210350</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>"Sneaky Ninja Panda"</t>
+          <t>一个过客而已</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3259</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>43103</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>1304123</t>
+          <t>55745105</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Cccccccccccc</t>
+          <t>eldeniz</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>3995</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>63115</t>
+          <t>45784</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>3391765</t>
+          <t>56241637</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>马er</t>
+          <t>Player-14day</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>2664</t>
+          <t>3743</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>31041</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>3649043</t>
+          <t>58174442</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Dj6106</t>
+          <t>Player-58174442</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>4633</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>64015</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>5367482</t>
+          <t>58572199</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Ігор</t>
+          <t>你干嘛～哎呦～</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>2637</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>59094</t>
+          <t>83365</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>9718882</t>
+          <t>58671339</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>小霸王2021</t>
+          <t>"quang pro"</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>2809</t>
+          <t>2180</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>37983</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>11645391</t>
+          <t>58766144</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>"omar omar"</t>
+          <t>EquablePrecedence38</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>4270</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>64426</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>15436348</t>
+          <t>58910668</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Lucas</t>
+          <t>BrittleAuthor33</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>2625</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>30801</t>
+          <t>80727</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>18082891</t>
+          <t>59081265</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>爬楼梯</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>4644</t>
+          <t>2230</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>74439</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>20372140</t>
+          <t>59082827</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>人山即是仙</t>
+          <t>Player-59082827</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>2393</t>
+          <t>1578</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>23235</t>
+          <t>64557</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>25479797</t>
+          <t>6010122</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>"Mohamed Alnaqbi"</t>
+          <t>"Edward Peng"</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>Chinese</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>5033</t>
+          <t>2620</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>25936</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>28855852</t>
+          <t>8850180</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>tiger</t>
+          <t>30624300</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>Chinese</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>4877</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>14951</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>31134300</t>
+          <t>9195340</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>McMaX</t>
+          <t>Namllllllik</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>Chinese</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>5577</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>23220</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>37069173</t>
+          <t>9913517</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>詹toniii</t>
+          <t>"Kenny Chan"</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>Chinese</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>5034</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>56384</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>38994054</t>
+          <t>10636651</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>chengnan</t>
+          <t>"Ismail Aflou"</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>Chinese</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2936</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>52772</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>43281368</t>
+          <t>12648101</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>xhs2763</t>
+          <t>"player 198827"</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>Chinese</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>3138</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>70155</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>44378757</t>
+          <t>15755724</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
+          <t>"Last Good"</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>Chinese</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>27003</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>44708798</t>
+          <t>28624723</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>"㊥ mythgod"</t>
+          <t>"Woody Shade"</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>Chinese</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>4821</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>42551</t>
+          <t>49859</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>47244896</t>
+          <t>41848598</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Dropthebeat</t>
+          <t>国家一级保护沙雕</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>Chinese</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
-        <is>
-          <t>4024</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>60956</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>47430231</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>Kentantrino</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>二馆</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>2737</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>33369</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>47459684</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>㊥阿闹切克闹</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>二馆</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>4530</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>46377</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>48634530</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>leezhenrui</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>二馆</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>3681</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>43836</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>48738257</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>死亡洲际跳蛋</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>二馆</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>3951</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>49000199</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>SlipperyForester5672</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>二馆</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>1156</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>52954</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>52157846</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>Hamza</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>二馆</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>3125</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>60682</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>52792063</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>"Tramaine Dowlen"</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>二馆</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>2747</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>44189</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>52997727</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>larios</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>二馆</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>3916</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>52935</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>54588689</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>㊥墨衍枫迹☜</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>二馆</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>3126</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>96224</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>54941706</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>AlexMenjivar20</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>二馆</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>1806</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>37471</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>55499394</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>Player-55499394</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>二馆</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>4297</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>25471</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>55634661</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>Opalus</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>二馆</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>4902</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>55810157</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>Beard</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>二馆</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>34085</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>56379103</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>Globalking1001</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>二馆</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>4493</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>34553</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>56585361</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>"㊥ go策划我要ali"</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>二馆</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>4464</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>48819</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>56700848</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>工口漫画老师</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>二馆</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>3448</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>33863</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>56732705</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>时间温柔皆遗憾</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>二馆</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>4505</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>91494</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>57219176</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>青莲道人</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>二馆</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>1997</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>57556179</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>特战新生代英雄</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>二馆</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>58340439</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>70qilin</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>二馆</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>39888</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>58408326</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>"Killer Bee"</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>二馆</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>4170</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>58615925</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>齐天的大圣</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>二馆</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>46742</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>58641574</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>Player-58641574鱼</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>二馆</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>3641</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>33904</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>58743790</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>Ma</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>二馆</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>4503</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>36427</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>58839983</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>每逢佳节胖六斤</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>二馆</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>4354</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>51309</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>58940575</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>图啊图z z</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>二馆</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>3253</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>29355299</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>Player-29355299</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>三馆</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>41231396</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>ollsthebro</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>三馆</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>1498</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>51957</t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>41849539</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>三号馆馆主</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>三馆</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>3205</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>47622456</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>伊恩</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>三馆</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>49553719</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>"Oreo Captain Sir"</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>三馆</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>51234</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>55210350</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>一个过客而已</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>三馆</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>3259</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>55745105</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>eldeniz</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>三馆</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>45784</t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>56241637</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>Player-14day</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>三馆</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>3743</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>58174442</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>Player-58174442</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>三馆</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>58572199</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>你干嘛～哎呦～</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>三馆</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>83365</t>
-        </is>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>58671339</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>"quang pro"</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>三馆</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>2180</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>58766144</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>EquablePrecedence38</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>三馆</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>58910668</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>BrittleAuthor33</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>三馆</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>80727</t>
-        </is>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>59081265</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>爬楼梯</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>三馆</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>2230</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>59082827</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>Player-59082827</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>三馆</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>1578</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>64557</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>6010122</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>"Edward Peng"</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>Chinese</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>2620</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>8850180</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>30624300</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>Chinese</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>9195340</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>Namllllllik</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>Chinese</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>9913517</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>"Kenny Chan"</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>Chinese</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>56384</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>10636651</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>"Ismail Aflou"</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>Chinese</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>2936</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>12648101</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>"player 198827"</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>Chinese</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>15755724</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>"Last Good"</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>Chinese</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>28624723</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>"Woody Shade"</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>Chinese</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>49859</t>
-        </is>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>41848598</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>国家一级保护沙雕</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>Chinese</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr">
         <is>
           <t>3361</t>
         </is>

--- a/Season_Trophies/86.xlsx
+++ b/Season_Trophies/86.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E109"/>
+  <dimension ref="A1:E159"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -396,2914 +396,4264 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>70592</t>
+          <t>46528</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>29565</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>"aK.j Zhong ㊥"</t>
+          <t>春田花花幼稚园</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2498</t>
+          <t>3664</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>55917</t>
+          <t>3021</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>68132</t>
+          <t>22497</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>"㊖TW9 百媚生"</t>
+          <t>xixihahagggᶻᵍˣ</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2956</t>
+          <t>7101</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>50262</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1550355</t>
+          <t>138176</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>"皓茵 世界"</t>
+          <t>Ze5kyphyr</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3330</t>
+          <t>8008</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>7313</t>
+          <t>2607</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>4493731</t>
+          <t>1820342</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Player-1527362</t>
+          <t>摸鱼爱好者三战</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>6376</t>
+          <t>7174</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>19227</t>
+          <t>958</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>4756174</t>
+          <t>1951758</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>純希です</t>
+          <t>我來找你了</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>5302</t>
+          <t>7592</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>17604</t>
+          <t>3838</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>6809364</t>
+          <t>3477306</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>"Scorp IP"</t>
+          <t>"MeGa Tsai"</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>5393</t>
+          <t>6946</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>7290</t>
+          <t>1796</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>7852598</t>
+          <t>3946814</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>seiji</t>
+          <t>"小瑩 潘"</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>6378</t>
+          <t>7352</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>14843</t>
+          <t>8087</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>8057001</t>
+          <t>4229136</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>㊥兵者诡道也</t>
+          <t>"totoro wu"</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>5585</t>
+          <t>6278</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>18854</t>
+          <t>5683</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>11582001</t>
+          <t>6510348</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>iMinatoX4</t>
+          <t>Bonpoisson</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>5323</t>
+          <t>6607</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>6129</t>
+          <t>560</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>13738844</t>
+          <t>6940556</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>"Chen Hao"</t>
+          <t>"Cry ab it林黛玉ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>6540</t>
+          <t>7719</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>50387</t>
+          <t>6030</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>14110169</t>
+          <t>7025661</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>"Pasiony CANQ"</t>
+          <t>ᶻᵍˣ</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3321</t>
+          <t>6551</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>51774</t>
+          <t>49768</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>22161051</t>
+          <t>7587898</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Botz5</t>
+          <t>藍精靈ᶻᵍˣ</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3220</t>
+          <t>3368</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>9683</t>
+          <t>1897</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>22885399</t>
+          <t>8741713</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>囼uu文琪</t>
+          <t xml:space="preserve">㊥大咖玩家ky </t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>6120</t>
+          <t>7327</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>62369</t>
+          <t>6010</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>24733875</t>
+          <t>9541747</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>龍少</t>
+          <t>豹子头林冲</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2689</t>
+          <t>6552</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>30178</t>
+          <t>3025</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>31401481</t>
+          <t>11783968</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Player-31401481</t>
+          <t>F---119</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>4671</t>
+          <t>7101</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>16032</t>
+          <t>15118</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>31495601</t>
+          <t>12333251</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>陈晓军</t>
+          <t>"㊌ Mingxuan"</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>5498</t>
+          <t>5564</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>26280</t>
+          <t>11280</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>32316256</t>
+          <t>14424176</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>"秋の風 .."</t>
+          <t>天才少年老纪</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>4858</t>
+          <t>5986</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>12908</t>
+          <t>4409</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>37861953</t>
+          <t>16206490</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>"Durex ๑• . •๑"</t>
+          <t>㊥Godcys</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>5765</t>
+          <t>6823</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>31681</t>
+          <t>167</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>38561634</t>
+          <t>20199374</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>"Ambrose PT"</t>
+          <t>RuanFan</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>4605</t>
+          <t>7874</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>18803</t>
+          <t>20140</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>38809086</t>
+          <t>20737010</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Kouenᶻᵍˣ</t>
+          <t>混着玩...</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>5325</t>
+          <t>5252</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>29205</t>
+          <t>3265</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>38893233</t>
+          <t>21345373</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>"快乐 二哈"</t>
+          <t>林北不講武德</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>4715</t>
+          <t>7056</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>22575</t>
+          <t>9609</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>38995116</t>
+          <t>21665473</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>"Ramesh Pavai Nam"</t>
+          <t>"Dog Gamedesiger"</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>5078</t>
+          <t>6127</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>9231</t>
+          <t>3889</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>42434117</t>
+          <t>21735478</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>㊥有双飞鸟</t>
+          <t>耀翔fly</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>6160</t>
+          <t>6935</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>9902</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>47131129</t>
+          <t>23687250</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>NAM</t>
+          <t>"jetlijp ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>6102</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1823</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>47758619</t>
+          <t>25376635</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>"㊥ Moon ㊥"</t>
+          <t>"sanchez ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7342</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>11787</t>
+          <t>4205</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>49710892</t>
+          <t>26280580</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>MMMMMMM</t>
+          <t>AOW全体工作人员吃屎交易大厅</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>5895</t>
+          <t>6863</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>42989</t>
+          <t>658</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>50837459</t>
+          <t>26424998</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>NINE日</t>
+          <t>"㊥Smok3y 1nOnly"</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>3997</t>
+          <t>7686</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>11021</t>
+          <t>4128</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>53060417</t>
+          <t>26588375</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>㊥老纳信耶稣</t>
+          <t>何苦僧ai</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>6012</t>
+          <t>6881</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>12371</t>
+          <t>6886</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>53520939</t>
+          <t>27113069</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>㊥虎哥tiger</t>
+          <t>㊥DumbSmoky</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>5823</t>
+          <t>6434</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>25044</t>
+          <t>1804</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>54085771</t>
+          <t>27468237</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>㊥Matthieu</t>
+          <t>佛系复仇者秀川</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>4927</t>
+          <t>7350</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>17207</t>
+          <t>2454</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>54698813</t>
+          <t>27484940</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>閃亮唐老鴨</t>
+          <t>66666zgx</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>5419</t>
+          <t>7207</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>21783</t>
+          <t>16755</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>54778421</t>
+          <t>28387448</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Emma</t>
+          <t>☜⊙‖⊙☞</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>5135</t>
+          <t>5449</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>24901</t>
+          <t>5401</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>55769051</t>
+          <t>28749280</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>㊥叮叮当.</t>
+          <t>㊥老船⛵⛵</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>4935</t>
+          <t>6649</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>28139</t>
+          <t>1865</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>55860890</t>
+          <t>29211638</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>㊥Ethan</t>
+          <t>"㊥ PhononDisperse"</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>4766</t>
+          <t>7333</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>14322</t>
+          <t>6877</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>56133764</t>
+          <t>29729468</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>ustcarter</t>
+          <t>"风神舞动 WDᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>5628</t>
+          <t>6436</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>42317</t>
+          <t>17385</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>56500325</t>
+          <t>29861826</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>haruharuyukizg9735</t>
+          <t>★★★Eric★★★</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>4037</t>
+          <t>5408</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>33810</t>
+          <t>4814</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>56573048</t>
+          <t>30411791</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Xiaotian</t>
+          <t>"㊥Ⓩ GOÐAFRÆÐI ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>4508</t>
+          <t>6746</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>49771</t>
+          <t>5285</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>57813281</t>
+          <t>31217211</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>XAUEN</t>
+          <t>解憂雜貨鋪㊥</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>3368</t>
+          <t>6669</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>41108</t>
+          <t>2551</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>58203298</t>
+          <t>31267627</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>权旨qua</t>
+          <t>"㊥ Martin"</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>4106</t>
+          <t>7184</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>455</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>1222440</t>
+          <t>32613475</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>"Sneaky Ninja Panda"</t>
+          <t>"李 无 善 德"</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7758</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>43103</t>
+          <t>4636</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>1304123</t>
+          <t>33656016</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Cccccccccccc</t>
+          <t>㊥☆梅海听雪☆zgx</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>3995</t>
+          <t>6780</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>63115</t>
+          <t>5760</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>3391765</t>
+          <t>38711610</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>马er</t>
+          <t>心灵有为</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2664</t>
+          <t>6594</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>31041</t>
+          <t>7556</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>3649043</t>
+          <t>43800641</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Dj6106</t>
+          <t>㊥蛋蛋大</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>4633</t>
+          <t>6343</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>64015</t>
+          <t>6935</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>5367482</t>
+          <t>44955827</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Ігор</t>
+          <t>丶小阿狸丿</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2637</t>
+          <t>6426</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>59094</t>
+          <t>18098</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>9718882</t>
+          <t>45967307</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>小霸王2021</t>
+          <t>Ricky</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2809</t>
+          <t>5362</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>37983</t>
+          <t>24430</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>11645391</t>
+          <t>46289694</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>"omar omar"</t>
+          <t>㊥Vincent</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>4270</t>
+          <t>4964</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>64426</t>
+          <t>2438</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>15436348</t>
+          <t>46422609</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Lucas</t>
+          <t>㊥林天大大神</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2625</t>
+          <t>7210</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>30801</t>
+          <t>13418</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>18082891</t>
+          <t>47146736</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>"HK 品瑜"</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>4644</t>
+          <t>5711</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>74439</t>
+          <t>67453</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>20372140</t>
+          <t>47928278</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>人山即是仙</t>
+          <t>"落日幻影 哈哈哈"</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2393</t>
+          <t>2548</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>23235</t>
+          <t>19254</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>25479797</t>
+          <t>55317038</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>"Mohamed Alnaqbi"</t>
+          <t>necman12345</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>5033</t>
+          <t>5301</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>25936</t>
+          <t>70592</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>28855852</t>
+          <t>29565</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>tiger</t>
+          <t>"aK.j Zhong ㊥"</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>4877</t>
+          <t>2498</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>14951</t>
+          <t>55917</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>31134300</t>
+          <t>68132</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>McMaX</t>
+          <t>"㊖TW9 百媚生"</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>5577</t>
+          <t>2956</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>23220</t>
+          <t>50262</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>37069173</t>
+          <t>1550355</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>詹toniii</t>
+          <t>"皓茵 世界"</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>5034</t>
+          <t>3330</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7313</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>38994054</t>
+          <t>4493731</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>chengnan</t>
+          <t>Player-1527362</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6376</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>52772</t>
+          <t>19227</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>43281368</t>
+          <t>4756174</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>xhs2763</t>
+          <t>純希です</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>3138</t>
+          <t>5302</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>70155</t>
+          <t>17604</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>44378757</t>
+          <t>6809364</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
+          <t>"Scorp IP"</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>5393</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>27003</t>
+          <t>7290</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>44708798</t>
+          <t>7852598</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>"㊥ mythgod"</t>
+          <t>seiji</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>4821</t>
+          <t>6378</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>42551</t>
+          <t>14843</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>47244896</t>
+          <t>8057001</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Dropthebeat</t>
+          <t>㊥兵者诡道也</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>4024</t>
+          <t>5585</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>60956</t>
+          <t>18854</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>47430231</t>
+          <t>11582001</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Kentantrino</t>
+          <t>iMinatoX4</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2737</t>
+          <t>5323</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>33369</t>
+          <t>6129</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>47459684</t>
+          <t>13738844</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>㊥阿闹切克闹</t>
+          <t>"Chen Hao"</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>4530</t>
+          <t>6540</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>46377</t>
+          <t>50387</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>48634530</t>
+          <t>14110169</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>leezhenrui</t>
+          <t>"Pasiony CANQ"</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>3681</t>
+          <t>3321</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>43836</t>
+          <t>51774</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>48738257</t>
+          <t>22161051</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>死亡洲际跳蛋</t>
+          <t>Botz5</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>3951</t>
+          <t>3220</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9683</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>49000199</t>
+          <t>22885399</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>SlipperyForester5672</t>
+          <t>囼uu文琪</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>1156</t>
+          <t>6120</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>52954</t>
+          <t>62369</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>52157846</t>
+          <t>24733875</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Hamza</t>
+          <t>龍少</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>3125</t>
+          <t>2689</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>60682</t>
+          <t>30178</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>52792063</t>
+          <t>31401481</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>"Tramaine Dowlen"</t>
+          <t>Player-31401481</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2747</t>
+          <t>4671</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>44189</t>
+          <t>16032</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>52997727</t>
+          <t>31495601</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>larios</t>
+          <t>陈晓军</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>3916</t>
+          <t>5498</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>52935</t>
+          <t>26280</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>54588689</t>
+          <t>32316256</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>㊥墨衍枫迹☜</t>
+          <t>"秋の風 .."</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>3126</t>
+          <t>4858</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>96224</t>
+          <t>12908</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>54941706</t>
+          <t>37861953</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>AlexMenjivar20</t>
+          <t>"Durex ๑• . •๑"</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>1806</t>
+          <t>5765</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>37471</t>
+          <t>31681</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>55499394</t>
+          <t>38561634</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Player-55499394</t>
+          <t>"Ambrose PT"</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>4297</t>
+          <t>4605</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>25471</t>
+          <t>18803</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>55634661</t>
+          <t>38809086</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Opalus</t>
+          <t>Kouenᶻᵍˣ</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>4902</t>
+          <t>5325</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>29205</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>55810157</t>
+          <t>38893233</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Beard</t>
+          <t>"快乐 二哈"</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4715</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>34085</t>
+          <t>22575</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>56379103</t>
+          <t>38995116</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Globalking1001</t>
+          <t>"Ramesh Pavai Nam"</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>4493</t>
+          <t>5078</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>34553</t>
+          <t>9231</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>56585361</t>
+          <t>42434117</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>"㊥ go策划我要ali"</t>
+          <t>㊥有双飞鸟</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>4464</t>
+          <t>6160</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>48819</t>
+          <t>9902</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>56700848</t>
+          <t>47131129</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>工口漫画老师</t>
+          <t>NAM</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>3448</t>
+          <t>6102</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>33863</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>56732705</t>
+          <t>47758619</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>时间温柔皆遗憾</t>
+          <t>"㊥ Moon ㊥"</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>4505</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>91494</t>
+          <t>11787</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>57219176</t>
+          <t>49710892</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>青莲道人</t>
+          <t>MMMMMMM</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>1997</t>
+          <t>5895</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>42989</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>57556179</t>
+          <t>50837459</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>特战新生代英雄</t>
+          <t>NINE日</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3997</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11021</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>58340439</t>
+          <t>53060417</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>70qilin</t>
+          <t>㊥老纳信耶稣</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6012</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>39888</t>
+          <t>12371</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>58408326</t>
+          <t>53520939</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>"Killer Bee"</t>
+          <t>㊥虎哥tiger</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>4170</t>
+          <t>5823</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>25044</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>58615925</t>
+          <t>54085771</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>齐天的大圣</t>
+          <t>㊥Matthieu</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4927</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>46742</t>
+          <t>17207</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>58641574</t>
+          <t>54698813</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Player-58641574鱼</t>
+          <t>閃亮唐老鴨</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>3641</t>
+          <t>5419</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>33904</t>
+          <t>21783</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>58743790</t>
+          <t>54778421</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Ma</t>
+          <t>Emma</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>4503</t>
+          <t>5135</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>36427</t>
+          <t>24901</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>58839983</t>
+          <t>55769051</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>每逢佳节胖六斤</t>
+          <t>㊥叮叮当.</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>4354</t>
+          <t>4935</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>51309</t>
+          <t>28139</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>58940575</t>
+          <t>55860890</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>图啊图z z</t>
+          <t>㊥Ethan</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>3253</t>
+          <t>4766</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14322</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>29355299</t>
+          <t>56133764</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Player-29355299</t>
+          <t>ustcarter</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5628</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>42317</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>41231396</t>
+          <t>56500325</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>ollsthebro</t>
+          <t>haruharuyukizg9735</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>1498</t>
+          <t>4037</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>51957</t>
+          <t>33810</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>41849539</t>
+          <t>56573048</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>三号馆馆主</t>
+          <t>Xiaotian</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>3205</t>
+          <t>4508</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>49771</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>47622456</t>
+          <t>57813281</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>伊恩</t>
+          <t>XAUEN</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3368</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>41108</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>49553719</t>
+          <t>58203298</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>"Oreo Captain Sir"</t>
+          <t>权旨qua</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4106</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>51234</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>55210350</t>
+          <t>1222440</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>一个过客而已</t>
+          <t>"Sneaky Ninja Panda"</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>3259</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>43103</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>55745105</t>
+          <t>1304123</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>eldeniz</t>
+          <t>Cccccccccccc</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3995</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>45784</t>
+          <t>63115</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>56241637</t>
+          <t>3391765</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Player-14day</t>
+          <t>马er</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>3743</t>
+          <t>2664</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>31041</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>58174442</t>
+          <t>3649043</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Player-58174442</t>
+          <t>Dj6106</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4633</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>64015</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>58572199</t>
+          <t>5367482</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>你干嘛～哎呦～</t>
+          <t>Ігор</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2637</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>83365</t>
+          <t>59094</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>58671339</t>
+          <t>9718882</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>"quang pro"</t>
+          <t>小霸王2021</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>2180</t>
+          <t>2809</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>37983</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>58766144</t>
+          <t>11645391</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>EquablePrecedence38</t>
+          <t>"omar omar"</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4270</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>64426</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>58910668</t>
+          <t>15436348</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>BrittleAuthor33</t>
+          <t>Lucas</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2625</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>80727</t>
+          <t>30801</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>59081265</t>
+          <t>18082891</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>爬楼梯</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>2230</t>
+          <t>4644</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>74439</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>59082827</t>
+          <t>20372140</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Player-59082827</t>
+          <t>人山即是仙</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>1578</t>
+          <t>2393</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>64557</t>
+          <t>23235</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>6010122</t>
+          <t>25479797</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>"Edward Peng"</t>
+          <t>"Mohamed Alnaqbi"</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Chinese</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>2620</t>
+          <t>5033</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>25936</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>8850180</t>
+          <t>28855852</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>30624300</t>
+          <t>tiger</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Chinese</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4877</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14951</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>9195340</t>
+          <t>31134300</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Namllllllik</t>
+          <t>McMaX</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Chinese</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5577</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>23220</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>9913517</t>
+          <t>37069173</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>"Kenny Chan"</t>
+          <t>詹toniii</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Chinese</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5034</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>56384</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>10636651</t>
+          <t>38994054</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>"Ismail Aflou"</t>
+          <t>chengnan</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Chinese</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>2936</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>52772</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>12648101</t>
+          <t>43281368</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>"player 198827"</t>
+          <t>xhs2763</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Chinese</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3138</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>70155</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>15755724</t>
+          <t>44378757</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>"Last Good"</t>
+          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Chinese</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2500</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>27003</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>28624723</t>
+          <t>44708798</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>"Woody Shade"</t>
+          <t>"㊥ mythgod"</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Chinese</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4821</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
+          <t>42551</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>47244896</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Dropthebeat</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>二馆</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>4024</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>60956</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>47430231</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Kentantrino</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>二馆</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>2737</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>33369</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>47459684</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>㊥阿闹切克闹</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>二馆</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>4530</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>46377</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>48634530</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>leezhenrui</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>二馆</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>3681</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>43836</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>48738257</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>死亡洲际跳蛋</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>二馆</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>3951</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>49000199</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>SlipperyForester5672</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>二馆</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>1156</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>52954</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>52157846</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Hamza</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>二馆</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>3125</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>60682</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>52792063</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>"Tramaine Dowlen"</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>二馆</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>2747</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>44189</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>52997727</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>larios</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>二馆</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>3916</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>52935</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>54588689</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>㊥墨衍枫迹☜</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>二馆</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>3126</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>96224</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>54941706</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>AlexMenjivar20</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>二馆</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>1806</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>37471</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>55499394</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Player-55499394</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>二馆</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>4297</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>25471</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>55634661</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Opalus</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>二馆</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>4902</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>55810157</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Beard</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>二馆</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>34085</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>56379103</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Globalking1001</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>二馆</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>4493</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>34553</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>56585361</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>"㊥ go策划我要ali"</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>二馆</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>4464</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>48819</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>56700848</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>工口漫画老师</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>二馆</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>3448</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>33863</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>56732705</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>时间温柔皆遗憾</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>二馆</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>4505</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>91494</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>57219176</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>青莲道人</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>二馆</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>1997</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>57556179</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>特战新生代英雄</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>二馆</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>58340439</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>70qilin</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>二馆</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>39888</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>58408326</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>"Killer Bee"</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>二馆</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>4170</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>58615925</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>齐天的大圣</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>二馆</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>46742</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>58641574</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Player-58641574鱼</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>二馆</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>3641</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>33904</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>58743790</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Ma</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>二馆</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>4503</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>36427</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>58839983</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>每逢佳节胖六斤</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>二馆</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>4354</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>51309</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>58940575</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>图啊图z z</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>二馆</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>3253</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>29355299</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Player-29355299</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>三馆</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>41231396</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>ollsthebro</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>三馆</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>1498</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>51957</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>41849539</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>三号馆馆主</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>三馆</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>3205</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>47622456</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>伊恩</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>三馆</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>49553719</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>"Oreo Captain Sir"</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>三馆</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>51234</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>55210350</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>一个过客而已</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>三馆</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>3259</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>55745105</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>eldeniz</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>三馆</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>45784</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>56241637</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Player-14day</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>三馆</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>3743</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>58174442</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Player-58174442</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>三馆</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>58572199</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>你干嘛～哎呦～</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>三馆</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>83365</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>58671339</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>"quang pro"</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>三馆</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>2180</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>58766144</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>EquablePrecedence38</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>三馆</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>58910668</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>BrittleAuthor33</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>三馆</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>80727</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>59081265</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>爬楼梯</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>三馆</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>2230</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>59082827</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Player-59082827</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>三馆</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>1578</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>64557</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>6010122</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>"Edward Peng"</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>2620</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>8850180</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>30624300</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>9195340</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Namllllllik</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>9913517</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>"Kenny Chan"</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>56384</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>10636651</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>"Ismail Aflou"</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>2936</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>12648101</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>"player 198827"</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>15755724</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>"Last Good"</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>28624723</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>"Woody Shade"</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
           <t>49859</t>
         </is>
       </c>
-      <c r="B109" t="inlineStr">
+      <c r="B159" t="inlineStr">
         <is>
           <t>41848598</t>
         </is>
       </c>
-      <c r="C109" t="inlineStr">
+      <c r="C159" t="inlineStr">
         <is>
           <t>国家一级保护沙雕</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr">
+      <c r="D159" t="inlineStr">
         <is>
           <t>Chinese</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr">
+      <c r="E159" t="inlineStr">
         <is>
           <t>3361</t>
         </is>
